--- a/Datasets/Radlof/Data/Radlof_JR.xlsx
+++ b/Datasets/Radlof/Data/Radlof_JR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/Akademie_Projekt/Datasets/Radlof/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF99C0B-1508-214E-B610-E34C64072215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC5B790-095E-724B-BD9F-989BF3A0717B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="18000" xr2:uid="{3077CAFC-FA7C-2F47-8A82-10E22418B47E}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16020" xr2:uid="{3077CAFC-FA7C-2F47-8A82-10E22418B47E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4372" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4598" uniqueCount="710">
   <si>
     <t>ID</t>
   </si>
@@ -2163,6 +2163,9 @@
   </si>
   <si>
     <t>XII. Verderbte Mundarten.</t>
+  </si>
+  <si>
+    <t>Vergleich</t>
   </si>
 </sst>
 </file>
@@ -2256,7 +2259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2273,9 +2276,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2591,11 +2591,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2E1DA0-AE8B-2C4F-9404-3B390A7B84FE}">
-  <dimension ref="A1:XFA344"/>
+  <dimension ref="A1:XFB343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B311" sqref="B311:B343"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2604,12 +2604,12 @@
     <col min="3" max="3" width="33.83203125" customWidth="1"/>
     <col min="14" max="17" width="10.83203125" style="6"/>
     <col min="22" max="22" width="21.33203125" customWidth="1"/>
-    <col min="26" max="26" width="16.5" customWidth="1"/>
-    <col min="28" max="28" width="10.83203125" style="4"/>
-    <col min="29" max="29" width="13.5" customWidth="1"/>
+    <col min="27" max="27" width="16.5" customWidth="1"/>
+    <col min="29" max="29" width="10.83203125" style="4"/>
+    <col min="30" max="30" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2680,34 +2680,36 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
-      <c r="AJ1" s="1"/>
+      <c r="AJ1" s="2"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
@@ -19053,8 +19055,9 @@
       <c r="XEY1" s="1"/>
       <c r="XEZ1" s="1"/>
       <c r="XFA1" s="1"/>
+      <c r="XFB1" s="1"/>
     </row>
-    <row r="2" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>28</v>
       </c>
@@ -19106,14 +19109,17 @@
       <c r="W2" t="s">
         <v>356</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="X2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD2" t="s">
         <v>322</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>28</v>
       </c>
@@ -19156,8 +19162,11 @@
       <c r="W3" t="s">
         <v>357</v>
       </c>
+      <c r="X3" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="4" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>28</v>
       </c>
@@ -19200,8 +19209,11 @@
       <c r="W4" t="s">
         <v>357</v>
       </c>
+      <c r="X4" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="5" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -19244,8 +19256,11 @@
       <c r="W5" t="s">
         <v>357</v>
       </c>
+      <c r="X5" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="6" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>28</v>
       </c>
@@ -19288,8 +19303,11 @@
       <c r="W6" t="s">
         <v>357</v>
       </c>
+      <c r="X6" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="7" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>28</v>
       </c>
@@ -19332,8 +19350,11 @@
       <c r="W7" t="s">
         <v>357</v>
       </c>
+      <c r="X7" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="8" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>28</v>
       </c>
@@ -19376,8 +19397,11 @@
       <c r="W8" t="s">
         <v>357</v>
       </c>
+      <c r="X8" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="9" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>28</v>
       </c>
@@ -19420,8 +19444,11 @@
       <c r="W9" t="s">
         <v>357</v>
       </c>
+      <c r="X9" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="10" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>28</v>
       </c>
@@ -19464,8 +19491,11 @@
       <c r="W10" t="s">
         <v>357</v>
       </c>
+      <c r="X10" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="11" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>28</v>
       </c>
@@ -19508,8 +19538,11 @@
       <c r="W11" t="s">
         <v>357</v>
       </c>
+      <c r="X11" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="12" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -19552,8 +19585,11 @@
       <c r="W12" t="s">
         <v>357</v>
       </c>
+      <c r="X12" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="13" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>28</v>
       </c>
@@ -19605,17 +19641,20 @@
       <c r="W13" t="s">
         <v>356</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="X13" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD13" t="s">
         <v>322</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>1519</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>28</v>
       </c>
@@ -19658,8 +19697,11 @@
       <c r="W14" t="s">
         <v>357</v>
       </c>
+      <c r="X14" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="15" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>28</v>
       </c>
@@ -19702,8 +19744,11 @@
       <c r="W15" t="s">
         <v>357</v>
       </c>
+      <c r="X15" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="16" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -19746,8 +19791,11 @@
       <c r="W16" t="s">
         <v>357</v>
       </c>
+      <c r="X16" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>28</v>
       </c>
@@ -19790,8 +19838,11 @@
       <c r="W17" t="s">
         <v>357</v>
       </c>
+      <c r="X17" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -19834,8 +19885,11 @@
       <c r="W18" t="s">
         <v>357</v>
       </c>
+      <c r="X18" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>28</v>
       </c>
@@ -19878,8 +19932,11 @@
       <c r="W19" t="s">
         <v>357</v>
       </c>
+      <c r="X19" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>28</v>
       </c>
@@ -19916,8 +19973,11 @@
       <c r="W20" t="s">
         <v>356</v>
       </c>
+      <c r="X20" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>28</v>
       </c>
@@ -19963,14 +20023,17 @@
       <c r="W21" t="s">
         <v>357</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="X21" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD21" t="s">
         <v>322</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>28</v>
       </c>
@@ -20016,14 +20079,17 @@
       <c r="W22" t="s">
         <v>356</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="X22" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD22" t="s">
         <v>322</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>28</v>
       </c>
@@ -20069,14 +20135,17 @@
       <c r="W23" t="s">
         <v>356</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="X23" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD23" t="s">
         <v>324</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>28</v>
       </c>
@@ -20122,14 +20191,17 @@
       <c r="W24" t="s">
         <v>356</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="X24" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD24" t="s">
         <v>322</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -20175,14 +20247,17 @@
       <c r="W25" t="s">
         <v>357</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="X25" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD25" t="s">
         <v>322</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>28</v>
       </c>
@@ -20228,14 +20303,17 @@
       <c r="W26" t="s">
         <v>357</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="X26" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD26" t="s">
         <v>322</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>28</v>
       </c>
@@ -20281,14 +20359,17 @@
       <c r="W27" t="s">
         <v>356</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="X27" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD27" t="s">
         <v>322</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>28</v>
       </c>
@@ -20334,14 +20415,17 @@
       <c r="W28" t="s">
         <v>356</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="X28" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD28" t="s">
         <v>322</v>
       </c>
-      <c r="AE28" t="s">
+      <c r="AF28" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -20387,17 +20471,20 @@
       <c r="W29" t="s">
         <v>356</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="X29" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD29" t="s">
         <v>322</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>1808</v>
       </c>
-      <c r="AE29" t="s">
+      <c r="AF29" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>28</v>
       </c>
@@ -20443,14 +20530,17 @@
       <c r="W30" t="s">
         <v>356</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="X30" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD30" t="s">
         <v>322</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AF30" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -20487,8 +20577,11 @@
       <c r="W31" t="s">
         <v>356</v>
       </c>
+      <c r="X31" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>28</v>
       </c>
@@ -20534,14 +20627,17 @@
       <c r="W32" t="s">
         <v>356</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="X32" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD32" t="s">
         <v>322</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="AF32" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>28</v>
       </c>
@@ -20587,14 +20683,17 @@
       <c r="W33" t="s">
         <v>356</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="X33" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD33" t="s">
         <v>322</v>
       </c>
-      <c r="AE33" t="s">
+      <c r="AF33" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>28</v>
       </c>
@@ -20640,17 +20739,20 @@
       <c r="W34" t="s">
         <v>356</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="X34" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD34" t="s">
         <v>324</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>1800</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AF34" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>28</v>
       </c>
@@ -20696,14 +20798,17 @@
       <c r="W35" t="s">
         <v>357</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="X35" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD35" t="s">
         <v>322</v>
       </c>
-      <c r="AE35" t="s">
+      <c r="AF35" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>28</v>
       </c>
@@ -20749,14 +20854,17 @@
       <c r="W36" t="s">
         <v>357</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="X36" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD36" t="s">
         <v>324</v>
       </c>
-      <c r="AE36" t="s">
+      <c r="AF36" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>332</v>
       </c>
@@ -20793,8 +20901,11 @@
       <c r="W37" t="s">
         <v>356</v>
       </c>
+      <c r="X37" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>28</v>
       </c>
@@ -20840,14 +20951,17 @@
       <c r="W38" t="s">
         <v>357</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="X38" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD38" t="s">
         <v>322</v>
       </c>
-      <c r="AE38" t="s">
+      <c r="AF38" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>28</v>
       </c>
@@ -20893,20 +21007,23 @@
       <c r="W39" t="s">
         <v>357</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="X39" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA39" t="s">
         <v>385</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="AD39" t="s">
         <v>322</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>1809</v>
       </c>
-      <c r="AE39" t="s">
+      <c r="AF39" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>28</v>
       </c>
@@ -20943,8 +21060,11 @@
       <c r="W40" t="s">
         <v>357</v>
       </c>
+      <c r="X40" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>28</v>
       </c>
@@ -20990,14 +21110,17 @@
       <c r="W41" t="s">
         <v>357</v>
       </c>
-      <c r="AC41" t="s">
+      <c r="X41" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD41" t="s">
         <v>322</v>
       </c>
-      <c r="AE41" t="s">
+      <c r="AF41" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>28</v>
       </c>
@@ -21043,14 +21166,17 @@
       <c r="W42" t="s">
         <v>356</v>
       </c>
-      <c r="AC42" t="s">
+      <c r="X42" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD42" t="s">
         <v>324</v>
       </c>
-      <c r="AE42" t="s">
+      <c r="AF42" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>28</v>
       </c>
@@ -21096,14 +21222,17 @@
       <c r="W43" t="s">
         <v>356</v>
       </c>
-      <c r="AC43" t="s">
+      <c r="X43" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD43" t="s">
         <v>324</v>
       </c>
-      <c r="AE43" t="s">
+      <c r="AF43" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>28</v>
       </c>
@@ -21149,14 +21278,17 @@
       <c r="W44" t="s">
         <v>356</v>
       </c>
-      <c r="AC44" t="s">
+      <c r="X44" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD44" t="s">
         <v>324</v>
       </c>
-      <c r="AE44" t="s">
+      <c r="AF44" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>28</v>
       </c>
@@ -21202,14 +21334,17 @@
       <c r="W45" t="s">
         <v>356</v>
       </c>
-      <c r="AC45" t="s">
+      <c r="X45" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD45" t="s">
         <v>324</v>
       </c>
-      <c r="AE45" t="s">
+      <c r="AF45" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>28</v>
       </c>
@@ -21255,14 +21390,17 @@
       <c r="W46" t="s">
         <v>356</v>
       </c>
-      <c r="AC46" t="s">
+      <c r="X46" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD46" t="s">
         <v>324</v>
       </c>
-      <c r="AE46" t="s">
+      <c r="AF46" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>28</v>
       </c>
@@ -21299,8 +21437,11 @@
       <c r="W47" t="s">
         <v>357</v>
       </c>
+      <c r="X47" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>28</v>
       </c>
@@ -21337,8 +21478,11 @@
       <c r="W48" t="s">
         <v>357</v>
       </c>
+      <c r="X48" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>28</v>
       </c>
@@ -21375,8 +21519,11 @@
       <c r="W49" t="s">
         <v>357</v>
       </c>
+      <c r="X49" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>28</v>
       </c>
@@ -21413,8 +21560,11 @@
       <c r="W50" t="s">
         <v>357</v>
       </c>
+      <c r="X50" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>28</v>
       </c>
@@ -21451,8 +21601,11 @@
       <c r="W51" t="s">
         <v>357</v>
       </c>
+      <c r="X51" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>28</v>
       </c>
@@ -21489,8 +21642,11 @@
       <c r="W52" t="s">
         <v>357</v>
       </c>
+      <c r="X52" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>28</v>
       </c>
@@ -21527,8 +21683,11 @@
       <c r="W53" t="s">
         <v>357</v>
       </c>
+      <c r="X53" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>28</v>
       </c>
@@ -21565,8 +21724,11 @@
       <c r="W54" t="s">
         <v>357</v>
       </c>
+      <c r="X54" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>28</v>
       </c>
@@ -21603,8 +21765,11 @@
       <c r="W55" t="s">
         <v>357</v>
       </c>
+      <c r="X55" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>28</v>
       </c>
@@ -21641,8 +21806,11 @@
       <c r="W56" t="s">
         <v>357</v>
       </c>
+      <c r="X56" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>28</v>
       </c>
@@ -21679,8 +21847,11 @@
       <c r="W57" t="s">
         <v>357</v>
       </c>
+      <c r="X57" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>28</v>
       </c>
@@ -21717,8 +21888,11 @@
       <c r="W58" t="s">
         <v>357</v>
       </c>
+      <c r="X58" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>28</v>
       </c>
@@ -21755,8 +21929,11 @@
       <c r="W59" t="s">
         <v>357</v>
       </c>
+      <c r="X59" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>28</v>
       </c>
@@ -21793,8 +21970,11 @@
       <c r="W60" t="s">
         <v>357</v>
       </c>
+      <c r="X60" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>28</v>
       </c>
@@ -21831,8 +22011,11 @@
       <c r="W61" t="s">
         <v>357</v>
       </c>
+      <c r="X61" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>28</v>
       </c>
@@ -21869,8 +22052,11 @@
       <c r="W62" t="s">
         <v>357</v>
       </c>
+      <c r="X62" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>28</v>
       </c>
@@ -21907,8 +22093,11 @@
       <c r="W63" t="s">
         <v>357</v>
       </c>
+      <c r="X63" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>28</v>
       </c>
@@ -21945,8 +22134,11 @@
       <c r="W64" t="s">
         <v>357</v>
       </c>
+      <c r="X64" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>28</v>
       </c>
@@ -21992,14 +22184,17 @@
       <c r="W65" t="s">
         <v>356</v>
       </c>
-      <c r="AC65" t="s">
+      <c r="X65" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD65" t="s">
         <v>324</v>
       </c>
-      <c r="AE65" t="s">
+      <c r="AF65" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>28</v>
       </c>
@@ -22045,17 +22240,20 @@
       <c r="W66" t="s">
         <v>356</v>
       </c>
-      <c r="AC66" t="s">
+      <c r="X66" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD66" t="s">
         <v>323</v>
       </c>
-      <c r="AD66">
+      <c r="AE66">
         <v>1801</v>
       </c>
-      <c r="AE66" t="s">
+      <c r="AF66" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>28</v>
       </c>
@@ -22092,8 +22290,11 @@
       <c r="W67" t="s">
         <v>357</v>
       </c>
+      <c r="X67" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>28</v>
       </c>
@@ -22130,8 +22331,11 @@
       <c r="W68" t="s">
         <v>357</v>
       </c>
+      <c r="X68" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>28</v>
       </c>
@@ -22177,14 +22381,17 @@
       <c r="W69" t="s">
         <v>356</v>
       </c>
-      <c r="AC69" t="s">
+      <c r="X69" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD69" t="s">
         <v>323</v>
       </c>
-      <c r="AE69" t="s">
+      <c r="AF69" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>28</v>
       </c>
@@ -22221,8 +22428,11 @@
       <c r="W70" t="s">
         <v>357</v>
       </c>
+      <c r="X70" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>28</v>
       </c>
@@ -22259,8 +22469,11 @@
       <c r="W71" t="s">
         <v>357</v>
       </c>
+      <c r="X71" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>28</v>
       </c>
@@ -22306,14 +22519,17 @@
       <c r="W72" t="s">
         <v>357</v>
       </c>
-      <c r="AC72" t="s">
+      <c r="X72" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD72" t="s">
         <v>323</v>
       </c>
-      <c r="AE72" t="s">
+      <c r="AF72" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>28</v>
       </c>
@@ -22350,8 +22566,11 @@
       <c r="W73" t="s">
         <v>357</v>
       </c>
+      <c r="X73" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>28</v>
       </c>
@@ -22388,8 +22607,11 @@
       <c r="W74" t="s">
         <v>357</v>
       </c>
+      <c r="X74" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>28</v>
       </c>
@@ -22426,8 +22648,11 @@
       <c r="W75" t="s">
         <v>357</v>
       </c>
+      <c r="X75" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>28</v>
       </c>
@@ -22473,14 +22698,17 @@
       <c r="W76" t="s">
         <v>357</v>
       </c>
-      <c r="AC76" t="s">
+      <c r="X76" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD76" t="s">
         <v>323</v>
       </c>
-      <c r="AE76" t="s">
+      <c r="AF76" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>28</v>
       </c>
@@ -22526,14 +22754,17 @@
       <c r="W77" t="s">
         <v>357</v>
       </c>
-      <c r="AC77" t="s">
+      <c r="X77" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD77" t="s">
         <v>323</v>
       </c>
-      <c r="AE77" t="s">
+      <c r="AF77" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="78" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>28</v>
       </c>
@@ -22579,14 +22810,17 @@
       <c r="W78" t="s">
         <v>357</v>
       </c>
-      <c r="AC78" t="s">
+      <c r="X78" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD78" t="s">
         <v>323</v>
       </c>
-      <c r="AE78" t="s">
+      <c r="AF78" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>28</v>
       </c>
@@ -22632,14 +22866,17 @@
       <c r="W79" t="s">
         <v>357</v>
       </c>
-      <c r="AC79" t="s">
+      <c r="X79" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD79" t="s">
         <v>323</v>
       </c>
-      <c r="AE79" t="s">
+      <c r="AF79" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>28</v>
       </c>
@@ -22685,14 +22922,17 @@
       <c r="W80" t="s">
         <v>357</v>
       </c>
-      <c r="AC80" t="s">
+      <c r="X80" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD80" t="s">
         <v>323</v>
       </c>
-      <c r="AE80" t="s">
+      <c r="AF80" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="81" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>28</v>
       </c>
@@ -22729,8 +22969,11 @@
       <c r="W81" t="s">
         <v>357</v>
       </c>
+      <c r="X81" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="82" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>28</v>
       </c>
@@ -22776,14 +23019,17 @@
       <c r="W82" t="s">
         <v>356</v>
       </c>
-      <c r="AC82" t="s">
+      <c r="X82" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD82" t="s">
         <v>323</v>
       </c>
-      <c r="AE82" t="s">
+      <c r="AF82" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="83" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>28</v>
       </c>
@@ -22829,14 +23075,17 @@
       <c r="W83" t="s">
         <v>356</v>
       </c>
-      <c r="AC83" t="s">
+      <c r="X83" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD83" t="s">
         <v>323</v>
       </c>
-      <c r="AE83" t="s">
+      <c r="AF83" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="84" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>28</v>
       </c>
@@ -22882,14 +23131,17 @@
       <c r="W84" t="s">
         <v>356</v>
       </c>
-      <c r="AC84" t="s">
+      <c r="X84" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD84" t="s">
         <v>323</v>
       </c>
-      <c r="AE84" t="s">
+      <c r="AF84" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="85" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>28</v>
       </c>
@@ -22935,14 +23187,17 @@
       <c r="W85" t="s">
         <v>357</v>
       </c>
-      <c r="AC85" t="s">
+      <c r="X85" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD85" t="s">
         <v>323</v>
       </c>
-      <c r="AE85" t="s">
+      <c r="AF85" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="86" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>28</v>
       </c>
@@ -22988,14 +23243,17 @@
       <c r="W86" t="s">
         <v>357</v>
       </c>
-      <c r="AC86" t="s">
+      <c r="X86" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD86" t="s">
         <v>323</v>
       </c>
-      <c r="AE86" t="s">
+      <c r="AF86" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="87" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>28</v>
       </c>
@@ -23041,17 +23299,20 @@
       <c r="W87" t="s">
         <v>356</v>
       </c>
-      <c r="AC87" t="s">
+      <c r="X87" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD87" t="s">
         <v>324</v>
       </c>
-      <c r="AD87">
+      <c r="AE87">
         <v>1813</v>
       </c>
-      <c r="AE87" t="s">
+      <c r="AF87" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="88" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>28</v>
       </c>
@@ -23097,14 +23358,17 @@
       <c r="W88" t="s">
         <v>356</v>
       </c>
-      <c r="AC88" t="s">
+      <c r="X88" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD88" t="s">
         <v>324</v>
       </c>
-      <c r="AE88" t="s">
+      <c r="AF88" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="89" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>28</v>
       </c>
@@ -23150,17 +23414,20 @@
       <c r="W89" t="s">
         <v>356</v>
       </c>
-      <c r="AC89" t="s">
+      <c r="X89" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD89" t="s">
         <v>324</v>
       </c>
-      <c r="AD89">
+      <c r="AE89">
         <v>1724</v>
       </c>
-      <c r="AE89" t="s">
+      <c r="AF89" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="90" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>28</v>
       </c>
@@ -23206,17 +23473,20 @@
       <c r="W90" t="s">
         <v>356</v>
       </c>
-      <c r="AC90" t="s">
+      <c r="X90" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD90" t="s">
         <v>324</v>
       </c>
-      <c r="AD90">
+      <c r="AE90">
         <v>1802</v>
       </c>
-      <c r="AE90" t="s">
+      <c r="AF90" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="91" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>28</v>
       </c>
@@ -23262,14 +23532,17 @@
       <c r="W91" t="s">
         <v>356</v>
       </c>
-      <c r="AC91" t="s">
+      <c r="X91" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD91" t="s">
         <v>324</v>
       </c>
-      <c r="AE91" t="s">
+      <c r="AF91" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="92" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>28</v>
       </c>
@@ -23315,14 +23588,17 @@
       <c r="W92" t="s">
         <v>356</v>
       </c>
-      <c r="AC92" t="s">
+      <c r="X92" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD92" t="s">
         <v>325</v>
       </c>
-      <c r="AE92" t="s">
+      <c r="AF92" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="93" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>28</v>
       </c>
@@ -23368,14 +23644,17 @@
       <c r="W93" t="s">
         <v>357</v>
       </c>
-      <c r="AC93" t="s">
+      <c r="X93" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD93" t="s">
         <v>324</v>
       </c>
-      <c r="AE93" t="s">
+      <c r="AF93" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="94" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>28</v>
       </c>
@@ -23421,14 +23700,17 @@
       <c r="W94" t="s">
         <v>357</v>
       </c>
-      <c r="AC94" t="s">
+      <c r="X94" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD94" t="s">
         <v>324</v>
       </c>
-      <c r="AE94" t="s">
+      <c r="AF94" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="95" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>28</v>
       </c>
@@ -23474,14 +23756,17 @@
       <c r="W95" t="s">
         <v>357</v>
       </c>
-      <c r="AC95" t="s">
+      <c r="X95" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD95" t="s">
         <v>324</v>
       </c>
-      <c r="AE95" t="s">
+      <c r="AF95" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="96" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>28</v>
       </c>
@@ -23527,17 +23812,20 @@
       <c r="W96" t="s">
         <v>357</v>
       </c>
-      <c r="AC96" t="s">
+      <c r="X96" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD96" t="s">
         <v>324</v>
       </c>
-      <c r="AD96">
+      <c r="AE96">
         <v>1819</v>
       </c>
-      <c r="AE96" t="s">
+      <c r="AF96" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="97" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>28</v>
       </c>
@@ -23583,17 +23871,20 @@
       <c r="W97" t="s">
         <v>356</v>
       </c>
-      <c r="AC97" t="s">
+      <c r="X97" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD97" t="s">
         <v>324</v>
       </c>
-      <c r="AD97">
+      <c r="AE97">
         <v>1808</v>
       </c>
-      <c r="AE97" t="s">
+      <c r="AF97" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="98" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>28</v>
       </c>
@@ -23630,8 +23921,11 @@
       <c r="W98" t="s">
         <v>357</v>
       </c>
+      <c r="X98" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="99" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>28</v>
       </c>
@@ -23668,8 +23962,11 @@
       <c r="W99" t="s">
         <v>357</v>
       </c>
+      <c r="X99" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="100" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>28</v>
       </c>
@@ -23706,8 +24003,11 @@
       <c r="W100" t="s">
         <v>357</v>
       </c>
+      <c r="X100" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="101" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>28</v>
       </c>
@@ -23744,8 +24044,11 @@
       <c r="W101" t="s">
         <v>357</v>
       </c>
+      <c r="X101" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="102" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>28</v>
       </c>
@@ -23791,14 +24094,17 @@
       <c r="W102" t="s">
         <v>357</v>
       </c>
-      <c r="AC102" t="s">
+      <c r="X102" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD102" t="s">
         <v>324</v>
       </c>
-      <c r="AE102" t="s">
+      <c r="AF102" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="103" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>28</v>
       </c>
@@ -23844,14 +24150,17 @@
       <c r="W103" t="s">
         <v>356</v>
       </c>
-      <c r="AC103" t="s">
+      <c r="X103" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD103" t="s">
         <v>324</v>
       </c>
-      <c r="AE103" t="s">
+      <c r="AF103" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="104" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>28</v>
       </c>
@@ -23897,17 +24206,20 @@
       <c r="W104" t="s">
         <v>356</v>
       </c>
-      <c r="AC104" t="s">
+      <c r="X104" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD104" t="s">
         <v>324</v>
       </c>
-      <c r="AD104">
+      <c r="AE104">
         <v>1816</v>
       </c>
-      <c r="AE104" t="s">
+      <c r="AF104" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="105" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>28</v>
       </c>
@@ -23944,8 +24256,11 @@
       <c r="W105" t="s">
         <v>357</v>
       </c>
+      <c r="X105" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="106" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>28</v>
       </c>
@@ -23982,8 +24297,11 @@
       <c r="W106" t="s">
         <v>357</v>
       </c>
+      <c r="X106" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="107" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>28</v>
       </c>
@@ -24020,8 +24338,11 @@
       <c r="W107" t="s">
         <v>357</v>
       </c>
+      <c r="X107" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="108" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>28</v>
       </c>
@@ -24058,8 +24379,11 @@
       <c r="W108" t="s">
         <v>357</v>
       </c>
+      <c r="X108" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="109" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>28</v>
       </c>
@@ -24096,8 +24420,11 @@
       <c r="W109" t="s">
         <v>357</v>
       </c>
+      <c r="X109" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="110" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>28</v>
       </c>
@@ -24134,8 +24461,11 @@
       <c r="W110" t="s">
         <v>357</v>
       </c>
+      <c r="X110" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="111" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>28</v>
       </c>
@@ -24172,8 +24502,11 @@
       <c r="W111" t="s">
         <v>357</v>
       </c>
+      <c r="X111" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="112" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>28</v>
       </c>
@@ -24219,14 +24552,17 @@
       <c r="W112" t="s">
         <v>356</v>
       </c>
-      <c r="AC112" t="s">
+      <c r="X112" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD112" t="s">
         <v>325</v>
       </c>
-      <c r="AE112" t="s">
+      <c r="AF112" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="113" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>28</v>
       </c>
@@ -24272,14 +24608,17 @@
       <c r="W113" t="s">
         <v>357</v>
       </c>
-      <c r="AC113" t="s">
+      <c r="X113" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD113" t="s">
         <v>324</v>
       </c>
-      <c r="AE113" t="s">
+      <c r="AF113" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="114" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>28</v>
       </c>
@@ -24325,14 +24664,17 @@
       <c r="W114" t="s">
         <v>356</v>
       </c>
-      <c r="AC114" t="s">
+      <c r="X114" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD114" t="s">
         <v>325</v>
       </c>
-      <c r="AE114" t="s">
+      <c r="AF114" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="115" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>28</v>
       </c>
@@ -24369,8 +24711,11 @@
       <c r="W115" t="s">
         <v>357</v>
       </c>
+      <c r="X115" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="116" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>28</v>
       </c>
@@ -24416,14 +24761,17 @@
       <c r="W116" t="s">
         <v>357</v>
       </c>
-      <c r="AC116" t="s">
+      <c r="X116" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD116" t="s">
         <v>324</v>
       </c>
-      <c r="AE116" t="s">
+      <c r="AF116" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="117" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>28</v>
       </c>
@@ -24469,14 +24817,17 @@
       <c r="W117" t="s">
         <v>356</v>
       </c>
-      <c r="AC117" t="s">
+      <c r="X117" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD117" t="s">
         <v>324</v>
       </c>
-      <c r="AE117" t="s">
+      <c r="AF117" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="118" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>28</v>
       </c>
@@ -24522,14 +24873,17 @@
       <c r="W118" t="s">
         <v>356</v>
       </c>
-      <c r="AC118" t="s">
+      <c r="X118" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD118" t="s">
         <v>326</v>
       </c>
-      <c r="AE118" t="s">
+      <c r="AF118" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="119" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>28</v>
       </c>
@@ -24575,14 +24929,17 @@
       <c r="W119" t="s">
         <v>356</v>
       </c>
-      <c r="AC119" t="s">
+      <c r="X119" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD119" t="s">
         <v>324</v>
       </c>
-      <c r="AE119" t="s">
+      <c r="AF119" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="120" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>28</v>
       </c>
@@ -24628,14 +24985,17 @@
       <c r="W120" t="s">
         <v>356</v>
       </c>
-      <c r="AC120" t="s">
+      <c r="X120" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD120" t="s">
         <v>326</v>
       </c>
-      <c r="AE120" t="s">
+      <c r="AF120" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="121" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>28</v>
       </c>
@@ -24672,8 +25032,11 @@
       <c r="W121" t="s">
         <v>357</v>
       </c>
+      <c r="X121" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="122" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>28</v>
       </c>
@@ -24719,14 +25082,17 @@
       <c r="W122" t="s">
         <v>357</v>
       </c>
-      <c r="AC122" t="s">
+      <c r="X122" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD122" t="s">
         <v>327</v>
       </c>
-      <c r="AE122" t="s">
+      <c r="AF122" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>28</v>
       </c>
@@ -24772,17 +25138,20 @@
       <c r="W123" t="s">
         <v>357</v>
       </c>
-      <c r="AC123" t="s">
+      <c r="X123" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD123" t="s">
         <v>324</v>
       </c>
-      <c r="AD123">
+      <c r="AE123">
         <v>1759</v>
       </c>
-      <c r="AE123" t="s">
+      <c r="AF123" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="124" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>28</v>
       </c>
@@ -24819,8 +25188,11 @@
       <c r="W124" t="s">
         <v>356</v>
       </c>
+      <c r="X124" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="125" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>28</v>
       </c>
@@ -24866,17 +25238,20 @@
       <c r="W125" t="s">
         <v>357</v>
       </c>
-      <c r="AC125" t="s">
+      <c r="X125" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD125" t="s">
         <v>323</v>
       </c>
-      <c r="AD125">
+      <c r="AE125">
         <v>1721</v>
       </c>
-      <c r="AE125" t="s">
+      <c r="AF125" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="126" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>28</v>
       </c>
@@ -24922,17 +25297,20 @@
       <c r="W126" t="s">
         <v>356</v>
       </c>
-      <c r="Z126" t="s">
+      <c r="X126" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA126" t="s">
         <v>474</v>
       </c>
-      <c r="AC126" t="s">
+      <c r="AD126" t="s">
         <v>323</v>
       </c>
-      <c r="AE126" t="s">
+      <c r="AF126" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>28</v>
       </c>
@@ -24969,8 +25347,11 @@
       <c r="W127" t="s">
         <v>357</v>
       </c>
+      <c r="X127" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="128" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>28</v>
       </c>
@@ -25016,17 +25397,20 @@
       <c r="W128" t="s">
         <v>356</v>
       </c>
-      <c r="AC128" t="s">
+      <c r="X128" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD128" t="s">
         <v>323</v>
       </c>
-      <c r="AD128">
+      <c r="AE128">
         <v>1802</v>
       </c>
-      <c r="AE128" t="s">
+      <c r="AF128" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="129" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>28</v>
       </c>
@@ -25063,8 +25447,11 @@
       <c r="W129" t="s">
         <v>357</v>
       </c>
+      <c r="X129" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="130" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>28</v>
       </c>
@@ -25101,8 +25488,11 @@
       <c r="W130" t="s">
         <v>357</v>
       </c>
+      <c r="X130" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="131" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>28</v>
       </c>
@@ -25148,14 +25538,17 @@
       <c r="W131" t="s">
         <v>357</v>
       </c>
-      <c r="AC131" t="s">
+      <c r="X131" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD131" t="s">
         <v>323</v>
       </c>
-      <c r="AE131" t="s">
+      <c r="AF131" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="132" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>28</v>
       </c>
@@ -25201,17 +25594,20 @@
       <c r="W132" t="s">
         <v>356</v>
       </c>
-      <c r="AC132" t="s">
+      <c r="X132" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD132" t="s">
         <v>323</v>
       </c>
-      <c r="AD132">
+      <c r="AE132">
         <v>1742</v>
       </c>
-      <c r="AE132" t="s">
+      <c r="AF132" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="133" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>28</v>
       </c>
@@ -25257,14 +25653,17 @@
       <c r="W133" t="s">
         <v>356</v>
       </c>
-      <c r="AC133" t="s">
+      <c r="X133" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD133" t="s">
         <v>323</v>
       </c>
-      <c r="AE133" t="s">
+      <c r="AF133" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="134" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>28</v>
       </c>
@@ -25310,17 +25709,20 @@
       <c r="W134" t="s">
         <v>356</v>
       </c>
-      <c r="AC134" t="s">
+      <c r="X134" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD134" t="s">
         <v>323</v>
       </c>
-      <c r="AD134">
+      <c r="AE134">
         <v>1758</v>
       </c>
-      <c r="AE134" t="s">
+      <c r="AF134" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="135" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>28</v>
       </c>
@@ -25363,8 +25765,11 @@
       <c r="W135" t="s">
         <v>356</v>
       </c>
+      <c r="X135" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="136" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>28</v>
       </c>
@@ -25416,14 +25821,17 @@
       <c r="W136" t="s">
         <v>357</v>
       </c>
-      <c r="AC136" t="s">
+      <c r="X136" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD136" t="s">
         <v>323</v>
       </c>
-      <c r="AE136" t="s">
+      <c r="AF136" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="137" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>28</v>
       </c>
@@ -25475,14 +25883,17 @@
       <c r="W137" t="s">
         <v>357</v>
       </c>
-      <c r="AC137" t="s">
+      <c r="X137" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD137" t="s">
         <v>323</v>
       </c>
-      <c r="AE137" t="s">
+      <c r="AF137" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="138" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>28</v>
       </c>
@@ -25534,14 +25945,17 @@
       <c r="W138" t="s">
         <v>357</v>
       </c>
-      <c r="AC138" t="s">
+      <c r="X138" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD138" t="s">
         <v>323</v>
       </c>
-      <c r="AE138" t="s">
+      <c r="AF138" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="139" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>28</v>
       </c>
@@ -25578,8 +25992,11 @@
       <c r="W139" t="s">
         <v>356</v>
       </c>
+      <c r="X139" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="140" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>28</v>
       </c>
@@ -25625,14 +26042,17 @@
       <c r="W140" t="s">
         <v>357</v>
       </c>
-      <c r="AC140" t="s">
+      <c r="X140" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD140" t="s">
         <v>323</v>
       </c>
-      <c r="AE140" t="s">
+      <c r="AF140" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="141" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>28</v>
       </c>
@@ -25669,8 +26089,11 @@
       <c r="W141" t="s">
         <v>356</v>
       </c>
+      <c r="X141" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="142" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>28</v>
       </c>
@@ -25716,14 +26139,17 @@
       <c r="W142" t="s">
         <v>357</v>
       </c>
-      <c r="AC142" t="s">
+      <c r="X142" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD142" t="s">
         <v>323</v>
       </c>
-      <c r="AE142" t="s">
+      <c r="AF142" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="143" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>28</v>
       </c>
@@ -25769,14 +26195,17 @@
       <c r="W143" t="s">
         <v>356</v>
       </c>
-      <c r="AC143" t="s">
+      <c r="X143" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD143" t="s">
         <v>323</v>
       </c>
-      <c r="AE143" t="s">
+      <c r="AF143" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="144" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>28</v>
       </c>
@@ -25813,8 +26242,11 @@
       <c r="W144" t="s">
         <v>357</v>
       </c>
+      <c r="X144" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="145" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>28</v>
       </c>
@@ -25860,17 +26292,20 @@
       <c r="W145" t="s">
         <v>357</v>
       </c>
-      <c r="AC145" t="s">
+      <c r="X145" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD145" t="s">
         <v>323</v>
       </c>
-      <c r="AD145">
+      <c r="AE145">
         <v>1711</v>
       </c>
-      <c r="AE145" t="s">
+      <c r="AF145" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="146" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>28</v>
       </c>
@@ -25907,8 +26342,11 @@
       <c r="W146" t="s">
         <v>356</v>
       </c>
+      <c r="X146" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="147" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>28</v>
       </c>
@@ -25954,14 +26392,17 @@
       <c r="W147" t="s">
         <v>357</v>
       </c>
-      <c r="AC147" t="s">
+      <c r="X147" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD147" t="s">
         <v>323</v>
       </c>
-      <c r="AE147" t="s">
+      <c r="AF147" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="148" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>28</v>
       </c>
@@ -25998,8 +26439,11 @@
       <c r="W148" t="s">
         <v>356</v>
       </c>
+      <c r="X148" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="149" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>28</v>
       </c>
@@ -26045,14 +26489,17 @@
       <c r="W149" t="s">
         <v>357</v>
       </c>
-      <c r="AC149" t="s">
+      <c r="X149" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD149" t="s">
         <v>323</v>
       </c>
-      <c r="AE149" t="s">
+      <c r="AF149" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="150" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>28</v>
       </c>
@@ -26089,8 +26536,11 @@
       <c r="W150" t="s">
         <v>356</v>
       </c>
+      <c r="X150" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="151" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>28</v>
       </c>
@@ -26136,14 +26586,17 @@
       <c r="W151" t="s">
         <v>357</v>
       </c>
-      <c r="AC151" t="s">
+      <c r="X151" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD151" t="s">
         <v>323</v>
       </c>
-      <c r="AE151" t="s">
+      <c r="AF151" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="152" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>28</v>
       </c>
@@ -26189,14 +26642,17 @@
       <c r="W152" t="s">
         <v>357</v>
       </c>
-      <c r="AC152" t="s">
+      <c r="X152" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD152" t="s">
         <v>323</v>
       </c>
-      <c r="AE152" t="s">
+      <c r="AF152" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="153" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>28</v>
       </c>
@@ -26242,17 +26698,20 @@
       <c r="W153" t="s">
         <v>357</v>
       </c>
-      <c r="AC153" t="s">
+      <c r="X153" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD153" t="s">
         <v>323</v>
       </c>
-      <c r="AD153">
+      <c r="AE153">
         <v>1811</v>
       </c>
-      <c r="AE153" t="s">
+      <c r="AF153" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="154" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>28</v>
       </c>
@@ -26298,17 +26757,20 @@
       <c r="W154" t="s">
         <v>357</v>
       </c>
-      <c r="AC154" t="s">
+      <c r="X154" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD154" t="s">
         <v>323</v>
       </c>
-      <c r="AD154">
+      <c r="AE154">
         <v>1811</v>
       </c>
-      <c r="AE154" t="s">
+      <c r="AF154" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="155" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>28</v>
       </c>
@@ -26354,14 +26816,17 @@
       <c r="W155" t="s">
         <v>356</v>
       </c>
-      <c r="AC155" t="s">
+      <c r="X155" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD155" t="s">
         <v>323</v>
       </c>
-      <c r="AE155" t="s">
+      <c r="AF155" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="156" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>28</v>
       </c>
@@ -26407,17 +26872,20 @@
       <c r="W156" t="s">
         <v>357</v>
       </c>
-      <c r="AC156" t="s">
+      <c r="X156" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD156" t="s">
         <v>323</v>
       </c>
-      <c r="AD156">
+      <c r="AE156">
         <v>1759</v>
       </c>
-      <c r="AE156" t="s">
+      <c r="AF156" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="157" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>28</v>
       </c>
@@ -26463,17 +26931,20 @@
       <c r="W157" t="s">
         <v>357</v>
       </c>
-      <c r="AC157" t="s">
+      <c r="X157" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD157" t="s">
         <v>323</v>
       </c>
-      <c r="AD157">
+      <c r="AE157">
         <v>1761</v>
       </c>
-      <c r="AE157" t="s">
+      <c r="AF157" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="158" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>28</v>
       </c>
@@ -26519,17 +26990,20 @@
       <c r="W158" t="s">
         <v>357</v>
       </c>
-      <c r="AC158" t="s">
+      <c r="X158" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD158" t="s">
         <v>323</v>
       </c>
-      <c r="AD158">
+      <c r="AE158">
         <v>1784</v>
       </c>
-      <c r="AE158" t="s">
+      <c r="AF158" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="159" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>28</v>
       </c>
@@ -26575,17 +27049,20 @@
       <c r="W159" t="s">
         <v>357</v>
       </c>
-      <c r="AC159" t="s">
+      <c r="X159" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD159" t="s">
         <v>323</v>
       </c>
-      <c r="AD159">
+      <c r="AE159">
         <v>1784</v>
       </c>
-      <c r="AE159" t="s">
+      <c r="AF159" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="160" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>28</v>
       </c>
@@ -26631,14 +27108,17 @@
       <c r="W160" t="s">
         <v>357</v>
       </c>
-      <c r="AC160" t="s">
+      <c r="X160" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD160" t="s">
         <v>323</v>
       </c>
-      <c r="AE160" t="s">
+      <c r="AF160" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="161" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>28</v>
       </c>
@@ -26696,14 +27176,17 @@
       <c r="W161" t="s">
         <v>356</v>
       </c>
-      <c r="AC161" t="s">
+      <c r="X161" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD161" t="s">
         <v>323</v>
       </c>
-      <c r="AE161" t="s">
+      <c r="AF161" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="162" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>28</v>
       </c>
@@ -26740,8 +27223,11 @@
       <c r="W162" t="s">
         <v>357</v>
       </c>
+      <c r="X162" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="163" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>28</v>
       </c>
@@ -26787,17 +27273,20 @@
       <c r="W163" t="s">
         <v>483</v>
       </c>
-      <c r="AC163" t="s">
+      <c r="X163" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD163" t="s">
         <v>323</v>
       </c>
-      <c r="AD163">
+      <c r="AE163">
         <v>1801</v>
       </c>
-      <c r="AE163" t="s">
+      <c r="AF163" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="164" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>28</v>
       </c>
@@ -26834,8 +27323,11 @@
       <c r="W164" t="s">
         <v>357</v>
       </c>
+      <c r="X164" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="165" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>28</v>
       </c>
@@ -26881,17 +27373,20 @@
       <c r="W165" t="s">
         <v>483</v>
       </c>
-      <c r="AC165" t="s">
+      <c r="X165" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD165" t="s">
         <v>323</v>
       </c>
-      <c r="AD165">
+      <c r="AE165">
         <v>1811</v>
       </c>
-      <c r="AE165" t="s">
+      <c r="AF165" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="166" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>28</v>
       </c>
@@ -26928,8 +27423,11 @@
       <c r="W166" t="s">
         <v>357</v>
       </c>
+      <c r="X166" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="167" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>28</v>
       </c>
@@ -26975,17 +27473,20 @@
       <c r="W167" t="s">
         <v>483</v>
       </c>
-      <c r="AC167" t="s">
+      <c r="X167" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD167" t="s">
         <v>323</v>
       </c>
-      <c r="AD167">
+      <c r="AE167">
         <v>1807</v>
       </c>
-      <c r="AE167" t="s">
+      <c r="AF167" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="168" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>28</v>
       </c>
@@ -27031,14 +27532,17 @@
       <c r="W168" t="s">
         <v>483</v>
       </c>
-      <c r="AC168" t="s">
+      <c r="X168" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD168" t="s">
         <v>323</v>
       </c>
-      <c r="AE168" t="s">
+      <c r="AF168" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="169" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>28</v>
       </c>
@@ -27084,14 +27588,17 @@
       <c r="W169" t="s">
         <v>356</v>
       </c>
-      <c r="AC169" t="s">
+      <c r="X169" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD169" t="s">
         <v>323</v>
       </c>
-      <c r="AE169" t="s">
+      <c r="AF169" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="170" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>28</v>
       </c>
@@ -27137,14 +27644,17 @@
       <c r="W170" t="s">
         <v>356</v>
       </c>
-      <c r="AC170" t="s">
+      <c r="X170" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD170" t="s">
         <v>323</v>
       </c>
-      <c r="AE170" t="s">
+      <c r="AF170" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="171" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>28</v>
       </c>
@@ -27190,14 +27700,17 @@
       <c r="W171" t="s">
         <v>356</v>
       </c>
-      <c r="AC171" t="s">
+      <c r="X171" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD171" t="s">
         <v>323</v>
       </c>
-      <c r="AE171" t="s">
+      <c r="AF171" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="172" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>28</v>
       </c>
@@ -27234,8 +27747,11 @@
       <c r="W172" t="s">
         <v>357</v>
       </c>
+      <c r="X172" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="173" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>28</v>
       </c>
@@ -27281,17 +27797,20 @@
       <c r="W173" t="s">
         <v>357</v>
       </c>
-      <c r="AC173" t="s">
+      <c r="X173" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD173" t="s">
         <v>323</v>
       </c>
-      <c r="AD173">
+      <c r="AE173">
         <v>1787</v>
       </c>
-      <c r="AE173" t="s">
+      <c r="AF173" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="174" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>28</v>
       </c>
@@ -27337,17 +27856,20 @@
       <c r="W174" t="s">
         <v>357</v>
       </c>
-      <c r="AC174" t="s">
+      <c r="X174" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD174" t="s">
         <v>323</v>
       </c>
-      <c r="AD174">
+      <c r="AE174">
         <v>1765</v>
       </c>
-      <c r="AE174" t="s">
+      <c r="AF174" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="175" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>28</v>
       </c>
@@ -27393,17 +27915,20 @@
       <c r="W175" t="s">
         <v>356</v>
       </c>
-      <c r="AC175" t="s">
+      <c r="X175" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD175" t="s">
         <v>323</v>
       </c>
-      <c r="AD175">
+      <c r="AE175">
         <v>1802</v>
       </c>
-      <c r="AE175" t="s">
+      <c r="AF175" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="176" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>28</v>
       </c>
@@ -27440,8 +27965,11 @@
       <c r="W176" t="s">
         <v>357</v>
       </c>
+      <c r="X176" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="177" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>28</v>
       </c>
@@ -27487,14 +28015,17 @@
       <c r="W177" t="s">
         <v>357</v>
       </c>
-      <c r="AC177" t="s">
+      <c r="X177" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD177" t="s">
         <v>323</v>
       </c>
-      <c r="AE177" t="s">
+      <c r="AF177" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="178" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>28</v>
       </c>
@@ -27540,14 +28071,17 @@
       <c r="W178" t="s">
         <v>356</v>
       </c>
-      <c r="AC178" t="s">
+      <c r="X178" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD178" t="s">
         <v>323</v>
       </c>
-      <c r="AE178" t="s">
+      <c r="AF178" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="179" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>28</v>
       </c>
@@ -27584,8 +28118,11 @@
       <c r="W179" t="s">
         <v>357</v>
       </c>
+      <c r="X179" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="180" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>28</v>
       </c>
@@ -27622,8 +28159,11 @@
       <c r="W180" t="s">
         <v>357</v>
       </c>
+      <c r="X180" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="181" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>28</v>
       </c>
@@ -27669,14 +28209,17 @@
       <c r="W181" t="s">
         <v>357</v>
       </c>
-      <c r="AC181" t="s">
+      <c r="X181" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD181" t="s">
         <v>323</v>
       </c>
-      <c r="AE181" t="s">
+      <c r="AF181" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="182" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>28</v>
       </c>
@@ -27722,14 +28265,17 @@
       <c r="W182" t="s">
         <v>357</v>
       </c>
-      <c r="AC182" t="s">
+      <c r="X182" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD182" t="s">
         <v>323</v>
       </c>
-      <c r="AE182" t="s">
+      <c r="AF182" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="183" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>28</v>
       </c>
@@ -27775,14 +28321,17 @@
       <c r="W183" t="s">
         <v>357</v>
       </c>
-      <c r="AC183" t="s">
+      <c r="X183" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD183" t="s">
         <v>323</v>
       </c>
-      <c r="AE183" t="s">
+      <c r="AF183" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="184" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>28</v>
       </c>
@@ -27828,14 +28377,17 @@
       <c r="W184" t="s">
         <v>483</v>
       </c>
-      <c r="AC184" t="s">
+      <c r="X184" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD184" t="s">
         <v>323</v>
       </c>
-      <c r="AE184" t="s">
+      <c r="AF184" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="185" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>28</v>
       </c>
@@ -27881,14 +28433,17 @@
       <c r="W185" t="s">
         <v>483</v>
       </c>
-      <c r="AC185" t="s">
+      <c r="X185" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD185" t="s">
         <v>323</v>
       </c>
-      <c r="AE185" t="s">
+      <c r="AF185" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="186" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>28</v>
       </c>
@@ -27934,14 +28489,17 @@
       <c r="W186" t="s">
         <v>357</v>
       </c>
-      <c r="AC186" t="s">
+      <c r="X186" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD186" t="s">
         <v>323</v>
       </c>
-      <c r="AE186" t="s">
+      <c r="AF186" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="187" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>28</v>
       </c>
@@ -27987,14 +28545,17 @@
       <c r="W187" t="s">
         <v>356</v>
       </c>
-      <c r="AC187" t="s">
+      <c r="X187" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD187" t="s">
         <v>323</v>
       </c>
-      <c r="AE187" t="s">
+      <c r="AF187" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="188" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>28</v>
       </c>
@@ -28040,17 +28601,20 @@
       <c r="W188" t="s">
         <v>356</v>
       </c>
-      <c r="Z188" t="s">
+      <c r="X188" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA188" t="s">
         <v>593</v>
       </c>
-      <c r="AC188" t="s">
+      <c r="AD188" t="s">
         <v>323</v>
       </c>
-      <c r="AE188" t="s">
+      <c r="AF188" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="189" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>28</v>
       </c>
@@ -28087,8 +28651,11 @@
       <c r="W189" t="s">
         <v>357</v>
       </c>
+      <c r="X189" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="190" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>28</v>
       </c>
@@ -28125,8 +28692,11 @@
       <c r="W190" t="s">
         <v>357</v>
       </c>
+      <c r="X190" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="191" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>28</v>
       </c>
@@ -28172,17 +28742,20 @@
       <c r="W191" t="s">
         <v>483</v>
       </c>
-      <c r="AC191" t="s">
+      <c r="X191" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD191" t="s">
         <v>323</v>
       </c>
-      <c r="AD191">
+      <c r="AE191">
         <v>1668</v>
       </c>
-      <c r="AE191" t="s">
+      <c r="AF191" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="192" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>28</v>
       </c>
@@ -28228,14 +28801,17 @@
       <c r="W192" t="s">
         <v>483</v>
       </c>
-      <c r="AC192" t="s">
+      <c r="X192" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD192" t="s">
         <v>323</v>
       </c>
-      <c r="AE192" t="s">
+      <c r="AF192" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="193" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>28</v>
       </c>
@@ -28281,17 +28857,20 @@
       <c r="W193" t="s">
         <v>357</v>
       </c>
-      <c r="Z193" t="s">
+      <c r="X193" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA193" t="s">
         <v>601</v>
       </c>
-      <c r="AC193" t="s">
+      <c r="AD193" t="s">
         <v>323</v>
       </c>
-      <c r="AE193" t="s">
+      <c r="AF193" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="194" spans="2:31" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B194" s="8" t="s">
         <v>332</v>
       </c>
@@ -28330,15 +28909,16 @@
       <c r="V194" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="AB194" s="10"/>
-      <c r="AC194" s="8" t="s">
+      <c r="X194"/>
+      <c r="AC194" s="10"/>
+      <c r="AD194" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="AE194" s="8" t="s">
+      <c r="AF194" s="8" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="195" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>332</v>
       </c>
@@ -28375,14 +28955,14 @@
       <c r="V195" t="s">
         <v>168</v>
       </c>
-      <c r="AC195" t="s">
+      <c r="AD195" t="s">
         <v>323</v>
       </c>
-      <c r="AE195" t="s">
+      <c r="AF195" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="196" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>332</v>
       </c>
@@ -28419,14 +28999,14 @@
       <c r="V196" t="s">
         <v>169</v>
       </c>
-      <c r="AC196" t="s">
+      <c r="AD196" t="s">
         <v>323</v>
       </c>
-      <c r="AE196" t="s">
+      <c r="AF196" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="197" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>332</v>
       </c>
@@ -28463,14 +29043,14 @@
       <c r="V197" t="s">
         <v>170</v>
       </c>
-      <c r="AC197" t="s">
+      <c r="AD197" t="s">
         <v>323</v>
       </c>
-      <c r="AE197" t="s">
+      <c r="AF197" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="198" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>332</v>
       </c>
@@ -28507,17 +29087,17 @@
       <c r="V198" t="s">
         <v>171</v>
       </c>
-      <c r="AC198" t="s">
+      <c r="AD198" t="s">
         <v>323</v>
       </c>
-      <c r="AD198">
+      <c r="AE198">
         <v>1815</v>
       </c>
-      <c r="AE198" t="s">
+      <c r="AF198" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="199" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>332</v>
       </c>
@@ -28554,14 +29134,14 @@
       <c r="V199" t="s">
         <v>172</v>
       </c>
-      <c r="AC199" t="s">
+      <c r="AD199" t="s">
         <v>323</v>
       </c>
-      <c r="AE199" t="s">
+      <c r="AF199" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="200" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>332</v>
       </c>
@@ -28598,14 +29178,14 @@
       <c r="V200" t="s">
         <v>173</v>
       </c>
-      <c r="AC200" t="s">
+      <c r="AD200" t="s">
         <v>323</v>
       </c>
-      <c r="AE200" t="s">
+      <c r="AF200" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="201" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>332</v>
       </c>
@@ -28642,14 +29222,14 @@
       <c r="V201" t="s">
         <v>174</v>
       </c>
-      <c r="AC201" t="s">
+      <c r="AD201" t="s">
         <v>323</v>
       </c>
-      <c r="AE201" t="s">
+      <c r="AF201" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="202" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>332</v>
       </c>
@@ -28686,14 +29266,14 @@
       <c r="V202" t="s">
         <v>175</v>
       </c>
-      <c r="AC202" t="s">
+      <c r="AD202" t="s">
         <v>323</v>
       </c>
-      <c r="AE202" t="s">
+      <c r="AF202" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="203" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>332</v>
       </c>
@@ -28730,14 +29310,14 @@
       <c r="V203" t="s">
         <v>176</v>
       </c>
-      <c r="AC203" t="s">
+      <c r="AD203" t="s">
         <v>323</v>
       </c>
-      <c r="AE203" t="s">
+      <c r="AF203" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="204" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>332</v>
       </c>
@@ -28774,14 +29354,14 @@
       <c r="V204" t="s">
         <v>177</v>
       </c>
-      <c r="AC204" t="s">
+      <c r="AD204" t="s">
         <v>323</v>
       </c>
-      <c r="AE204" t="s">
+      <c r="AF204" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="205" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>332</v>
       </c>
@@ -28818,14 +29398,14 @@
       <c r="V205" t="s">
         <v>178</v>
       </c>
-      <c r="AC205" t="s">
+      <c r="AD205" t="s">
         <v>323</v>
       </c>
-      <c r="AE205" t="s">
+      <c r="AF205" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="206" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>332</v>
       </c>
@@ -28862,17 +29442,17 @@
       <c r="V206" t="s">
         <v>179</v>
       </c>
-      <c r="AC206" t="s">
+      <c r="AD206" t="s">
         <v>323</v>
       </c>
-      <c r="AD206">
+      <c r="AE206">
         <v>1815</v>
       </c>
-      <c r="AE206" t="s">
+      <c r="AF206" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="207" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>332</v>
       </c>
@@ -28909,14 +29489,14 @@
       <c r="V207" t="s">
         <v>229</v>
       </c>
-      <c r="AC207" t="s">
+      <c r="AD207" t="s">
         <v>323</v>
       </c>
-      <c r="AE207" t="s">
+      <c r="AF207" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="208" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>332</v>
       </c>
@@ -28953,17 +29533,17 @@
       <c r="V208" t="s">
         <v>180</v>
       </c>
-      <c r="AC208" t="s">
+      <c r="AD208" t="s">
         <v>323</v>
       </c>
-      <c r="AD208">
+      <c r="AE208">
         <v>1770</v>
       </c>
-      <c r="AE208" t="s">
+      <c r="AF208" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="209" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>332</v>
       </c>
@@ -29000,14 +29580,14 @@
       <c r="V209" t="s">
         <v>143</v>
       </c>
-      <c r="AC209" t="s">
+      <c r="AD209" t="s">
         <v>323</v>
       </c>
-      <c r="AE209" t="s">
+      <c r="AF209" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="210" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>332</v>
       </c>
@@ -29044,14 +29624,14 @@
       <c r="V210" t="s">
         <v>202</v>
       </c>
-      <c r="AC210" t="s">
+      <c r="AD210" t="s">
         <v>329</v>
       </c>
-      <c r="AE210" t="s">
+      <c r="AF210" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="211" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>332</v>
       </c>
@@ -29088,14 +29668,14 @@
       <c r="V211" t="s">
         <v>203</v>
       </c>
-      <c r="AC211" t="s">
+      <c r="AD211" t="s">
         <v>329</v>
       </c>
-      <c r="AE211" t="s">
+      <c r="AF211" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="212" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>332</v>
       </c>
@@ -29132,14 +29712,14 @@
       <c r="V212" t="s">
         <v>104</v>
       </c>
-      <c r="AC212" t="s">
+      <c r="AD212" t="s">
         <v>329</v>
       </c>
-      <c r="AE212" t="s">
+      <c r="AF212" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="213" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
         <v>332</v>
       </c>
@@ -29176,14 +29756,14 @@
       <c r="V213" t="s">
         <v>204</v>
       </c>
-      <c r="AC213" t="s">
+      <c r="AD213" t="s">
         <v>329</v>
       </c>
-      <c r="AE213" t="s">
+      <c r="AF213" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="214" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
         <v>332</v>
       </c>
@@ -29220,14 +29800,14 @@
       <c r="V214" t="s">
         <v>250</v>
       </c>
-      <c r="AC214" t="s">
+      <c r="AD214" t="s">
         <v>329</v>
       </c>
-      <c r="AE214" t="s">
+      <c r="AF214" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="215" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
         <v>332</v>
       </c>
@@ -29264,14 +29844,14 @@
       <c r="V215" t="s">
         <v>205</v>
       </c>
-      <c r="AC215" t="s">
+      <c r="AD215" t="s">
         <v>329</v>
       </c>
-      <c r="AE215" t="s">
+      <c r="AF215" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="216" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
         <v>332</v>
       </c>
@@ -29308,14 +29888,14 @@
       <c r="V216" t="s">
         <v>216</v>
       </c>
-      <c r="AC216" t="s">
+      <c r="AD216" t="s">
         <v>329</v>
       </c>
-      <c r="AE216" t="s">
+      <c r="AF216" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="217" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
         <v>332</v>
       </c>
@@ -29352,14 +29932,14 @@
       <c r="V217" t="s">
         <v>209</v>
       </c>
-      <c r="AC217" t="s">
+      <c r="AD217" t="s">
         <v>329</v>
       </c>
-      <c r="AE217" t="s">
+      <c r="AF217" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="218" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
         <v>332</v>
       </c>
@@ -29396,14 +29976,14 @@
       <c r="V218" t="s">
         <v>206</v>
       </c>
-      <c r="AC218" t="s">
+      <c r="AD218" t="s">
         <v>329</v>
       </c>
-      <c r="AE218" t="s">
+      <c r="AF218" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="219" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
         <v>332</v>
       </c>
@@ -29440,14 +30020,14 @@
       <c r="V219" t="s">
         <v>207</v>
       </c>
-      <c r="AC219" t="s">
+      <c r="AD219" t="s">
         <v>329</v>
       </c>
-      <c r="AE219" t="s">
+      <c r="AF219" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="220" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
         <v>332</v>
       </c>
@@ -29484,14 +30064,14 @@
       <c r="V220" t="s">
         <v>208</v>
       </c>
-      <c r="AC220" t="s">
+      <c r="AD220" t="s">
         <v>329</v>
       </c>
-      <c r="AE220" t="s">
+      <c r="AF220" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="221" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
         <v>332</v>
       </c>
@@ -29516,14 +30096,14 @@
       <c r="V221" t="s">
         <v>129</v>
       </c>
-      <c r="AC221" t="s">
+      <c r="AD221" t="s">
         <v>323</v>
       </c>
-      <c r="AE221" t="s">
+      <c r="AF221" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="222" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
         <v>332</v>
       </c>
@@ -29560,17 +30140,17 @@
       <c r="V222" t="s">
         <v>210</v>
       </c>
-      <c r="AC222" t="s">
+      <c r="AD222" t="s">
         <v>323</v>
       </c>
-      <c r="AD222">
+      <c r="AE222">
         <v>1817</v>
       </c>
-      <c r="AE222" t="s">
+      <c r="AF222" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="223" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
         <v>332</v>
       </c>
@@ -29607,17 +30187,17 @@
       <c r="V223" t="s">
         <v>211</v>
       </c>
-      <c r="AC223" t="s">
+      <c r="AD223" t="s">
         <v>323</v>
       </c>
-      <c r="AD223">
+      <c r="AE223">
         <v>1817</v>
       </c>
-      <c r="AE223" t="s">
+      <c r="AF223" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="224" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
         <v>332</v>
       </c>
@@ -29654,14 +30234,14 @@
       <c r="V224" t="s">
         <v>212</v>
       </c>
-      <c r="AC224" t="s">
+      <c r="AD224" t="s">
         <v>323</v>
       </c>
-      <c r="AE224" t="s">
+      <c r="AF224" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="225" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
         <v>332</v>
       </c>
@@ -29698,14 +30278,14 @@
       <c r="V225" t="s">
         <v>213</v>
       </c>
-      <c r="AC225" t="s">
+      <c r="AD225" t="s">
         <v>323</v>
       </c>
-      <c r="AE225" t="s">
+      <c r="AF225" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="226" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
         <v>332</v>
       </c>
@@ -29742,17 +30322,17 @@
       <c r="V226" t="s">
         <v>214</v>
       </c>
-      <c r="AC226" t="s">
+      <c r="AD226" t="s">
         <v>323</v>
       </c>
-      <c r="AD226">
+      <c r="AE226">
         <v>1817</v>
       </c>
-      <c r="AE226" t="s">
+      <c r="AF226" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="227" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
         <v>332</v>
       </c>
@@ -29789,17 +30369,17 @@
       <c r="V227" t="s">
         <v>215</v>
       </c>
-      <c r="AC227" t="s">
+      <c r="AD227" t="s">
         <v>323</v>
       </c>
-      <c r="AD227">
+      <c r="AE227">
         <v>1817</v>
       </c>
-      <c r="AE227" t="s">
+      <c r="AF227" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="228" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
         <v>332</v>
       </c>
@@ -29836,14 +30416,14 @@
       <c r="V228" t="s">
         <v>147</v>
       </c>
-      <c r="AC228" t="s">
+      <c r="AD228" t="s">
         <v>323</v>
       </c>
-      <c r="AE228" t="s">
+      <c r="AF228" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="229" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
         <v>332</v>
       </c>
@@ -29880,14 +30460,14 @@
       <c r="V229" t="s">
         <v>148</v>
       </c>
-      <c r="AC229" t="s">
+      <c r="AD229" t="s">
         <v>323</v>
       </c>
-      <c r="AE229" t="s">
+      <c r="AF229" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="230" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
         <v>332</v>
       </c>
@@ -29924,14 +30504,14 @@
       <c r="V230" t="s">
         <v>149</v>
       </c>
-      <c r="AC230" t="s">
+      <c r="AD230" t="s">
         <v>323</v>
       </c>
-      <c r="AE230" t="s">
+      <c r="AF230" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="231" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
         <v>332</v>
       </c>
@@ -29968,14 +30548,14 @@
       <c r="V231" t="s">
         <v>150</v>
       </c>
-      <c r="AC231" t="s">
+      <c r="AD231" t="s">
         <v>323</v>
       </c>
-      <c r="AE231" t="s">
+      <c r="AF231" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="232" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
         <v>332</v>
       </c>
@@ -30012,14 +30592,14 @@
       <c r="V232" t="s">
         <v>151</v>
       </c>
-      <c r="AC232" t="s">
+      <c r="AD232" t="s">
         <v>323</v>
       </c>
-      <c r="AE232" t="s">
+      <c r="AF232" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="233" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
         <v>332</v>
       </c>
@@ -30056,14 +30636,14 @@
       <c r="V233" t="s">
         <v>152</v>
       </c>
-      <c r="AC233" t="s">
+      <c r="AD233" t="s">
         <v>323</v>
       </c>
-      <c r="AE233" t="s">
+      <c r="AF233" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="234" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
         <v>332</v>
       </c>
@@ -30100,17 +30680,17 @@
       <c r="V234" t="s">
         <v>153</v>
       </c>
-      <c r="AC234" t="s">
+      <c r="AD234" t="s">
         <v>323</v>
       </c>
-      <c r="AD234">
+      <c r="AE234">
         <v>1458</v>
       </c>
-      <c r="AE234" t="s">
+      <c r="AF234" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="235" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
         <v>332</v>
       </c>
@@ -30147,14 +30727,14 @@
       <c r="V235" t="s">
         <v>129</v>
       </c>
-      <c r="AC235" t="s">
+      <c r="AD235" t="s">
         <v>323</v>
       </c>
-      <c r="AE235" t="s">
+      <c r="AF235" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="236" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
         <v>332</v>
       </c>
@@ -30191,14 +30771,14 @@
       <c r="V236" t="s">
         <v>129</v>
       </c>
-      <c r="AC236" t="s">
+      <c r="AD236" t="s">
         <v>323</v>
       </c>
-      <c r="AE236" t="s">
+      <c r="AF236" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="237" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
         <v>332</v>
       </c>
@@ -30235,14 +30815,14 @@
       <c r="V237" t="s">
         <v>181</v>
       </c>
-      <c r="AC237" t="s">
+      <c r="AD237" t="s">
         <v>323</v>
       </c>
-      <c r="AE237" t="s">
+      <c r="AF237" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="238" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
         <v>332</v>
       </c>
@@ -30279,14 +30859,14 @@
       <c r="V238" t="s">
         <v>182</v>
       </c>
-      <c r="AC238" t="s">
+      <c r="AD238" t="s">
         <v>323</v>
       </c>
-      <c r="AE238" t="s">
+      <c r="AF238" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="239" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
         <v>332</v>
       </c>
@@ -30323,14 +30903,14 @@
       <c r="V239" t="s">
         <v>129</v>
       </c>
-      <c r="AC239" t="s">
+      <c r="AD239" t="s">
         <v>323</v>
       </c>
-      <c r="AE239" t="s">
+      <c r="AF239" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="240" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
         <v>332</v>
       </c>
@@ -30367,14 +30947,14 @@
       <c r="V240" t="s">
         <v>156</v>
       </c>
-      <c r="AC240" t="s">
+      <c r="AD240" t="s">
         <v>323</v>
       </c>
-      <c r="AE240" t="s">
+      <c r="AF240" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="241" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
         <v>332</v>
       </c>
@@ -30411,14 +30991,14 @@
       <c r="V241" t="s">
         <v>157</v>
       </c>
-      <c r="AC241" t="s">
+      <c r="AD241" t="s">
         <v>323</v>
       </c>
-      <c r="AE241" t="s">
+      <c r="AF241" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="242" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
         <v>332</v>
       </c>
@@ -30455,14 +31035,14 @@
       <c r="V242" t="s">
         <v>158</v>
       </c>
-      <c r="AC242" t="s">
+      <c r="AD242" t="s">
         <v>323</v>
       </c>
-      <c r="AE242" t="s">
+      <c r="AF242" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="243" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
         <v>332</v>
       </c>
@@ -30499,14 +31079,14 @@
       <c r="V243" t="s">
         <v>159</v>
       </c>
-      <c r="AC243" t="s">
+      <c r="AD243" t="s">
         <v>323</v>
       </c>
-      <c r="AE243" t="s">
+      <c r="AF243" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="244" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
         <v>332</v>
       </c>
@@ -30543,14 +31123,14 @@
       <c r="V244" t="s">
         <v>160</v>
       </c>
-      <c r="AC244" t="s">
+      <c r="AD244" t="s">
         <v>323</v>
       </c>
-      <c r="AE244" t="s">
+      <c r="AF244" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="245" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
         <v>332</v>
       </c>
@@ -30587,14 +31167,14 @@
       <c r="V245" t="s">
         <v>161</v>
       </c>
-      <c r="AC245" t="s">
+      <c r="AD245" t="s">
         <v>323</v>
       </c>
-      <c r="AE245" t="s">
+      <c r="AF245" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="246" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
         <v>332</v>
       </c>
@@ -30631,14 +31211,14 @@
       <c r="V246" t="s">
         <v>162</v>
       </c>
-      <c r="AC246" t="s">
+      <c r="AD246" t="s">
         <v>323</v>
       </c>
-      <c r="AE246" t="s">
+      <c r="AF246" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="247" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
         <v>332</v>
       </c>
@@ -30675,14 +31255,14 @@
       <c r="V247" t="s">
         <v>163</v>
       </c>
-      <c r="AC247" t="s">
+      <c r="AD247" t="s">
         <v>323</v>
       </c>
-      <c r="AE247" t="s">
+      <c r="AF247" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="248" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
         <v>332</v>
       </c>
@@ -30719,14 +31299,14 @@
       <c r="V248" t="s">
         <v>164</v>
       </c>
-      <c r="AC248" t="s">
+      <c r="AD248" t="s">
         <v>323</v>
       </c>
-      <c r="AE248" t="s">
+      <c r="AF248" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="249" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
         <v>332</v>
       </c>
@@ -30763,14 +31343,14 @@
       <c r="V249" t="s">
         <v>165</v>
       </c>
-      <c r="AC249" t="s">
+      <c r="AD249" t="s">
         <v>323</v>
       </c>
-      <c r="AE249" t="s">
+      <c r="AF249" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="250" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
         <v>332</v>
       </c>
@@ -30807,14 +31387,14 @@
       <c r="V250" t="s">
         <v>129</v>
       </c>
-      <c r="AC250" t="s">
+      <c r="AD250" t="s">
         <v>323</v>
       </c>
-      <c r="AE250" t="s">
+      <c r="AF250" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="251" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
         <v>332</v>
       </c>
@@ -30851,14 +31431,14 @@
       <c r="V251" t="s">
         <v>183</v>
       </c>
-      <c r="AC251" t="s">
+      <c r="AD251" t="s">
         <v>323</v>
       </c>
-      <c r="AE251" t="s">
+      <c r="AF251" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="252" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
         <v>332</v>
       </c>
@@ -30895,14 +31475,14 @@
       <c r="V252" t="s">
         <v>184</v>
       </c>
-      <c r="AC252" t="s">
+      <c r="AD252" t="s">
         <v>323</v>
       </c>
-      <c r="AE252" t="s">
+      <c r="AF252" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
         <v>332</v>
       </c>
@@ -30939,14 +31519,14 @@
       <c r="V253" t="s">
         <v>185</v>
       </c>
-      <c r="AC253" t="s">
+      <c r="AD253" t="s">
         <v>323</v>
       </c>
-      <c r="AE253" t="s">
+      <c r="AF253" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
         <v>332</v>
       </c>
@@ -30983,14 +31563,14 @@
       <c r="V254" t="s">
         <v>186</v>
       </c>
-      <c r="AC254" t="s">
+      <c r="AD254" t="s">
         <v>323</v>
       </c>
-      <c r="AE254" t="s">
+      <c r="AF254" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="255" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
         <v>332</v>
       </c>
@@ -31027,14 +31607,14 @@
       <c r="V255" t="s">
         <v>245</v>
       </c>
-      <c r="AC255" t="s">
+      <c r="AD255" t="s">
         <v>323</v>
       </c>
-      <c r="AE255" t="s">
+      <c r="AF255" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="256" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
         <v>332</v>
       </c>
@@ -31071,14 +31651,14 @@
       <c r="V256" t="s">
         <v>187</v>
       </c>
-      <c r="AC256" t="s">
+      <c r="AD256" t="s">
         <v>323</v>
       </c>
-      <c r="AE256" t="s">
+      <c r="AF256" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="257" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
         <v>332</v>
       </c>
@@ -31115,14 +31695,14 @@
       <c r="V257" t="s">
         <v>188</v>
       </c>
-      <c r="AC257" t="s">
+      <c r="AD257" t="s">
         <v>323</v>
       </c>
-      <c r="AE257" t="s">
+      <c r="AF257" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="258" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
         <v>332</v>
       </c>
@@ -31159,14 +31739,14 @@
       <c r="V258" t="s">
         <v>189</v>
       </c>
-      <c r="AC258" t="s">
+      <c r="AD258" t="s">
         <v>323</v>
       </c>
-      <c r="AE258" t="s">
+      <c r="AF258" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="259" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
         <v>332</v>
       </c>
@@ -31203,14 +31783,14 @@
       <c r="V259" t="s">
         <v>190</v>
       </c>
-      <c r="AC259" t="s">
+      <c r="AD259" t="s">
         <v>323</v>
       </c>
-      <c r="AE259" t="s">
+      <c r="AF259" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="260" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
         <v>332</v>
       </c>
@@ -31247,14 +31827,14 @@
       <c r="V260" t="s">
         <v>246</v>
       </c>
-      <c r="AC260" t="s">
+      <c r="AD260" t="s">
         <v>323</v>
       </c>
-      <c r="AE260" t="s">
+      <c r="AF260" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="261" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
         <v>332</v>
       </c>
@@ -31291,14 +31871,14 @@
       <c r="V261" t="s">
         <v>191</v>
       </c>
-      <c r="AC261" t="s">
+      <c r="AD261" t="s">
         <v>323</v>
       </c>
-      <c r="AE261" t="s">
+      <c r="AF261" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="262" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
         <v>332</v>
       </c>
@@ -31335,14 +31915,14 @@
       <c r="V262" t="s">
         <v>192</v>
       </c>
-      <c r="AC262" t="s">
+      <c r="AD262" t="s">
         <v>323</v>
       </c>
-      <c r="AE262" t="s">
+      <c r="AF262" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="263" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
         <v>332</v>
       </c>
@@ -31379,14 +31959,14 @@
       <c r="V263" t="s">
         <v>193</v>
       </c>
-      <c r="AC263" t="s">
+      <c r="AD263" t="s">
         <v>323</v>
       </c>
-      <c r="AE263" t="s">
+      <c r="AF263" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="264" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
         <v>332</v>
       </c>
@@ -31423,14 +32003,14 @@
       <c r="V264" t="s">
         <v>194</v>
       </c>
-      <c r="AC264" t="s">
+      <c r="AD264" t="s">
         <v>323</v>
       </c>
-      <c r="AE264" t="s">
+      <c r="AF264" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="265" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
         <v>332</v>
       </c>
@@ -31467,14 +32047,14 @@
       <c r="V265" t="s">
         <v>195</v>
       </c>
-      <c r="AC265" t="s">
+      <c r="AD265" t="s">
         <v>323</v>
       </c>
-      <c r="AE265" t="s">
+      <c r="AF265" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="266" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
         <v>332</v>
       </c>
@@ -31511,14 +32091,14 @@
       <c r="V266" t="s">
         <v>196</v>
       </c>
-      <c r="AC266" t="s">
+      <c r="AD266" t="s">
         <v>323</v>
       </c>
-      <c r="AE266" t="s">
+      <c r="AF266" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="267" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
         <v>332</v>
       </c>
@@ -31555,14 +32135,14 @@
       <c r="V267" t="s">
         <v>129</v>
       </c>
-      <c r="AC267" t="s">
+      <c r="AD267" t="s">
         <v>323</v>
       </c>
-      <c r="AE267" t="s">
+      <c r="AF267" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="268" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
         <v>332</v>
       </c>
@@ -31599,14 +32179,14 @@
       <c r="V268" t="s">
         <v>166</v>
       </c>
-      <c r="AC268" t="s">
+      <c r="AD268" t="s">
         <v>323</v>
       </c>
-      <c r="AE268" t="s">
+      <c r="AF268" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="269" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
         <v>332</v>
       </c>
@@ -31643,14 +32223,14 @@
       <c r="V269" t="s">
         <v>167</v>
       </c>
-      <c r="AC269" t="s">
+      <c r="AD269" t="s">
         <v>323</v>
       </c>
-      <c r="AE269" t="s">
+      <c r="AF269" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="270" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
         <v>332</v>
       </c>
@@ -31687,14 +32267,14 @@
       <c r="V270" t="s">
         <v>197</v>
       </c>
-      <c r="AC270" t="s">
+      <c r="AD270" t="s">
         <v>323</v>
       </c>
-      <c r="AE270" t="s">
+      <c r="AF270" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="271" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
         <v>332</v>
       </c>
@@ -31731,14 +32311,14 @@
       <c r="V271" t="s">
         <v>129</v>
       </c>
-      <c r="AC271" t="s">
+      <c r="AD271" t="s">
         <v>323</v>
       </c>
-      <c r="AE271" t="s">
+      <c r="AF271" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="272" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
         <v>332</v>
       </c>
@@ -31775,14 +32355,14 @@
       <c r="V272" t="s">
         <v>247</v>
       </c>
-      <c r="AC272" t="s">
+      <c r="AD272" t="s">
         <v>323</v>
       </c>
-      <c r="AE272" t="s">
+      <c r="AF272" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="273" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
         <v>332</v>
       </c>
@@ -31819,17 +32399,17 @@
       <c r="V273" t="s">
         <v>198</v>
       </c>
-      <c r="AC273" t="s">
+      <c r="AD273" t="s">
         <v>323</v>
       </c>
-      <c r="AD273">
+      <c r="AE273">
         <v>1802</v>
       </c>
-      <c r="AE273" t="s">
+      <c r="AF273" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="274" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
         <v>332</v>
       </c>
@@ -31866,14 +32446,14 @@
       <c r="V274" t="s">
         <v>199</v>
       </c>
-      <c r="AC274" t="s">
+      <c r="AD274" t="s">
         <v>323</v>
       </c>
-      <c r="AE274" t="s">
+      <c r="AF274" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="275" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
         <v>332</v>
       </c>
@@ -31910,17 +32490,17 @@
       <c r="V275" t="s">
         <v>200</v>
       </c>
-      <c r="AC275" t="s">
+      <c r="AD275" t="s">
         <v>323</v>
       </c>
-      <c r="AD275">
+      <c r="AE275">
         <v>1746</v>
       </c>
-      <c r="AE275" t="s">
+      <c r="AF275" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="276" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
         <v>332</v>
       </c>
@@ -31957,17 +32537,17 @@
       <c r="V276" t="s">
         <v>248</v>
       </c>
-      <c r="AC276" t="s">
+      <c r="AD276" t="s">
         <v>323</v>
       </c>
-      <c r="AD276">
+      <c r="AE276">
         <v>1819</v>
       </c>
-      <c r="AE276" t="s">
+      <c r="AF276" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="277" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
         <v>332</v>
       </c>
@@ -32004,17 +32584,17 @@
       <c r="V277" t="s">
         <v>249</v>
       </c>
-      <c r="AC277" t="s">
+      <c r="AD277" t="s">
         <v>323</v>
       </c>
-      <c r="AD277">
+      <c r="AE277">
         <v>1820</v>
       </c>
-      <c r="AE277" t="s">
+      <c r="AF277" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="278" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
         <v>332</v>
       </c>
@@ -32051,17 +32631,17 @@
       <c r="V278" t="s">
         <v>201</v>
       </c>
-      <c r="AC278" t="s">
+      <c r="AD278" t="s">
         <v>323</v>
       </c>
-      <c r="AD278">
+      <c r="AE278">
         <v>1817</v>
       </c>
-      <c r="AE278" t="s">
+      <c r="AF278" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="279" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
         <v>332</v>
       </c>
@@ -32098,14 +32678,14 @@
       <c r="V279" t="s">
         <v>129</v>
       </c>
-      <c r="AC279" t="s">
+      <c r="AD279" t="s">
         <v>323</v>
       </c>
-      <c r="AE279" t="s">
+      <c r="AF279" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="280" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
         <v>332</v>
       </c>
@@ -32142,14 +32722,14 @@
       <c r="V280" t="s">
         <v>217</v>
       </c>
-      <c r="AC280" t="s">
+      <c r="AD280" t="s">
         <v>323</v>
       </c>
-      <c r="AE280" t="s">
+      <c r="AF280" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="281" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B281" t="s">
         <v>332</v>
       </c>
@@ -32186,14 +32766,14 @@
       <c r="V281" t="s">
         <v>218</v>
       </c>
-      <c r="AC281" t="s">
+      <c r="AD281" t="s">
         <v>323</v>
       </c>
-      <c r="AE281" t="s">
+      <c r="AF281" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="282" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
         <v>332</v>
       </c>
@@ -32230,17 +32810,17 @@
       <c r="V282" t="s">
         <v>219</v>
       </c>
-      <c r="AC282" t="s">
+      <c r="AD282" t="s">
         <v>323</v>
       </c>
-      <c r="AD282">
+      <c r="AE282">
         <v>1794</v>
       </c>
-      <c r="AE282" t="s">
+      <c r="AF282" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="283" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B283" t="s">
         <v>332</v>
       </c>
@@ -32277,14 +32857,14 @@
       <c r="V283" t="s">
         <v>220</v>
       </c>
-      <c r="AC283" t="s">
+      <c r="AD283" t="s">
         <v>323</v>
       </c>
-      <c r="AE283" t="s">
+      <c r="AF283" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="284" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
         <v>332</v>
       </c>
@@ -32321,14 +32901,14 @@
       <c r="V284" t="s">
         <v>221</v>
       </c>
-      <c r="AC284" t="s">
+      <c r="AD284" t="s">
         <v>323</v>
       </c>
-      <c r="AE284" t="s">
+      <c r="AF284" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="285" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
         <v>332</v>
       </c>
@@ -32365,14 +32945,14 @@
       <c r="V285" t="s">
         <v>222</v>
       </c>
-      <c r="AC285" t="s">
+      <c r="AD285" t="s">
         <v>323</v>
       </c>
-      <c r="AE285" t="s">
+      <c r="AF285" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="286" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B286" t="s">
         <v>332</v>
       </c>
@@ -32409,17 +32989,17 @@
       <c r="V286" t="s">
         <v>227</v>
       </c>
-      <c r="AC286" t="s">
+      <c r="AD286" t="s">
         <v>323</v>
       </c>
-      <c r="AD286">
+      <c r="AE286">
         <v>1815</v>
       </c>
-      <c r="AE286" t="s">
+      <c r="AF286" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="287" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
         <v>332</v>
       </c>
@@ -32456,17 +33036,17 @@
       <c r="V287" t="s">
         <v>228</v>
       </c>
-      <c r="AC287" t="s">
+      <c r="AD287" t="s">
         <v>323</v>
       </c>
-      <c r="AD287">
+      <c r="AE287">
         <v>1792</v>
       </c>
-      <c r="AE287" t="s">
+      <c r="AF287" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="288" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
         <v>332</v>
       </c>
@@ -32503,14 +33083,14 @@
       <c r="V288" t="s">
         <v>129</v>
       </c>
-      <c r="AC288" t="s">
+      <c r="AD288" t="s">
         <v>323</v>
       </c>
-      <c r="AE288" t="s">
+      <c r="AF288" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="289" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B289" t="s">
         <v>332</v>
       </c>
@@ -32547,17 +33127,17 @@
       <c r="V289" t="s">
         <v>133</v>
       </c>
-      <c r="AC289" t="s">
+      <c r="AD289" t="s">
         <v>323</v>
       </c>
-      <c r="AD289">
+      <c r="AE289">
         <v>1721</v>
       </c>
-      <c r="AE289" t="s">
+      <c r="AF289" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="290" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B290" t="s">
         <v>332</v>
       </c>
@@ -32594,14 +33174,14 @@
       <c r="V290" t="s">
         <v>244</v>
       </c>
-      <c r="AC290" t="s">
+      <c r="AD290" t="s">
         <v>323</v>
       </c>
-      <c r="AE290" t="s">
+      <c r="AF290" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="291" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B291" t="s">
         <v>332</v>
       </c>
@@ -32638,17 +33218,17 @@
       <c r="V291" t="s">
         <v>134</v>
       </c>
-      <c r="AC291" t="s">
+      <c r="AD291" t="s">
         <v>323</v>
       </c>
-      <c r="AD291">
+      <c r="AE291">
         <v>1736</v>
       </c>
-      <c r="AE291" t="s">
+      <c r="AF291" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="292" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
         <v>332</v>
       </c>
@@ -32685,14 +33265,14 @@
       <c r="V292" t="s">
         <v>135</v>
       </c>
-      <c r="AC292" t="s">
+      <c r="AD292" t="s">
         <v>323</v>
       </c>
-      <c r="AE292" t="s">
+      <c r="AF292" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="293" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
         <v>332</v>
       </c>
@@ -32729,14 +33309,14 @@
       <c r="V293" t="s">
         <v>241</v>
       </c>
-      <c r="AC293" t="s">
+      <c r="AD293" t="s">
         <v>323</v>
       </c>
-      <c r="AE293" t="s">
+      <c r="AF293" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="294" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
         <v>332</v>
       </c>
@@ -32773,14 +33353,14 @@
       <c r="V294" t="s">
         <v>129</v>
       </c>
-      <c r="AC294" t="s">
+      <c r="AD294" t="s">
         <v>323</v>
       </c>
-      <c r="AE294" t="s">
+      <c r="AF294" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="295" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B295" t="s">
         <v>332</v>
       </c>
@@ -32817,17 +33397,17 @@
       <c r="V295" t="s">
         <v>223</v>
       </c>
-      <c r="AC295" t="s">
+      <c r="AD295" t="s">
         <v>323</v>
       </c>
-      <c r="AD295">
+      <c r="AE295">
         <v>1784</v>
       </c>
-      <c r="AE295" t="s">
+      <c r="AF295" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="296" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B296" t="s">
         <v>332</v>
       </c>
@@ -32864,14 +33444,14 @@
       <c r="V296" t="s">
         <v>129</v>
       </c>
-      <c r="AC296" t="s">
+      <c r="AD296" t="s">
         <v>323</v>
       </c>
-      <c r="AE296" t="s">
+      <c r="AF296" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="297" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
         <v>332</v>
       </c>
@@ -32908,14 +33488,14 @@
       <c r="V297" t="s">
         <v>231</v>
       </c>
-      <c r="AC297" t="s">
+      <c r="AD297" t="s">
         <v>323</v>
       </c>
-      <c r="AE297" t="s">
+      <c r="AF297" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="298" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B298" t="s">
         <v>332</v>
       </c>
@@ -32952,17 +33532,17 @@
       <c r="V298" t="s">
         <v>232</v>
       </c>
-      <c r="AC298" t="s">
+      <c r="AD298" t="s">
         <v>323</v>
       </c>
-      <c r="AD298">
+      <c r="AE298">
         <v>1720</v>
       </c>
-      <c r="AE298" t="s">
+      <c r="AF298" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="299" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B299" t="s">
         <v>332</v>
       </c>
@@ -32999,14 +33579,14 @@
       <c r="V299" t="s">
         <v>233</v>
       </c>
-      <c r="AC299" t="s">
+      <c r="AD299" t="s">
         <v>323</v>
       </c>
-      <c r="AE299" t="s">
+      <c r="AF299" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="300" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
         <v>332</v>
       </c>
@@ -33043,14 +33623,14 @@
       <c r="V300" t="s">
         <v>129</v>
       </c>
-      <c r="AC300" t="s">
+      <c r="AD300" t="s">
         <v>323</v>
       </c>
-      <c r="AE300" t="s">
+      <c r="AF300" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="301" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B301" t="s">
         <v>332</v>
       </c>
@@ -33087,14 +33667,14 @@
       <c r="V301" t="s">
         <v>129</v>
       </c>
-      <c r="AC301" t="s">
+      <c r="AD301" t="s">
         <v>328</v>
       </c>
-      <c r="AE301" t="s">
+      <c r="AF301" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="302" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
         <v>332</v>
       </c>
@@ -33128,14 +33708,14 @@
       <c r="V302" t="s">
         <v>154</v>
       </c>
-      <c r="AC302" t="s">
+      <c r="AD302" t="s">
         <v>328</v>
       </c>
-      <c r="AE302" t="s">
+      <c r="AF302" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="303" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
         <v>332</v>
       </c>
@@ -33172,14 +33752,14 @@
       <c r="V303" t="s">
         <v>155</v>
       </c>
-      <c r="AC303" t="s">
+      <c r="AD303" t="s">
         <v>328</v>
       </c>
-      <c r="AE303" t="s">
+      <c r="AF303" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="304" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
         <v>332</v>
       </c>
@@ -33216,14 +33796,14 @@
       <c r="V304" t="s">
         <v>129</v>
       </c>
-      <c r="AC304" t="s">
+      <c r="AD304" t="s">
         <v>323</v>
       </c>
-      <c r="AE304" t="s">
+      <c r="AF304" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="305" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
         <v>332</v>
       </c>
@@ -33260,14 +33840,14 @@
       <c r="V305" t="s">
         <v>230</v>
       </c>
-      <c r="AC305" t="s">
+      <c r="AD305" t="s">
         <v>323</v>
       </c>
-      <c r="AE305" t="s">
+      <c r="AF305" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="306" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
         <v>332</v>
       </c>
@@ -33304,14 +33884,14 @@
       <c r="V306" t="s">
         <v>129</v>
       </c>
-      <c r="AC306" t="s">
+      <c r="AD306" t="s">
         <v>323</v>
       </c>
-      <c r="AE306" t="s">
+      <c r="AF306" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="307" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
         <v>332</v>
       </c>
@@ -33348,14 +33928,14 @@
       <c r="V307" t="s">
         <v>234</v>
       </c>
-      <c r="AC307" t="s">
+      <c r="AD307" t="s">
         <v>323</v>
       </c>
-      <c r="AE307" t="s">
+      <c r="AF307" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="308" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
         <v>332</v>
       </c>
@@ -33392,14 +33972,14 @@
       <c r="V308" t="s">
         <v>235</v>
       </c>
-      <c r="AC308" t="s">
+      <c r="AD308" t="s">
         <v>323</v>
       </c>
-      <c r="AE308" t="s">
+      <c r="AF308" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="309" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
         <v>332</v>
       </c>
@@ -33436,17 +34016,17 @@
       <c r="V309" t="s">
         <v>142</v>
       </c>
-      <c r="AC309" t="s">
+      <c r="AD309" t="s">
         <v>323</v>
       </c>
-      <c r="AD309">
+      <c r="AE309">
         <v>1812</v>
       </c>
-      <c r="AE309" t="s">
+      <c r="AF309" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="310" spans="2:31" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B310" s="8" t="s">
         <v>332</v>
       </c>
@@ -33485,131 +34065,132 @@
       <c r="V310" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="AB310" s="10"/>
-      <c r="AC310" s="8" t="s">
+      <c r="X310"/>
+      <c r="AC310" s="10"/>
+      <c r="AD310" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="AE310" s="8" t="s">
+      <c r="AF310" s="8" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="311" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B311" s="14" t="s">
+    <row r="311" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B311" t="s">
         <v>332</v>
       </c>
-      <c r="C311" s="14" t="s">
+      <c r="C311" t="s">
         <v>642</v>
       </c>
-      <c r="D311" s="14">
+      <c r="D311">
         <v>327</v>
       </c>
-      <c r="E311" s="14">
+      <c r="E311">
         <v>331</v>
       </c>
-      <c r="J311" s="14" t="s">
+      <c r="J311" t="s">
         <v>349</v>
       </c>
-      <c r="K311" s="14" t="s">
+      <c r="K311" t="s">
         <v>634</v>
       </c>
-      <c r="L311" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M311" s="14" t="s">
+      <c r="L311" t="s">
+        <v>251</v>
+      </c>
+      <c r="M311" t="s">
         <v>337</v>
       </c>
-      <c r="N311" s="15" t="s">
+      <c r="N311" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="O311" s="15" t="s">
+      <c r="O311" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="P311" s="15"/>
-      <c r="Q311" s="15"/>
-      <c r="V311" s="14" t="s">
+      <c r="V311" t="s">
         <v>633</v>
       </c>
-      <c r="W311" s="14" t="s">
+      <c r="W311" t="s">
         <v>356</v>
       </c>
-      <c r="AB311" s="16"/>
+      <c r="X311" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="312" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B312" s="14" t="s">
+    <row r="312" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B312" t="s">
         <v>332</v>
       </c>
-      <c r="C312" s="14" t="s">
+      <c r="C312" t="s">
         <v>642</v>
       </c>
-      <c r="D312" s="14">
+      <c r="D312">
         <v>327</v>
       </c>
-      <c r="E312" s="14">
+      <c r="E312">
         <v>331</v>
       </c>
-      <c r="F312" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="G312" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="H312" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="J312" s="14" t="s">
+      <c r="F312" t="s">
+        <v>252</v>
+      </c>
+      <c r="G312" t="s">
+        <v>252</v>
+      </c>
+      <c r="H312" t="s">
+        <v>251</v>
+      </c>
+      <c r="J312" t="s">
         <v>349</v>
       </c>
-      <c r="K312" s="14" t="s">
+      <c r="K312" t="s">
         <v>634</v>
       </c>
-      <c r="L312" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M312" s="14" t="s">
+      <c r="L312" t="s">
+        <v>251</v>
+      </c>
+      <c r="M312" t="s">
         <v>337</v>
       </c>
-      <c r="N312" s="15" t="s">
+      <c r="N312" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="O312" s="15" t="s">
+      <c r="O312" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="P312" s="15"/>
-      <c r="Q312" s="15"/>
-      <c r="V312" s="14" t="s">
+      <c r="V312" t="s">
         <v>637</v>
       </c>
-      <c r="W312" s="14" t="s">
+      <c r="W312" t="s">
         <v>357</v>
       </c>
-      <c r="AB312" s="16"/>
-      <c r="AC312" s="14" t="s">
+      <c r="X312" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD312" t="s">
         <v>323</v>
       </c>
-      <c r="AE312" s="14" t="s">
+      <c r="AF312" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="313" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B313" s="14" t="s">
+    <row r="313" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B313" t="s">
         <v>332</v>
       </c>
-      <c r="C313" s="14" t="s">
+      <c r="C313" t="s">
         <v>642</v>
       </c>
-      <c r="D313" s="14">
+      <c r="D313">
         <v>332</v>
       </c>
-      <c r="E313" s="14">
+      <c r="E313">
         <v>334</v>
       </c>
-      <c r="J313" s="14" t="s">
+      <c r="J313" t="s">
         <v>349</v>
       </c>
-      <c r="K313" s="14" t="s">
+      <c r="K313" t="s">
         <v>639</v>
       </c>
-      <c r="L313" s="14" t="s">
+      <c r="L313" t="s">
         <v>251</v>
       </c>
       <c r="M313" s="6" t="s">
@@ -33618,48 +34199,48 @@
       <c r="N313" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="O313" s="15" t="s">
+      <c r="O313" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="P313" s="15"/>
-      <c r="Q313" s="15"/>
-      <c r="V313" s="14" t="s">
+      <c r="V313" t="s">
         <v>638</v>
       </c>
-      <c r="W313" s="14" t="s">
+      <c r="W313" t="s">
         <v>356</v>
       </c>
-      <c r="AB313" s="16"/>
+      <c r="X313" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="314" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B314" s="14" t="s">
+    <row r="314" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B314" t="s">
         <v>332</v>
       </c>
-      <c r="C314" s="14" t="s">
+      <c r="C314" t="s">
         <v>642</v>
       </c>
-      <c r="D314" s="14">
+      <c r="D314">
         <v>332</v>
       </c>
-      <c r="E314" s="14">
+      <c r="E314">
         <v>334</v>
       </c>
-      <c r="F314" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="G314" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="H314" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="J314" s="14" t="s">
+      <c r="F314" t="s">
+        <v>252</v>
+      </c>
+      <c r="G314" t="s">
+        <v>252</v>
+      </c>
+      <c r="H314" t="s">
+        <v>251</v>
+      </c>
+      <c r="J314" t="s">
         <v>349</v>
       </c>
-      <c r="K314" s="14" t="s">
+      <c r="K314" t="s">
         <v>639</v>
       </c>
-      <c r="L314" s="14" t="s">
+      <c r="L314" t="s">
         <v>251</v>
       </c>
       <c r="M314" s="6" t="s">
@@ -33668,580 +34249,580 @@
       <c r="N314" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="O314" s="15" t="s">
+      <c r="O314" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="P314" s="15"/>
-      <c r="Q314" s="15"/>
-      <c r="V314" s="14" t="s">
+      <c r="V314" t="s">
         <v>237</v>
       </c>
-      <c r="W314" s="14" t="s">
+      <c r="W314" t="s">
         <v>357</v>
       </c>
-      <c r="AB314" s="16"/>
-      <c r="AC314" s="14" t="s">
+      <c r="X314" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD314" t="s">
         <v>323</v>
       </c>
-      <c r="AD314" s="14">
+      <c r="AE314">
         <v>1820</v>
       </c>
-      <c r="AE314" s="14" t="s">
+      <c r="AF314" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="315" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B315" s="14" t="s">
+    <row r="315" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B315" t="s">
         <v>332</v>
       </c>
-      <c r="C315" s="14" t="s">
+      <c r="C315" t="s">
         <v>646</v>
       </c>
-      <c r="D315" s="14">
+      <c r="D315">
         <v>335</v>
       </c>
-      <c r="E315" s="14">
+      <c r="E315">
         <v>342</v>
       </c>
-      <c r="F315" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="G315" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="H315" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="J315" s="14" t="s">
+      <c r="F315" t="s">
+        <v>251</v>
+      </c>
+      <c r="G315" t="s">
+        <v>252</v>
+      </c>
+      <c r="H315" t="s">
+        <v>252</v>
+      </c>
+      <c r="J315" t="s">
         <v>349</v>
       </c>
-      <c r="K315" s="14" t="s">
+      <c r="K315" t="s">
         <v>647</v>
       </c>
-      <c r="L315" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M315" s="14" t="s">
+      <c r="L315" t="s">
+        <v>251</v>
+      </c>
+      <c r="M315" t="s">
         <v>346</v>
       </c>
-      <c r="N315" s="15" t="s">
+      <c r="N315" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="O315" s="15" t="s">
+      <c r="O315" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="P315" s="15"/>
-      <c r="Q315" s="15"/>
-      <c r="V315" s="14" t="s">
+      <c r="V315" t="s">
         <v>643</v>
       </c>
-      <c r="W315" s="14" t="s">
+      <c r="W315" t="s">
         <v>356</v>
       </c>
-      <c r="AB315" s="16"/>
-      <c r="AC315" s="14" t="s">
+      <c r="X315" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD315" t="s">
         <v>323</v>
       </c>
-      <c r="AE315" s="14" t="s">
+      <c r="AF315" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="316" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B316" s="14" t="s">
+    <row r="316" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B316" t="s">
         <v>332</v>
       </c>
-      <c r="C316" s="14" t="s">
+      <c r="C316" t="s">
         <v>646</v>
       </c>
-      <c r="D316" s="14">
+      <c r="D316">
         <v>336</v>
       </c>
-      <c r="E316" s="14">
+      <c r="E316">
         <v>342</v>
       </c>
-      <c r="F316" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="G316" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="H316" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="J316" s="14" t="s">
+      <c r="F316" t="s">
+        <v>251</v>
+      </c>
+      <c r="G316" t="s">
+        <v>252</v>
+      </c>
+      <c r="H316" t="s">
+        <v>252</v>
+      </c>
+      <c r="J316" t="s">
         <v>349</v>
       </c>
-      <c r="K316" s="14" t="s">
+      <c r="K316" t="s">
         <v>647</v>
       </c>
-      <c r="L316" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M316" s="14" t="s">
+      <c r="L316" t="s">
+        <v>251</v>
+      </c>
+      <c r="M316" t="s">
         <v>346</v>
       </c>
-      <c r="N316" s="15" t="s">
+      <c r="N316" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="O316" s="15" t="s">
+      <c r="O316" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="P316" s="15"/>
-      <c r="Q316" s="15"/>
-      <c r="V316" s="14" t="s">
+      <c r="V316" t="s">
         <v>644</v>
       </c>
-      <c r="W316" s="14" t="s">
+      <c r="W316" t="s">
         <v>357</v>
       </c>
-      <c r="AB316" s="16"/>
-      <c r="AC316" s="14" t="s">
+      <c r="X316" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD316" t="s">
         <v>323</v>
       </c>
-      <c r="AD316" s="14">
+      <c r="AE316">
         <v>1799</v>
       </c>
-      <c r="AE316" s="14" t="s">
+      <c r="AF316" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="317" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B317" s="14" t="s">
+    <row r="317" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B317" t="s">
         <v>332</v>
       </c>
-      <c r="C317" s="14" t="s">
+      <c r="C317" t="s">
         <v>646</v>
       </c>
-      <c r="D317" s="14">
+      <c r="D317">
         <v>336</v>
       </c>
-      <c r="E317" s="14">
+      <c r="E317">
         <v>342</v>
       </c>
-      <c r="J317" s="14" t="s">
+      <c r="J317" t="s">
         <v>349</v>
       </c>
-      <c r="K317" s="14" t="s">
+      <c r="K317" t="s">
         <v>647</v>
       </c>
-      <c r="L317" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M317" s="14" t="s">
+      <c r="L317" t="s">
+        <v>251</v>
+      </c>
+      <c r="M317" t="s">
         <v>346</v>
       </c>
-      <c r="N317" s="15" t="s">
+      <c r="N317" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="O317" s="15" t="s">
+      <c r="O317" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="P317" s="15"/>
-      <c r="Q317" s="15"/>
-      <c r="V317" s="14" t="s">
+      <c r="V317" t="s">
         <v>645</v>
       </c>
-      <c r="W317" s="14" t="s">
+      <c r="W317" t="s">
         <v>483</v>
       </c>
-      <c r="AB317" s="16"/>
+      <c r="X317" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="318" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B318" s="14" t="s">
+    <row r="318" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B318" t="s">
         <v>332</v>
       </c>
-      <c r="C318" s="14" t="s">
+      <c r="C318" t="s">
         <v>650</v>
       </c>
-      <c r="D318" s="14">
+      <c r="D318">
         <v>344</v>
       </c>
-      <c r="E318" s="14">
+      <c r="E318">
         <v>346</v>
       </c>
-      <c r="J318" s="14" t="s">
+      <c r="J318" t="s">
         <v>349</v>
       </c>
-      <c r="K318" s="14" t="s">
+      <c r="K318" t="s">
         <v>652</v>
       </c>
-      <c r="L318" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M318" s="14" t="s">
+      <c r="L318" t="s">
+        <v>251</v>
+      </c>
+      <c r="M318" t="s">
         <v>346</v>
       </c>
-      <c r="N318" s="15" t="s">
+      <c r="N318" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="O318" s="15" t="s">
+      <c r="O318" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="P318" s="15"/>
-      <c r="Q318" s="15"/>
-      <c r="V318" s="14" t="s">
+      <c r="V318" t="s">
         <v>651</v>
       </c>
-      <c r="W318" s="14" t="s">
+      <c r="W318" t="s">
         <v>356</v>
       </c>
-      <c r="AB318" s="16"/>
+      <c r="X318" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="319" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B319" s="14" t="s">
+    <row r="319" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B319" t="s">
         <v>332</v>
       </c>
-      <c r="C319" s="14" t="s">
+      <c r="C319" t="s">
         <v>650</v>
       </c>
-      <c r="D319" s="14">
+      <c r="D319">
         <v>344</v>
       </c>
-      <c r="E319" s="14">
+      <c r="E319">
         <v>345</v>
       </c>
-      <c r="J319" s="14" t="s">
+      <c r="J319" t="s">
         <v>349</v>
       </c>
-      <c r="K319" s="14" t="s">
+      <c r="K319" t="s">
         <v>652</v>
       </c>
-      <c r="L319" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M319" s="14" t="s">
+      <c r="L319" t="s">
+        <v>251</v>
+      </c>
+      <c r="M319" t="s">
         <v>346</v>
       </c>
-      <c r="N319" s="15" t="s">
+      <c r="N319" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="O319" s="15" t="s">
+      <c r="O319" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="P319" s="15"/>
-      <c r="Q319" s="15"/>
-      <c r="V319" s="14" t="s">
+      <c r="V319" t="s">
         <v>373</v>
       </c>
-      <c r="W319" s="14" t="s">
+      <c r="W319" t="s">
         <v>357</v>
       </c>
-      <c r="AB319" s="16"/>
+      <c r="X319" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="320" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B320" s="14" t="s">
+    <row r="320" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B320" t="s">
         <v>332</v>
       </c>
-      <c r="C320" s="14" t="s">
+      <c r="C320" t="s">
         <v>650</v>
       </c>
-      <c r="D320" s="14">
+      <c r="D320">
         <v>345</v>
       </c>
-      <c r="E320" s="14">
+      <c r="E320">
         <v>346</v>
       </c>
-      <c r="J320" s="14" t="s">
+      <c r="J320" t="s">
         <v>349</v>
       </c>
-      <c r="K320" s="14" t="s">
+      <c r="K320" t="s">
         <v>656</v>
       </c>
-      <c r="L320" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M320" s="14" t="s">
+      <c r="L320" t="s">
+        <v>251</v>
+      </c>
+      <c r="M320" t="s">
         <v>337</v>
       </c>
-      <c r="N320" s="15" t="s">
+      <c r="N320" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="O320" s="15" t="s">
+      <c r="O320" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="P320" s="15"/>
-      <c r="Q320" s="15"/>
-      <c r="V320" s="14" t="s">
+      <c r="V320" t="s">
         <v>655</v>
       </c>
-      <c r="W320" s="14" t="s">
+      <c r="W320" t="s">
         <v>357</v>
       </c>
-      <c r="AB320" s="16"/>
+      <c r="X320" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="321" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B321" s="14" t="s">
+    <row r="321" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B321" t="s">
         <v>332</v>
       </c>
-      <c r="C321" s="14" t="s">
+      <c r="C321" t="s">
         <v>650</v>
       </c>
-      <c r="D321" s="14">
+      <c r="D321">
         <v>346</v>
       </c>
-      <c r="E321" s="14">
+      <c r="E321">
         <v>346</v>
       </c>
-      <c r="J321" s="14" t="s">
+      <c r="J321" t="s">
         <v>349</v>
       </c>
-      <c r="K321" s="14" t="s">
+      <c r="K321" t="s">
         <v>659</v>
       </c>
-      <c r="L321" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M321" s="14" t="s">
+      <c r="L321" t="s">
+        <v>251</v>
+      </c>
+      <c r="M321" t="s">
         <v>337</v>
       </c>
-      <c r="N321" s="15" t="s">
+      <c r="N321" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="O321" s="15" t="s">
+      <c r="O321" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="P321" s="15"/>
-      <c r="Q321" s="15"/>
-      <c r="V321" s="14" t="s">
+      <c r="V321" t="s">
         <v>373</v>
       </c>
-      <c r="W321" s="14" t="s">
+      <c r="W321" t="s">
         <v>357</v>
       </c>
-      <c r="Z321" s="14" t="s">
+      <c r="X321" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA321" t="s">
         <v>665</v>
       </c>
-      <c r="AB321" s="16"/>
     </row>
-    <row r="322" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B322" s="14" t="s">
+    <row r="322" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B322" t="s">
         <v>332</v>
       </c>
-      <c r="C322" s="14" t="s">
+      <c r="C322" t="s">
         <v>650</v>
       </c>
-      <c r="D322" s="14">
+      <c r="D322">
         <v>346</v>
       </c>
-      <c r="E322" s="14">
+      <c r="E322">
         <v>346</v>
       </c>
-      <c r="J322" s="14" t="s">
+      <c r="J322" t="s">
         <v>349</v>
       </c>
-      <c r="K322" s="14" t="s">
+      <c r="K322" t="s">
         <v>660</v>
       </c>
-      <c r="L322" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M322" s="14" t="s">
+      <c r="L322" t="s">
+        <v>251</v>
+      </c>
+      <c r="M322" t="s">
         <v>337</v>
       </c>
-      <c r="N322" s="15" t="s">
+      <c r="N322" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="O322" s="15" t="s">
+      <c r="O322" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="P322" s="15"/>
-      <c r="Q322" s="15"/>
-      <c r="V322" s="14" t="s">
+      <c r="V322" t="s">
         <v>373</v>
       </c>
-      <c r="W322" s="14" t="s">
+      <c r="W322" t="s">
         <v>357</v>
       </c>
-      <c r="Z322" s="14" t="s">
+      <c r="X322" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA322" t="s">
         <v>665</v>
       </c>
-      <c r="AB322" s="16"/>
     </row>
-    <row r="323" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B323" s="14" t="s">
+    <row r="323" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B323" t="s">
         <v>332</v>
       </c>
-      <c r="C323" s="14" t="s">
+      <c r="C323" t="s">
         <v>650</v>
       </c>
-      <c r="D323" s="14">
+      <c r="D323">
         <v>347</v>
       </c>
-      <c r="E323" s="14">
+      <c r="E323">
         <v>349</v>
       </c>
-      <c r="J323" s="14" t="s">
+      <c r="J323" t="s">
         <v>349</v>
       </c>
-      <c r="K323" s="14" t="s">
+      <c r="K323" t="s">
         <v>667</v>
       </c>
-      <c r="L323" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M323" s="14" t="s">
+      <c r="L323" t="s">
+        <v>251</v>
+      </c>
+      <c r="M323" t="s">
         <v>347</v>
       </c>
-      <c r="N323" s="15" t="s">
+      <c r="N323" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="O323" s="15" t="s">
+      <c r="O323" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="P323" s="15"/>
-      <c r="Q323" s="15"/>
-      <c r="V323" s="14" t="s">
+      <c r="V323" t="s">
         <v>666</v>
       </c>
-      <c r="W323" s="14" t="s">
+      <c r="W323" t="s">
         <v>356</v>
       </c>
-      <c r="AB323" s="16"/>
+      <c r="X323" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="324" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B324" s="14" t="s">
+    <row r="324" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B324" t="s">
         <v>332</v>
       </c>
-      <c r="C324" s="14" t="s">
+      <c r="C324" t="s">
         <v>650</v>
       </c>
-      <c r="D324" s="14">
+      <c r="D324">
         <v>347</v>
       </c>
-      <c r="E324" s="14">
+      <c r="E324">
         <v>348</v>
       </c>
-      <c r="F324" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="G324" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="H324" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="J324" s="14" t="s">
+      <c r="F324" t="s">
+        <v>252</v>
+      </c>
+      <c r="G324" t="s">
+        <v>252</v>
+      </c>
+      <c r="H324" t="s">
+        <v>251</v>
+      </c>
+      <c r="J324" t="s">
         <v>349</v>
       </c>
-      <c r="K324" s="14" t="s">
+      <c r="K324" t="s">
         <v>667</v>
       </c>
-      <c r="L324" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M324" s="14" t="s">
+      <c r="L324" t="s">
+        <v>251</v>
+      </c>
+      <c r="M324" t="s">
         <v>347</v>
       </c>
-      <c r="N324" s="15" t="s">
+      <c r="N324" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="O324" s="15" t="s">
+      <c r="O324" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="P324" s="15"/>
-      <c r="Q324" s="15"/>
-      <c r="V324" s="14" t="s">
+      <c r="V324" t="s">
         <v>137</v>
       </c>
-      <c r="W324" s="14" t="s">
+      <c r="W324" t="s">
         <v>357</v>
       </c>
-      <c r="AB324" s="16"/>
-      <c r="AC324" s="14" t="s">
+      <c r="X324" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD324" t="s">
         <v>323</v>
       </c>
-      <c r="AD324" s="14">
+      <c r="AE324">
         <v>1805</v>
       </c>
-      <c r="AE324" s="14" t="s">
+      <c r="AF324" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="325" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B325" s="14" t="s">
+    <row r="325" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B325" t="s">
         <v>332</v>
       </c>
-      <c r="C325" s="14" t="s">
+      <c r="C325" t="s">
         <v>650</v>
       </c>
-      <c r="D325" s="14">
+      <c r="D325">
         <v>348</v>
       </c>
-      <c r="E325" s="14">
+      <c r="E325">
         <v>349</v>
       </c>
-      <c r="F325" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="G325" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="H325" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="J325" s="14" t="s">
+      <c r="F325" t="s">
+        <v>252</v>
+      </c>
+      <c r="G325" t="s">
+        <v>252</v>
+      </c>
+      <c r="H325" t="s">
+        <v>251</v>
+      </c>
+      <c r="J325" t="s">
         <v>349</v>
       </c>
-      <c r="K325" s="14" t="s">
+      <c r="K325" t="s">
         <v>86</v>
       </c>
-      <c r="L325" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M325" s="14" t="s">
+      <c r="L325" t="s">
+        <v>251</v>
+      </c>
+      <c r="M325" t="s">
         <v>337</v>
       </c>
-      <c r="N325" s="15" t="s">
+      <c r="N325" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="O325" s="15" t="s">
+      <c r="O325" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="P325" s="15"/>
-      <c r="Q325" s="15"/>
-      <c r="V325" s="14" t="s">
+      <c r="V325" t="s">
         <v>144</v>
       </c>
-      <c r="W325" s="14" t="s">
+      <c r="W325" t="s">
         <v>357</v>
       </c>
-      <c r="AB325" s="16"/>
-      <c r="AC325" s="14" t="s">
+      <c r="X325" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD325" t="s">
         <v>323</v>
       </c>
-      <c r="AE325" s="14" t="s">
+      <c r="AF325" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="326" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B326" s="14" t="s">
+    <row r="326" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B326" t="s">
         <v>332</v>
       </c>
-      <c r="C326" s="14" t="s">
+      <c r="C326" t="s">
         <v>650</v>
       </c>
-      <c r="D326" s="14">
+      <c r="D326">
         <v>349</v>
       </c>
-      <c r="E326" s="14">
+      <c r="E326">
         <v>349</v>
       </c>
-      <c r="F326" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="G326" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="H326" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="J326" s="14" t="s">
+      <c r="F326" t="s">
+        <v>252</v>
+      </c>
+      <c r="G326" t="s">
+        <v>252</v>
+      </c>
+      <c r="H326" t="s">
+        <v>251</v>
+      </c>
+      <c r="J326" t="s">
         <v>349</v>
       </c>
-      <c r="K326" s="14" t="s">
+      <c r="K326" t="s">
         <v>84</v>
       </c>
-      <c r="L326" s="14" t="s">
+      <c r="L326" t="s">
         <v>252</v>
       </c>
       <c r="M326" s="7" t="s">
@@ -34253,60 +34834,60 @@
       <c r="O326" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="P326" s="15"/>
-      <c r="Q326" s="15"/>
-      <c r="V326" s="14" t="s">
+      <c r="V326" t="s">
         <v>672</v>
       </c>
-      <c r="W326" s="14" t="s">
+      <c r="W326" t="s">
         <v>357</v>
       </c>
-      <c r="AB326" s="16"/>
-      <c r="AC326" s="14" t="s">
+      <c r="X326" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD326" t="s">
         <v>323</v>
       </c>
-      <c r="AE326" s="14" t="s">
+      <c r="AF326" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="327" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B327" s="14" t="s">
+    <row r="327" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B327" t="s">
         <v>332</v>
       </c>
-      <c r="C327" s="14" t="s">
+      <c r="C327" t="s">
         <v>675</v>
       </c>
-      <c r="D327" s="14">
+      <c r="D327">
         <v>351</v>
       </c>
-      <c r="E327" s="14">
+      <c r="E327">
         <v>353</v>
       </c>
-      <c r="F327" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="G327" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="H327" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="J327" s="14" t="s">
+      <c r="F327" t="s">
+        <v>252</v>
+      </c>
+      <c r="G327" t="s">
+        <v>251</v>
+      </c>
+      <c r="H327" t="s">
+        <v>251</v>
+      </c>
+      <c r="J327" t="s">
         <v>349</v>
       </c>
-      <c r="K327" s="14" t="s">
+      <c r="K327" t="s">
         <v>676</v>
       </c>
-      <c r="L327" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M327" s="14" t="s">
+      <c r="L327" t="s">
+        <v>251</v>
+      </c>
+      <c r="M327" t="s">
         <v>346</v>
       </c>
-      <c r="N327" s="15" t="s">
+      <c r="N327" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="O327" s="15" t="s">
+      <c r="O327" s="6" t="s">
         <v>678</v>
       </c>
       <c r="P327" s="6" t="s">
@@ -34315,58 +34896,60 @@
       <c r="Q327" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="V327" s="14" t="s">
+      <c r="V327" t="s">
         <v>224</v>
       </c>
-      <c r="W327" s="14" t="s">
+      <c r="W327" t="s">
         <v>357</v>
       </c>
-      <c r="AB327" s="16"/>
-      <c r="AC327" s="14" t="s">
+      <c r="X327" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD327" t="s">
         <v>323</v>
       </c>
-      <c r="AE327" s="14" t="s">
+      <c r="AF327" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="328" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B328" s="14" t="s">
+    <row r="328" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B328" t="s">
         <v>332</v>
       </c>
-      <c r="C328" s="14" t="s">
+      <c r="C328" t="s">
         <v>675</v>
       </c>
-      <c r="D328" s="14">
+      <c r="D328">
         <v>353</v>
       </c>
-      <c r="E328" s="14">
+      <c r="E328">
         <v>354</v>
       </c>
-      <c r="F328" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="G328" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="H328" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="J328" s="14" t="s">
+      <c r="F328" t="s">
+        <v>252</v>
+      </c>
+      <c r="G328" t="s">
+        <v>251</v>
+      </c>
+      <c r="H328" t="s">
+        <v>251</v>
+      </c>
+      <c r="J328" t="s">
         <v>349</v>
       </c>
-      <c r="K328" s="14" t="s">
+      <c r="K328" t="s">
         <v>676</v>
       </c>
-      <c r="L328" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M328" s="14" t="s">
+      <c r="L328" t="s">
+        <v>251</v>
+      </c>
+      <c r="M328" t="s">
         <v>346</v>
       </c>
-      <c r="N328" s="15" t="s">
+      <c r="N328" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="O328" s="15" t="s">
+      <c r="O328" s="6" t="s">
         <v>678</v>
       </c>
       <c r="P328" s="6" t="s">
@@ -34375,140 +34958,142 @@
       <c r="Q328" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="V328" s="14" t="s">
+      <c r="V328" t="s">
         <v>681</v>
       </c>
-      <c r="W328" s="14" t="s">
+      <c r="W328" t="s">
         <v>357</v>
       </c>
-      <c r="AB328" s="16"/>
-      <c r="AC328" s="14" t="s">
+      <c r="X328" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD328" t="s">
         <v>323</v>
       </c>
-      <c r="AE328" s="14" t="s">
+      <c r="AF328" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="329" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B329" s="14" t="s">
+    <row r="329" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B329" t="s">
         <v>332</v>
       </c>
-      <c r="C329" s="14" t="s">
+      <c r="C329" t="s">
         <v>675</v>
       </c>
-      <c r="D329" s="14">
+      <c r="D329">
         <v>355</v>
       </c>
-      <c r="E329" s="14">
+      <c r="E329">
         <v>356</v>
       </c>
-      <c r="J329" s="14" t="s">
+      <c r="J329" t="s">
         <v>349</v>
       </c>
-      <c r="K329" s="14" t="s">
+      <c r="K329" t="s">
         <v>683</v>
       </c>
-      <c r="L329" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M329" s="14" t="s">
+      <c r="L329" t="s">
+        <v>251</v>
+      </c>
+      <c r="M329" t="s">
         <v>346</v>
       </c>
-      <c r="N329" s="15" t="s">
+      <c r="N329" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="O329" s="15" t="s">
+      <c r="O329" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="P329" s="6"/>
-      <c r="Q329" s="6"/>
-      <c r="V329" s="14" t="s">
+      <c r="V329" t="s">
         <v>682</v>
       </c>
-      <c r="W329" s="14" t="s">
+      <c r="W329" t="s">
         <v>356</v>
       </c>
-      <c r="AB329" s="16"/>
+      <c r="X329" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="330" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B330" s="14" t="s">
+    <row r="330" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B330" t="s">
         <v>332</v>
       </c>
-      <c r="C330" s="14" t="s">
+      <c r="C330" t="s">
         <v>675</v>
       </c>
-      <c r="D330" s="14">
+      <c r="D330">
         <v>355</v>
       </c>
-      <c r="E330" s="14">
+      <c r="E330">
         <v>356</v>
       </c>
-      <c r="F330" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="G330" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="H330" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="J330" s="14" t="s">
+      <c r="F330" t="s">
+        <v>252</v>
+      </c>
+      <c r="G330" t="s">
+        <v>252</v>
+      </c>
+      <c r="H330" t="s">
+        <v>251</v>
+      </c>
+      <c r="J330" t="s">
         <v>349</v>
       </c>
-      <c r="K330" s="14" t="s">
+      <c r="K330" t="s">
         <v>683</v>
       </c>
-      <c r="L330" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M330" s="14" t="s">
+      <c r="L330" t="s">
+        <v>251</v>
+      </c>
+      <c r="M330" t="s">
         <v>346</v>
       </c>
-      <c r="N330" s="15" t="s">
+      <c r="N330" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="O330" s="15" t="s">
+      <c r="O330" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="P330" s="15"/>
-      <c r="Q330" s="15"/>
-      <c r="V330" s="14" t="s">
+      <c r="V330" t="s">
         <v>373</v>
       </c>
-      <c r="W330" s="14" t="s">
+      <c r="W330" t="s">
         <v>357</v>
       </c>
-      <c r="AB330" s="16"/>
-      <c r="AC330" s="14" t="s">
+      <c r="X330" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD330" t="s">
         <v>323</v>
       </c>
-      <c r="AE330" s="14" t="s">
+      <c r="AF330" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="331" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B331" s="14" t="s">
+    <row r="331" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B331" t="s">
         <v>332</v>
       </c>
-      <c r="C331" s="14" t="s">
+      <c r="C331" t="s">
         <v>675</v>
       </c>
-      <c r="D331" s="14">
+      <c r="D331">
         <v>356</v>
       </c>
-      <c r="E331" s="14">
+      <c r="E331">
         <v>359</v>
       </c>
-      <c r="J331" s="14" t="s">
+      <c r="J331" t="s">
         <v>349</v>
       </c>
-      <c r="K331" s="14" t="s">
+      <c r="K331" t="s">
         <v>685</v>
       </c>
-      <c r="L331" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M331" s="14" t="s">
+      <c r="L331" t="s">
+        <v>251</v>
+      </c>
+      <c r="M331" t="s">
         <v>346</v>
       </c>
       <c r="N331" s="6" t="s">
@@ -34517,619 +35102,612 @@
       <c r="O331" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="P331" s="15"/>
-      <c r="Q331" s="15"/>
-      <c r="V331" s="14" t="s">
+      <c r="V331" t="s">
         <v>684</v>
       </c>
-      <c r="W331" s="14" t="s">
+      <c r="W331" t="s">
         <v>356</v>
       </c>
-      <c r="AB331" s="16"/>
+      <c r="X331" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="332" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B332" s="14" t="s">
+    <row r="332" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B332" t="s">
         <v>332</v>
       </c>
-      <c r="C332" s="14" t="s">
+      <c r="C332" t="s">
         <v>675</v>
       </c>
-      <c r="D332" s="14">
+      <c r="D332">
         <v>357</v>
       </c>
-      <c r="E332" s="14">
+      <c r="E332">
         <v>358</v>
       </c>
-      <c r="F332" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="G332" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="H332" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="J332" s="14" t="s">
+      <c r="F332" t="s">
+        <v>252</v>
+      </c>
+      <c r="G332" t="s">
+        <v>251</v>
+      </c>
+      <c r="H332" t="s">
+        <v>251</v>
+      </c>
+      <c r="J332" t="s">
         <v>349</v>
       </c>
-      <c r="K332" s="14" t="s">
+      <c r="K332" t="s">
         <v>686</v>
       </c>
-      <c r="L332" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M332" s="14" t="s">
+      <c r="L332" t="s">
+        <v>251</v>
+      </c>
+      <c r="M332" t="s">
         <v>347</v>
       </c>
-      <c r="N332" s="15" t="s">
+      <c r="N332" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="O332" s="15" t="s">
+      <c r="O332" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="P332" s="15"/>
-      <c r="Q332" s="15"/>
-      <c r="V332" s="14" t="s">
+      <c r="V332" t="s">
         <v>225</v>
       </c>
-      <c r="W332" s="14" t="s">
+      <c r="W332" t="s">
         <v>357</v>
       </c>
-      <c r="AB332" s="16"/>
-      <c r="AC332" s="14" t="s">
+      <c r="X332" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD332" t="s">
         <v>323</v>
       </c>
-      <c r="AE332" s="14" t="s">
+      <c r="AF332" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="333" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B333" s="14" t="s">
+    <row r="333" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B333" t="s">
         <v>332</v>
       </c>
-      <c r="C333" s="14" t="s">
+      <c r="C333" t="s">
         <v>675</v>
       </c>
-      <c r="D333" s="14">
+      <c r="D333">
         <v>359</v>
       </c>
-      <c r="E333" s="14">
+      <c r="E333">
         <v>359</v>
       </c>
-      <c r="J333" s="14" t="s">
+      <c r="J333" t="s">
         <v>349</v>
       </c>
-      <c r="K333" s="14" t="s">
+      <c r="K333" t="s">
         <v>690</v>
       </c>
-      <c r="L333" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M333" s="14" t="s">
+      <c r="L333" t="s">
+        <v>251</v>
+      </c>
+      <c r="M333" t="s">
         <v>337</v>
       </c>
       <c r="N333" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="O333" s="17" t="s">
+      <c r="O333" s="14" t="s">
         <v>692</v>
       </c>
-      <c r="P333" s="15"/>
-      <c r="Q333" s="15"/>
-      <c r="V333" s="14" t="s">
+      <c r="V333" t="s">
         <v>689</v>
       </c>
-      <c r="W333" s="14" t="s">
+      <c r="W333" t="s">
         <v>357</v>
       </c>
-      <c r="AB333" s="16"/>
+      <c r="X333" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="334" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B334" s="14" t="s">
+    <row r="334" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B334" t="s">
         <v>332</v>
       </c>
-      <c r="C334" s="14" t="s">
+      <c r="C334" t="s">
         <v>675</v>
       </c>
-      <c r="D334" s="14">
+      <c r="D334">
         <v>359</v>
       </c>
-      <c r="E334" s="14">
+      <c r="E334">
         <v>359</v>
       </c>
-      <c r="F334" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="G334" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="H334" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="J334" s="14" t="s">
+      <c r="F334" t="s">
+        <v>252</v>
+      </c>
+      <c r="G334" t="s">
+        <v>251</v>
+      </c>
+      <c r="H334" t="s">
+        <v>251</v>
+      </c>
+      <c r="J334" t="s">
         <v>349</v>
       </c>
-      <c r="K334" s="14" t="s">
+      <c r="K334" t="s">
         <v>690</v>
       </c>
-      <c r="L334" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M334" s="14" t="s">
+      <c r="L334" t="s">
+        <v>251</v>
+      </c>
+      <c r="M334" t="s">
         <v>337</v>
       </c>
       <c r="N334" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="O334" s="17" t="s">
+      <c r="O334" s="14" t="s">
         <v>692</v>
       </c>
-      <c r="P334" s="15"/>
-      <c r="Q334" s="15"/>
-      <c r="V334" s="14" t="s">
+      <c r="V334" t="s">
         <v>226</v>
       </c>
-      <c r="W334" s="14" t="s">
+      <c r="W334" t="s">
         <v>483</v>
       </c>
-      <c r="AB334" s="16"/>
-      <c r="AC334" s="14" t="s">
+      <c r="X334" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD334" t="s">
         <v>323</v>
       </c>
-      <c r="AE334" s="14" t="s">
+      <c r="AF334" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="335" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B335" s="14" t="s">
+    <row r="335" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B335" t="s">
         <v>332</v>
       </c>
-      <c r="C335" s="14" t="s">
+      <c r="C335" t="s">
         <v>708</v>
       </c>
-      <c r="D335" s="14">
+      <c r="D335">
         <v>360</v>
       </c>
-      <c r="E335" s="14">
+      <c r="E335">
         <v>361</v>
       </c>
-      <c r="J335" s="14" t="s">
+      <c r="J335" t="s">
         <v>349</v>
       </c>
-      <c r="K335" s="14" t="s">
+      <c r="K335" t="s">
         <v>694</v>
       </c>
-      <c r="L335" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M335" s="14" t="s">
+      <c r="L335" t="s">
+        <v>251</v>
+      </c>
+      <c r="M335" t="s">
         <v>346</v>
       </c>
       <c r="N335" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="O335" s="17" t="s">
+      <c r="O335" s="14" t="s">
         <v>695</v>
       </c>
-      <c r="P335" s="15"/>
-      <c r="Q335" s="15"/>
-      <c r="V335" s="14" t="s">
+      <c r="V335" t="s">
         <v>693</v>
       </c>
-      <c r="W335" s="14" t="s">
+      <c r="W335" t="s">
         <v>356</v>
       </c>
-      <c r="AB335" s="16"/>
+      <c r="X335" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="336" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B336" s="14" t="s">
+    <row r="336" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B336" t="s">
         <v>332</v>
       </c>
-      <c r="C336" s="14" t="s">
+      <c r="C336" t="s">
         <v>708</v>
       </c>
-      <c r="D336" s="14">
+      <c r="D336">
         <v>360</v>
       </c>
-      <c r="E336" s="14">
+      <c r="E336">
         <v>361</v>
       </c>
-      <c r="F336" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="G336" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="H336" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="J336" s="14" t="s">
+      <c r="F336" t="s">
+        <v>251</v>
+      </c>
+      <c r="G336" t="s">
+        <v>252</v>
+      </c>
+      <c r="H336" t="s">
+        <v>252</v>
+      </c>
+      <c r="J336" t="s">
         <v>349</v>
       </c>
-      <c r="K336" s="14" t="s">
+      <c r="K336" t="s">
         <v>65</v>
       </c>
-      <c r="L336" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="M336" s="14" t="s">
+      <c r="L336" t="s">
+        <v>252</v>
+      </c>
+      <c r="M336" t="s">
         <v>347</v>
       </c>
-      <c r="N336" s="15" t="s">
+      <c r="N336" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="O336" s="15" t="s">
+      <c r="O336" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="P336" s="15"/>
-      <c r="Q336" s="15"/>
-      <c r="V336" s="14" t="s">
+      <c r="V336" t="s">
         <v>126</v>
       </c>
-      <c r="W336" s="14" t="s">
+      <c r="W336" t="s">
         <v>357</v>
       </c>
-      <c r="AB336" s="16"/>
-      <c r="AC336" s="14" t="s">
+      <c r="X336" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD336" t="s">
         <v>321</v>
       </c>
-      <c r="AD336" s="14">
+      <c r="AE336">
         <v>1788</v>
       </c>
-      <c r="AE336" s="14" t="s">
+      <c r="AF336" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="337" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B337" s="14" t="s">
+    <row r="337" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B337" t="s">
         <v>332</v>
       </c>
-      <c r="C337" s="14" t="s">
+      <c r="C337" t="s">
         <v>708</v>
       </c>
-      <c r="D337" s="14">
+      <c r="D337">
         <v>361</v>
       </c>
-      <c r="E337" s="14">
+      <c r="E337">
         <v>367</v>
       </c>
-      <c r="J337" s="14" t="s">
+      <c r="J337" t="s">
         <v>349</v>
       </c>
-      <c r="K337" s="14">
+      <c r="K337">
         <v>999</v>
       </c>
-      <c r="L337" s="14">
+      <c r="L337">
         <v>999</v>
       </c>
-      <c r="M337" s="14">
+      <c r="M337">
         <v>999</v>
       </c>
-      <c r="N337" s="15" t="s">
+      <c r="N337" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="O337" s="15" t="s">
+      <c r="O337" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="P337" s="15"/>
-      <c r="Q337" s="15"/>
-      <c r="V337" s="14" t="s">
+      <c r="V337" t="s">
         <v>697</v>
       </c>
-      <c r="W337" s="14" t="s">
+      <c r="W337" t="s">
         <v>356</v>
       </c>
-      <c r="AB337" s="16"/>
+      <c r="X337" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="338" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B338" s="14" t="s">
+    <row r="338" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B338" t="s">
         <v>332</v>
       </c>
-      <c r="C338" s="14" t="s">
+      <c r="C338" t="s">
         <v>708</v>
       </c>
-      <c r="D338" s="14">
+      <c r="D338">
         <v>362</v>
       </c>
-      <c r="E338" s="14">
+      <c r="E338">
         <v>364</v>
       </c>
-      <c r="F338" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="G338" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="H338" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="J338" s="14" t="s">
+      <c r="F338" t="s">
+        <v>252</v>
+      </c>
+      <c r="G338" t="s">
+        <v>251</v>
+      </c>
+      <c r="H338" t="s">
+        <v>251</v>
+      </c>
+      <c r="J338" t="s">
         <v>349</v>
       </c>
-      <c r="K338" s="14">
+      <c r="K338">
         <v>999</v>
       </c>
-      <c r="L338" s="14">
+      <c r="L338">
         <v>999</v>
       </c>
-      <c r="M338" s="14">
+      <c r="M338">
         <v>999</v>
       </c>
-      <c r="N338" s="15" t="s">
+      <c r="N338" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="O338" s="15" t="s">
+      <c r="O338" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="P338" s="15"/>
-      <c r="Q338" s="15"/>
-      <c r="V338" s="14" t="s">
+      <c r="V338" t="s">
         <v>242</v>
       </c>
-      <c r="W338" s="14" t="s">
+      <c r="W338" t="s">
         <v>357</v>
       </c>
-      <c r="AB338" s="16"/>
-      <c r="AE338" s="14" t="s">
+      <c r="X338" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF338" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="339" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B339" s="14" t="s">
+    <row r="339" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B339" t="s">
         <v>332</v>
       </c>
-      <c r="C339" s="14" t="s">
+      <c r="C339" t="s">
         <v>708</v>
       </c>
-      <c r="D339" s="14">
+      <c r="D339">
         <v>365</v>
       </c>
-      <c r="E339" s="14">
+      <c r="E339">
         <v>367</v>
       </c>
-      <c r="F339" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="G339" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="H339" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="J339" s="14" t="s">
+      <c r="F339" t="s">
+        <v>251</v>
+      </c>
+      <c r="G339" t="s">
+        <v>252</v>
+      </c>
+      <c r="H339" t="s">
+        <v>252</v>
+      </c>
+      <c r="J339" t="s">
         <v>349</v>
       </c>
-      <c r="K339" s="14" t="s">
+      <c r="K339" t="s">
         <v>90</v>
       </c>
-      <c r="L339" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="M339" s="14" t="s">
+      <c r="L339" t="s">
+        <v>252</v>
+      </c>
+      <c r="M339" t="s">
         <v>346</v>
       </c>
-      <c r="N339" s="15" t="s">
+      <c r="N339" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="O339" s="15" t="s">
+      <c r="O339" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="P339" s="15"/>
-      <c r="Q339" s="15"/>
-      <c r="V339" s="14" t="s">
+      <c r="V339" t="s">
         <v>701</v>
       </c>
-      <c r="W339" s="14" t="s">
+      <c r="W339" t="s">
         <v>357</v>
       </c>
-      <c r="Z339" s="14" t="s">
+      <c r="X339" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA339" t="s">
         <v>665</v>
       </c>
-      <c r="AB339" s="16"/>
-      <c r="AD339" s="14">
+      <c r="AE339">
         <v>1796</v>
       </c>
-      <c r="AE339" s="14" t="s">
+      <c r="AF339" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="340" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B340" s="14" t="s">
+    <row r="340" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B340" t="s">
         <v>332</v>
       </c>
-      <c r="C340" s="14" t="s">
+      <c r="C340" t="s">
         <v>708</v>
       </c>
-      <c r="D340" s="14">
+      <c r="D340">
         <v>368</v>
       </c>
-      <c r="E340" s="14" t="s">
+      <c r="E340" t="s">
         <v>125</v>
       </c>
-      <c r="J340" s="14" t="s">
+      <c r="J340" t="s">
         <v>349</v>
       </c>
-      <c r="K340" s="14">
+      <c r="K340">
         <v>999</v>
       </c>
-      <c r="L340" s="14">
+      <c r="L340">
         <v>999</v>
       </c>
-      <c r="M340" s="14">
+      <c r="M340">
         <v>999</v>
       </c>
-      <c r="N340" s="15" t="s">
+      <c r="N340" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="O340" s="15" t="s">
+      <c r="O340" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="P340" s="15"/>
-      <c r="Q340" s="15"/>
-      <c r="V340" s="14" t="s">
+      <c r="V340" t="s">
         <v>702</v>
       </c>
-      <c r="W340" s="14" t="s">
+      <c r="W340" t="s">
         <v>356</v>
       </c>
-      <c r="AB340" s="16"/>
+      <c r="X340" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="341" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B341" s="14" t="s">
+    <row r="341" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B341" t="s">
         <v>332</v>
       </c>
-      <c r="C341" s="14" t="s">
+      <c r="C341" t="s">
         <v>708</v>
       </c>
-      <c r="D341" s="14">
+      <c r="D341">
         <v>368</v>
       </c>
-      <c r="E341" s="14">
+      <c r="E341">
         <v>369</v>
       </c>
-      <c r="F341" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="G341" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="H341" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="J341" s="14" t="s">
+      <c r="F341" t="s">
+        <v>252</v>
+      </c>
+      <c r="G341" t="s">
+        <v>251</v>
+      </c>
+      <c r="H341" t="s">
+        <v>251</v>
+      </c>
+      <c r="J341" t="s">
         <v>349</v>
       </c>
-      <c r="K341" s="14">
+      <c r="K341">
         <v>999</v>
       </c>
-      <c r="L341" s="14">
+      <c r="L341">
         <v>999</v>
       </c>
-      <c r="M341" s="14">
+      <c r="M341">
         <v>999</v>
       </c>
-      <c r="N341" s="15" t="s">
+      <c r="N341" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="O341" s="15" t="s">
+      <c r="O341" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="P341" s="15"/>
-      <c r="Q341" s="15"/>
-      <c r="V341" s="14" t="s">
+      <c r="V341" t="s">
         <v>703</v>
       </c>
-      <c r="W341" s="14" t="s">
+      <c r="W341" t="s">
         <v>357</v>
       </c>
-      <c r="AB341" s="16"/>
-      <c r="AE341" s="14" t="s">
+      <c r="X341" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF341" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="342" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B342" s="14" t="s">
+    <row r="342" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B342" t="s">
         <v>332</v>
       </c>
-      <c r="C342" s="14" t="s">
+      <c r="C342" t="s">
         <v>708</v>
       </c>
-      <c r="D342" s="14">
+      <c r="D342">
         <v>369</v>
       </c>
-      <c r="E342" s="14">
+      <c r="E342">
         <v>371</v>
       </c>
-      <c r="J342" s="14" t="s">
+      <c r="J342" t="s">
         <v>349</v>
       </c>
-      <c r="K342" s="14">
+      <c r="K342">
         <v>999</v>
       </c>
-      <c r="L342" s="14">
+      <c r="L342">
         <v>999</v>
       </c>
-      <c r="M342" s="14">
+      <c r="M342">
         <v>999</v>
       </c>
-      <c r="N342" s="15" t="s">
+      <c r="N342" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="O342" s="15" t="s">
+      <c r="O342" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="P342" s="15"/>
-      <c r="Q342" s="15"/>
-      <c r="V342" s="14" t="s">
+      <c r="V342" t="s">
         <v>704</v>
       </c>
-      <c r="W342" s="14" t="s">
+      <c r="W342" t="s">
         <v>356</v>
       </c>
-      <c r="AB342" s="16"/>
+      <c r="X342" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="343" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B343" s="14" t="s">
+    <row r="343" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B343" t="s">
         <v>332</v>
       </c>
-      <c r="C343" s="14" t="s">
+      <c r="C343" t="s">
         <v>708</v>
       </c>
-      <c r="D343" s="14">
+      <c r="D343">
         <v>369</v>
       </c>
-      <c r="E343" s="14">
+      <c r="E343">
         <v>371</v>
       </c>
-      <c r="F343" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="G343" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="H343" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="J343" s="14" t="s">
+      <c r="F343" t="s">
+        <v>252</v>
+      </c>
+      <c r="G343" t="s">
+        <v>251</v>
+      </c>
+      <c r="H343" t="s">
+        <v>251</v>
+      </c>
+      <c r="J343" t="s">
         <v>349</v>
       </c>
-      <c r="K343" s="14" t="s">
+      <c r="K343" t="s">
         <v>705</v>
       </c>
-      <c r="L343" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="M343" s="14" t="s">
+      <c r="L343" t="s">
+        <v>252</v>
+      </c>
+      <c r="M343" t="s">
         <v>62</v>
       </c>
-      <c r="N343" s="15" t="s">
+      <c r="N343" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="O343" s="15" t="s">
+      <c r="O343" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="P343" s="15"/>
-      <c r="Q343" s="15"/>
-      <c r="V343" s="14" t="s">
+      <c r="V343" t="s">
         <v>243</v>
       </c>
-      <c r="W343" s="14" t="s">
+      <c r="W343" t="s">
         <v>357</v>
       </c>
-      <c r="AB343" s="16"/>
-      <c r="AE343" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="344" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="N344" s="15"/>
-      <c r="O344" s="15"/>
-      <c r="P344" s="15"/>
-      <c r="Q344" s="15"/>
-      <c r="AB344" s="16"/>
+      <c r="X343" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF343" t="s">
+        <v>251</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE344">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF344">
     <sortCondition ref="B1:B344"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Datasets/Radlof/Data/Radlof_JR.xlsx
+++ b/Datasets/Radlof/Data/Radlof_JR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/Akademie_Projekt/Datasets/Radlof/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC5B790-095E-724B-BD9F-989BF3A0717B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72926D4-2A2E-C74C-BA7F-BBEBE2AA29AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16020" xr2:uid="{3077CAFC-FA7C-2F47-8A82-10E22418B47E}"/>
   </bookViews>
@@ -2259,7 +2259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2272,7 +2272,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2593,9 +2592,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2E1DA0-AE8B-2C4F-9404-3B390A7B84FE}">
   <dimension ref="A1:XFB343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B201" sqref="B201"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19079,9 +19078,6 @@
       <c r="H2" t="s">
         <v>252</v>
       </c>
-      <c r="J2" t="s">
-        <v>349</v>
-      </c>
       <c r="K2" t="s">
         <v>350</v>
       </c>
@@ -19112,6 +19108,10 @@
       <c r="X2" t="s">
         <v>251</v>
       </c>
+      <c r="AB2" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC2"/>
       <c r="AD2" t="s">
         <v>322</v>
       </c>
@@ -19132,9 +19132,6 @@
       <c r="E3">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
-        <v>349</v>
-      </c>
       <c r="K3" t="s">
         <v>350</v>
       </c>
@@ -19165,6 +19162,10 @@
       <c r="X3" t="s">
         <v>251</v>
       </c>
+      <c r="AB3" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC3"/>
     </row>
     <row r="4" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -19179,9 +19180,6 @@
       <c r="E4">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
-        <v>349</v>
-      </c>
       <c r="K4" t="s">
         <v>350</v>
       </c>
@@ -19212,6 +19210,10 @@
       <c r="X4" t="s">
         <v>251</v>
       </c>
+      <c r="AB4" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC4"/>
     </row>
     <row r="5" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
@@ -19226,9 +19228,6 @@
       <c r="E5">
         <v>12</v>
       </c>
-      <c r="J5" t="s">
-        <v>349</v>
-      </c>
       <c r="K5" t="s">
         <v>350</v>
       </c>
@@ -19259,6 +19258,10 @@
       <c r="X5" t="s">
         <v>251</v>
       </c>
+      <c r="AB5" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC5"/>
     </row>
     <row r="6" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
@@ -19273,9 +19276,6 @@
       <c r="E6">
         <v>14</v>
       </c>
-      <c r="J6" t="s">
-        <v>349</v>
-      </c>
       <c r="K6" t="s">
         <v>350</v>
       </c>
@@ -19306,6 +19306,10 @@
       <c r="X6" t="s">
         <v>251</v>
       </c>
+      <c r="AB6" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC6"/>
     </row>
     <row r="7" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
@@ -19320,9 +19324,6 @@
       <c r="E7">
         <v>15</v>
       </c>
-      <c r="J7" t="s">
-        <v>349</v>
-      </c>
       <c r="K7" t="s">
         <v>350</v>
       </c>
@@ -19353,6 +19354,10 @@
       <c r="X7" t="s">
         <v>251</v>
       </c>
+      <c r="AB7" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC7"/>
     </row>
     <row r="8" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
@@ -19367,9 +19372,6 @@
       <c r="E8">
         <v>16</v>
       </c>
-      <c r="J8" t="s">
-        <v>349</v>
-      </c>
       <c r="K8" t="s">
         <v>350</v>
       </c>
@@ -19400,6 +19402,10 @@
       <c r="X8" t="s">
         <v>251</v>
       </c>
+      <c r="AB8" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC8"/>
     </row>
     <row r="9" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
@@ -19414,9 +19420,6 @@
       <c r="E9">
         <v>17</v>
       </c>
-      <c r="J9" t="s">
-        <v>349</v>
-      </c>
       <c r="K9" t="s">
         <v>350</v>
       </c>
@@ -19447,6 +19450,10 @@
       <c r="X9" t="s">
         <v>251</v>
       </c>
+      <c r="AB9" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC9"/>
     </row>
     <row r="10" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -19461,9 +19468,6 @@
       <c r="E10">
         <v>19</v>
       </c>
-      <c r="J10" t="s">
-        <v>349</v>
-      </c>
       <c r="K10" t="s">
         <v>350</v>
       </c>
@@ -19494,6 +19498,10 @@
       <c r="X10" t="s">
         <v>251</v>
       </c>
+      <c r="AB10" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC10"/>
     </row>
     <row r="11" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
@@ -19508,9 +19516,6 @@
       <c r="E11">
         <v>20</v>
       </c>
-      <c r="J11" t="s">
-        <v>349</v>
-      </c>
       <c r="K11" t="s">
         <v>350</v>
       </c>
@@ -19541,6 +19546,10 @@
       <c r="X11" t="s">
         <v>251</v>
       </c>
+      <c r="AB11" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC11"/>
     </row>
     <row r="12" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
@@ -19555,9 +19564,6 @@
       <c r="E12">
         <v>22</v>
       </c>
-      <c r="J12" t="s">
-        <v>349</v>
-      </c>
       <c r="K12" t="s">
         <v>350</v>
       </c>
@@ -19588,6 +19594,10 @@
       <c r="X12" t="s">
         <v>251</v>
       </c>
+      <c r="AB12" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC12"/>
     </row>
     <row r="13" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
@@ -19611,9 +19621,6 @@
       <c r="H13" t="s">
         <v>252</v>
       </c>
-      <c r="J13" t="s">
-        <v>349</v>
-      </c>
       <c r="K13" t="s">
         <v>350</v>
       </c>
@@ -19644,6 +19651,10 @@
       <c r="X13" t="s">
         <v>251</v>
       </c>
+      <c r="AB13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC13"/>
       <c r="AD13" t="s">
         <v>322</v>
       </c>
@@ -19667,9 +19678,6 @@
       <c r="E14">
         <v>24</v>
       </c>
-      <c r="J14" t="s">
-        <v>349</v>
-      </c>
       <c r="K14" t="s">
         <v>350</v>
       </c>
@@ -19700,6 +19708,10 @@
       <c r="X14" t="s">
         <v>251</v>
       </c>
+      <c r="AB14" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC14"/>
     </row>
     <row r="15" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
@@ -19714,9 +19726,6 @@
       <c r="E15">
         <v>26</v>
       </c>
-      <c r="J15" t="s">
-        <v>349</v>
-      </c>
       <c r="K15" t="s">
         <v>350</v>
       </c>
@@ -19747,6 +19756,10 @@
       <c r="X15" t="s">
         <v>251</v>
       </c>
+      <c r="AB15" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC15"/>
     </row>
     <row r="16" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
@@ -19761,9 +19774,6 @@
       <c r="E16">
         <v>27</v>
       </c>
-      <c r="J16" t="s">
-        <v>349</v>
-      </c>
       <c r="K16" t="s">
         <v>350</v>
       </c>
@@ -19794,6 +19804,10 @@
       <c r="X16" t="s">
         <v>251</v>
       </c>
+      <c r="AB16" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC16"/>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
@@ -19808,9 +19822,6 @@
       <c r="E17">
         <v>29</v>
       </c>
-      <c r="J17" t="s">
-        <v>349</v>
-      </c>
       <c r="K17" t="s">
         <v>350</v>
       </c>
@@ -19841,6 +19852,10 @@
       <c r="X17" t="s">
         <v>251</v>
       </c>
+      <c r="AB17" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC17"/>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
@@ -19855,9 +19870,6 @@
       <c r="E18">
         <v>31</v>
       </c>
-      <c r="J18" t="s">
-        <v>349</v>
-      </c>
       <c r="K18" t="s">
         <v>350</v>
       </c>
@@ -19888,6 +19900,10 @@
       <c r="X18" t="s">
         <v>251</v>
       </c>
+      <c r="AB18" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC18"/>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
@@ -19902,9 +19918,6 @@
       <c r="E19">
         <v>33</v>
       </c>
-      <c r="J19" t="s">
-        <v>349</v>
-      </c>
       <c r="K19" t="s">
         <v>350</v>
       </c>
@@ -19935,6 +19948,10 @@
       <c r="X19" t="s">
         <v>251</v>
       </c>
+      <c r="AB19" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC19"/>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
@@ -19949,9 +19966,6 @@
       <c r="E20">
         <v>35</v>
       </c>
-      <c r="J20" t="s">
-        <v>349</v>
-      </c>
       <c r="K20" t="s">
         <v>333</v>
       </c>
@@ -19976,6 +19990,10 @@
       <c r="X20" t="s">
         <v>251</v>
       </c>
+      <c r="AB20" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC20"/>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
@@ -19999,9 +20017,6 @@
       <c r="H21" t="s">
         <v>252</v>
       </c>
-      <c r="J21" t="s">
-        <v>349</v>
-      </c>
       <c r="K21" t="s">
         <v>333</v>
       </c>
@@ -20026,6 +20041,10 @@
       <c r="X21" t="s">
         <v>251</v>
       </c>
+      <c r="AB21" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC21"/>
       <c r="AD21" t="s">
         <v>322</v>
       </c>
@@ -20055,9 +20074,6 @@
       <c r="H22" t="s">
         <v>252</v>
       </c>
-      <c r="J22" t="s">
-        <v>349</v>
-      </c>
       <c r="K22" t="s">
         <v>336</v>
       </c>
@@ -20082,6 +20098,10 @@
       <c r="X22" t="s">
         <v>251</v>
       </c>
+      <c r="AB22" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC22"/>
       <c r="AD22" t="s">
         <v>322</v>
       </c>
@@ -20111,9 +20131,6 @@
       <c r="H23" t="s">
         <v>252</v>
       </c>
-      <c r="J23" t="s">
-        <v>349</v>
-      </c>
       <c r="K23" t="s">
         <v>78</v>
       </c>
@@ -20138,6 +20155,10 @@
       <c r="X23" t="s">
         <v>251</v>
       </c>
+      <c r="AB23" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC23"/>
       <c r="AD23" t="s">
         <v>324</v>
       </c>
@@ -20167,9 +20188,6 @@
       <c r="H24" t="s">
         <v>252</v>
       </c>
-      <c r="J24" t="s">
-        <v>349</v>
-      </c>
       <c r="K24" t="s">
         <v>343</v>
       </c>
@@ -20194,6 +20212,10 @@
       <c r="X24" t="s">
         <v>251</v>
       </c>
+      <c r="AB24" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC24"/>
       <c r="AD24" t="s">
         <v>322</v>
       </c>
@@ -20223,9 +20245,6 @@
       <c r="H25" t="s">
         <v>251</v>
       </c>
-      <c r="J25" t="s">
-        <v>349</v>
-      </c>
       <c r="K25" t="s">
         <v>338</v>
       </c>
@@ -20250,6 +20269,10 @@
       <c r="X25" t="s">
         <v>251</v>
       </c>
+      <c r="AB25" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC25"/>
       <c r="AD25" t="s">
         <v>322</v>
       </c>
@@ -20279,9 +20302,6 @@
       <c r="H26" t="s">
         <v>251</v>
       </c>
-      <c r="J26" t="s">
-        <v>349</v>
-      </c>
       <c r="K26" t="s">
         <v>338</v>
       </c>
@@ -20306,6 +20326,10 @@
       <c r="X26" t="s">
         <v>251</v>
       </c>
+      <c r="AB26" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC26"/>
       <c r="AD26" t="s">
         <v>322</v>
       </c>
@@ -20335,9 +20359,6 @@
       <c r="H27" t="s">
         <v>251</v>
       </c>
-      <c r="J27" t="s">
-        <v>349</v>
-      </c>
       <c r="K27" t="s">
         <v>338</v>
       </c>
@@ -20362,6 +20383,10 @@
       <c r="X27" t="s">
         <v>251</v>
       </c>
+      <c r="AB27" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC27"/>
       <c r="AD27" t="s">
         <v>322</v>
       </c>
@@ -20391,9 +20416,6 @@
       <c r="H28" t="s">
         <v>251</v>
       </c>
-      <c r="J28" t="s">
-        <v>349</v>
-      </c>
       <c r="K28" t="s">
         <v>338</v>
       </c>
@@ -20418,6 +20440,10 @@
       <c r="X28" t="s">
         <v>251</v>
       </c>
+      <c r="AB28" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC28"/>
       <c r="AD28" t="s">
         <v>322</v>
       </c>
@@ -20447,9 +20473,6 @@
       <c r="H29" t="s">
         <v>251</v>
       </c>
-      <c r="J29" t="s">
-        <v>349</v>
-      </c>
       <c r="K29" t="s">
         <v>338</v>
       </c>
@@ -20474,6 +20497,10 @@
       <c r="X29" t="s">
         <v>251</v>
       </c>
+      <c r="AB29" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC29"/>
       <c r="AD29" t="s">
         <v>322</v>
       </c>
@@ -20506,9 +20533,6 @@
       <c r="H30" t="s">
         <v>251</v>
       </c>
-      <c r="J30" t="s">
-        <v>349</v>
-      </c>
       <c r="K30" t="s">
         <v>338</v>
       </c>
@@ -20533,6 +20557,10 @@
       <c r="X30" t="s">
         <v>251</v>
       </c>
+      <c r="AB30" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC30"/>
       <c r="AD30" t="s">
         <v>322</v>
       </c>
@@ -20553,9 +20581,6 @@
       <c r="E31">
         <v>61</v>
       </c>
-      <c r="J31" t="s">
-        <v>349</v>
-      </c>
       <c r="K31" t="s">
         <v>338</v>
       </c>
@@ -20580,6 +20605,10 @@
       <c r="X31" t="s">
         <v>251</v>
       </c>
+      <c r="AB31" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC31"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
@@ -20603,9 +20632,6 @@
       <c r="H32" t="s">
         <v>252</v>
       </c>
-      <c r="J32" t="s">
-        <v>349</v>
-      </c>
       <c r="K32" t="s">
         <v>338</v>
       </c>
@@ -20630,6 +20656,10 @@
       <c r="X32" t="s">
         <v>251</v>
       </c>
+      <c r="AB32" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC32"/>
       <c r="AD32" t="s">
         <v>322</v>
       </c>
@@ -20659,9 +20689,6 @@
       <c r="H33" t="s">
         <v>251</v>
       </c>
-      <c r="J33" t="s">
-        <v>349</v>
-      </c>
       <c r="K33" t="s">
         <v>78</v>
       </c>
@@ -20686,6 +20713,10 @@
       <c r="X33" t="s">
         <v>251</v>
       </c>
+      <c r="AB33" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC33"/>
       <c r="AD33" t="s">
         <v>322</v>
       </c>
@@ -20715,9 +20746,6 @@
       <c r="H34" t="s">
         <v>252</v>
       </c>
-      <c r="J34" t="s">
-        <v>349</v>
-      </c>
       <c r="K34" t="s">
         <v>81</v>
       </c>
@@ -20742,6 +20770,10 @@
       <c r="X34" t="s">
         <v>251</v>
       </c>
+      <c r="AB34" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC34"/>
       <c r="AD34" t="s">
         <v>324</v>
       </c>
@@ -20774,9 +20806,6 @@
       <c r="H35" t="s">
         <v>251</v>
       </c>
-      <c r="J35" t="s">
-        <v>349</v>
-      </c>
       <c r="K35" t="s">
         <v>81</v>
       </c>
@@ -20801,6 +20830,10 @@
       <c r="X35" t="s">
         <v>251</v>
       </c>
+      <c r="AB35" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC35"/>
       <c r="AD35" t="s">
         <v>322</v>
       </c>
@@ -20830,9 +20863,6 @@
       <c r="H36" t="s">
         <v>251</v>
       </c>
-      <c r="J36" t="s">
-        <v>349</v>
-      </c>
       <c r="K36" t="s">
         <v>81</v>
       </c>
@@ -20857,6 +20887,10 @@
       <c r="X36" t="s">
         <v>251</v>
       </c>
+      <c r="AB36" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC36"/>
       <c r="AD36" t="s">
         <v>324</v>
       </c>
@@ -20877,9 +20911,6 @@
       <c r="E37">
         <v>77</v>
       </c>
-      <c r="J37" t="s">
-        <v>349</v>
-      </c>
       <c r="K37" t="s">
         <v>379</v>
       </c>
@@ -20904,6 +20935,10 @@
       <c r="X37" t="s">
         <v>251</v>
       </c>
+      <c r="AB37" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC37"/>
     </row>
     <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
@@ -20927,9 +20962,6 @@
       <c r="H38" t="s">
         <v>251</v>
       </c>
-      <c r="J38" t="s">
-        <v>349</v>
-      </c>
       <c r="K38" t="s">
         <v>379</v>
       </c>
@@ -20954,6 +20986,10 @@
       <c r="X38" t="s">
         <v>251</v>
       </c>
+      <c r="AB38" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC38"/>
       <c r="AD38" t="s">
         <v>322</v>
       </c>
@@ -20983,9 +21019,6 @@
       <c r="H39" t="s">
         <v>251</v>
       </c>
-      <c r="J39" t="s">
-        <v>349</v>
-      </c>
       <c r="K39" t="s">
         <v>382</v>
       </c>
@@ -21010,7 +21043,10 @@
       <c r="X39" t="s">
         <v>251</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC39" t="s">
         <v>385</v>
       </c>
       <c r="AD39" t="s">
@@ -21036,9 +21072,6 @@
       <c r="E40">
         <v>75</v>
       </c>
-      <c r="J40" t="s">
-        <v>349</v>
-      </c>
       <c r="K40" t="s">
         <v>382</v>
       </c>
@@ -21063,6 +21096,10 @@
       <c r="X40" t="s">
         <v>251</v>
       </c>
+      <c r="AB40" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC40"/>
     </row>
     <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
@@ -21086,9 +21123,6 @@
       <c r="H41" t="s">
         <v>251</v>
       </c>
-      <c r="J41" t="s">
-        <v>349</v>
-      </c>
       <c r="K41" t="s">
         <v>382</v>
       </c>
@@ -21113,6 +21147,10 @@
       <c r="X41" t="s">
         <v>251</v>
       </c>
+      <c r="AB41" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC41"/>
       <c r="AD41" t="s">
         <v>322</v>
       </c>
@@ -21142,9 +21180,6 @@
       <c r="H42" t="s">
         <v>251</v>
       </c>
-      <c r="J42" t="s">
-        <v>349</v>
-      </c>
       <c r="K42" t="s">
         <v>82</v>
       </c>
@@ -21169,6 +21204,10 @@
       <c r="X42" t="s">
         <v>251</v>
       </c>
+      <c r="AB42" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC42"/>
       <c r="AD42" t="s">
         <v>324</v>
       </c>
@@ -21198,9 +21237,6 @@
       <c r="H43" t="s">
         <v>251</v>
       </c>
-      <c r="J43" t="s">
-        <v>349</v>
-      </c>
       <c r="K43" t="s">
         <v>82</v>
       </c>
@@ -21225,6 +21261,10 @@
       <c r="X43" t="s">
         <v>251</v>
       </c>
+      <c r="AB43" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC43"/>
       <c r="AD43" t="s">
         <v>324</v>
       </c>
@@ -21254,9 +21294,6 @@
       <c r="H44" t="s">
         <v>251</v>
       </c>
-      <c r="J44" t="s">
-        <v>349</v>
-      </c>
       <c r="K44" t="s">
         <v>82</v>
       </c>
@@ -21281,6 +21318,10 @@
       <c r="X44" t="s">
         <v>251</v>
       </c>
+      <c r="AB44" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC44"/>
       <c r="AD44" t="s">
         <v>324</v>
       </c>
@@ -21310,9 +21351,6 @@
       <c r="H45" t="s">
         <v>251</v>
       </c>
-      <c r="J45" t="s">
-        <v>349</v>
-      </c>
       <c r="K45" t="s">
         <v>82</v>
       </c>
@@ -21337,6 +21375,10 @@
       <c r="X45" t="s">
         <v>251</v>
       </c>
+      <c r="AB45" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC45"/>
       <c r="AD45" t="s">
         <v>324</v>
       </c>
@@ -21366,9 +21408,6 @@
       <c r="H46" t="s">
         <v>251</v>
       </c>
-      <c r="J46" t="s">
-        <v>349</v>
-      </c>
       <c r="K46" t="s">
         <v>82</v>
       </c>
@@ -21393,6 +21432,10 @@
       <c r="X46" t="s">
         <v>251</v>
       </c>
+      <c r="AB46" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC46"/>
       <c r="AD46" t="s">
         <v>324</v>
       </c>
@@ -21413,9 +21456,6 @@
       <c r="E47">
         <v>89</v>
       </c>
-      <c r="J47" t="s">
-        <v>349</v>
-      </c>
       <c r="K47" t="s">
         <v>82</v>
       </c>
@@ -21440,6 +21480,10 @@
       <c r="X47" t="s">
         <v>251</v>
       </c>
+      <c r="AB47" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC47"/>
     </row>
     <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
@@ -21454,9 +21498,6 @@
       <c r="E48">
         <v>90</v>
       </c>
-      <c r="J48" t="s">
-        <v>349</v>
-      </c>
       <c r="K48" t="s">
         <v>82</v>
       </c>
@@ -21481,8 +21522,12 @@
       <c r="X48" t="s">
         <v>251</v>
       </c>
+      <c r="AB48" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC48"/>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>28</v>
       </c>
@@ -21495,9 +21540,6 @@
       <c r="E49">
         <v>90</v>
       </c>
-      <c r="J49" t="s">
-        <v>349</v>
-      </c>
       <c r="K49" t="s">
         <v>82</v>
       </c>
@@ -21522,8 +21564,12 @@
       <c r="X49" t="s">
         <v>251</v>
       </c>
+      <c r="AB49" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC49"/>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>28</v>
       </c>
@@ -21536,9 +21582,6 @@
       <c r="E50">
         <v>91</v>
       </c>
-      <c r="J50" t="s">
-        <v>349</v>
-      </c>
       <c r="K50" t="s">
         <v>82</v>
       </c>
@@ -21563,8 +21606,12 @@
       <c r="X50" t="s">
         <v>251</v>
       </c>
+      <c r="AB50" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC50"/>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>28</v>
       </c>
@@ -21577,9 +21624,6 @@
       <c r="E51">
         <v>91</v>
       </c>
-      <c r="J51" t="s">
-        <v>349</v>
-      </c>
       <c r="K51" t="s">
         <v>82</v>
       </c>
@@ -21604,8 +21648,12 @@
       <c r="X51" t="s">
         <v>251</v>
       </c>
+      <c r="AB51" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC51"/>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>28</v>
       </c>
@@ -21618,9 +21666,6 @@
       <c r="E52">
         <v>91</v>
       </c>
-      <c r="J52" t="s">
-        <v>349</v>
-      </c>
       <c r="K52" t="s">
         <v>82</v>
       </c>
@@ -21645,8 +21690,12 @@
       <c r="X52" t="s">
         <v>251</v>
       </c>
+      <c r="AB52" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC52"/>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>28</v>
       </c>
@@ -21659,9 +21708,6 @@
       <c r="E53">
         <v>91</v>
       </c>
-      <c r="J53" t="s">
-        <v>349</v>
-      </c>
       <c r="K53" t="s">
         <v>82</v>
       </c>
@@ -21686,8 +21732,12 @@
       <c r="X53" t="s">
         <v>251</v>
       </c>
+      <c r="AB53" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC53"/>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>28</v>
       </c>
@@ -21700,9 +21750,6 @@
       <c r="E54">
         <v>91</v>
       </c>
-      <c r="J54" t="s">
-        <v>349</v>
-      </c>
       <c r="K54" t="s">
         <v>82</v>
       </c>
@@ -21727,8 +21774,12 @@
       <c r="X54" t="s">
         <v>251</v>
       </c>
+      <c r="AB54" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC54"/>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>28</v>
       </c>
@@ -21741,9 +21792,6 @@
       <c r="E55">
         <v>91</v>
       </c>
-      <c r="J55" t="s">
-        <v>349</v>
-      </c>
       <c r="K55" t="s">
         <v>82</v>
       </c>
@@ -21768,8 +21816,12 @@
       <c r="X55" t="s">
         <v>251</v>
       </c>
+      <c r="AB55" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC55"/>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>28</v>
       </c>
@@ -21782,9 +21834,6 @@
       <c r="E56">
         <v>92</v>
       </c>
-      <c r="J56" t="s">
-        <v>349</v>
-      </c>
       <c r="K56" t="s">
         <v>82</v>
       </c>
@@ -21809,8 +21858,12 @@
       <c r="X56" t="s">
         <v>251</v>
       </c>
+      <c r="AB56" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC56"/>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>28</v>
       </c>
@@ -21823,9 +21876,6 @@
       <c r="E57">
         <v>92</v>
       </c>
-      <c r="J57" t="s">
-        <v>349</v>
-      </c>
       <c r="K57" t="s">
         <v>82</v>
       </c>
@@ -21850,8 +21900,12 @@
       <c r="X57" t="s">
         <v>251</v>
       </c>
+      <c r="AB57" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC57"/>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>28</v>
       </c>
@@ -21864,9 +21918,6 @@
       <c r="E58">
         <v>92</v>
       </c>
-      <c r="J58" t="s">
-        <v>349</v>
-      </c>
       <c r="K58" t="s">
         <v>82</v>
       </c>
@@ -21891,8 +21942,12 @@
       <c r="X58" t="s">
         <v>251</v>
       </c>
+      <c r="AB58" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC58"/>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>28</v>
       </c>
@@ -21905,9 +21960,6 @@
       <c r="E59">
         <v>92</v>
       </c>
-      <c r="J59" t="s">
-        <v>349</v>
-      </c>
       <c r="K59" t="s">
         <v>82</v>
       </c>
@@ -21932,8 +21984,12 @@
       <c r="X59" t="s">
         <v>251</v>
       </c>
+      <c r="AB59" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC59"/>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>28</v>
       </c>
@@ -21946,9 +22002,6 @@
       <c r="E60">
         <v>92</v>
       </c>
-      <c r="J60" t="s">
-        <v>349</v>
-      </c>
       <c r="K60" t="s">
         <v>82</v>
       </c>
@@ -21973,8 +22026,12 @@
       <c r="X60" t="s">
         <v>251</v>
       </c>
+      <c r="AB60" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC60"/>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>28</v>
       </c>
@@ -21987,9 +22044,6 @@
       <c r="E61">
         <v>92</v>
       </c>
-      <c r="J61" t="s">
-        <v>349</v>
-      </c>
       <c r="K61" t="s">
         <v>82</v>
       </c>
@@ -22014,8 +22068,12 @@
       <c r="X61" t="s">
         <v>251</v>
       </c>
+      <c r="AB61" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC61"/>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>28</v>
       </c>
@@ -22028,9 +22086,6 @@
       <c r="E62">
         <v>93</v>
       </c>
-      <c r="J62" t="s">
-        <v>349</v>
-      </c>
       <c r="K62" t="s">
         <v>82</v>
       </c>
@@ -22055,8 +22110,12 @@
       <c r="X62" t="s">
         <v>251</v>
       </c>
+      <c r="AB62" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC62"/>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>28</v>
       </c>
@@ -22069,9 +22128,6 @@
       <c r="E63">
         <v>93</v>
       </c>
-      <c r="J63" t="s">
-        <v>349</v>
-      </c>
       <c r="K63" t="s">
         <v>82</v>
       </c>
@@ -22096,8 +22152,12 @@
       <c r="X63" t="s">
         <v>251</v>
       </c>
+      <c r="AB63" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC63"/>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>28</v>
       </c>
@@ -22110,9 +22170,6 @@
       <c r="E64">
         <v>93</v>
       </c>
-      <c r="J64" t="s">
-        <v>349</v>
-      </c>
       <c r="K64" t="s">
         <v>82</v>
       </c>
@@ -22137,6 +22194,10 @@
       <c r="X64" t="s">
         <v>251</v>
       </c>
+      <c r="AB64" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC64"/>
     </row>
     <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
@@ -22160,9 +22221,6 @@
       <c r="H65" t="s">
         <v>251</v>
       </c>
-      <c r="J65" t="s">
-        <v>349</v>
-      </c>
       <c r="K65" t="s">
         <v>82</v>
       </c>
@@ -22187,6 +22245,10 @@
       <c r="X65" t="s">
         <v>251</v>
       </c>
+      <c r="AB65" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC65"/>
       <c r="AD65" t="s">
         <v>324</v>
       </c>
@@ -22216,9 +22278,6 @@
       <c r="H66" t="s">
         <v>251</v>
       </c>
-      <c r="J66" t="s">
-        <v>349</v>
-      </c>
       <c r="K66" t="s">
         <v>80</v>
       </c>
@@ -22243,6 +22302,10 @@
       <c r="X66" t="s">
         <v>251</v>
       </c>
+      <c r="AB66" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC66"/>
       <c r="AD66" t="s">
         <v>323</v>
       </c>
@@ -22266,9 +22329,6 @@
       <c r="E67">
         <v>99</v>
       </c>
-      <c r="J67" t="s">
-        <v>349</v>
-      </c>
       <c r="K67" t="s">
         <v>80</v>
       </c>
@@ -22293,6 +22353,10 @@
       <c r="X67" t="s">
         <v>251</v>
       </c>
+      <c r="AB67" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC67"/>
     </row>
     <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
@@ -22307,9 +22371,6 @@
       <c r="E68">
         <v>106</v>
       </c>
-      <c r="J68" t="s">
-        <v>349</v>
-      </c>
       <c r="K68" t="s">
         <v>80</v>
       </c>
@@ -22334,6 +22395,10 @@
       <c r="X68" t="s">
         <v>251</v>
       </c>
+      <c r="AB68" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC68"/>
     </row>
     <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
@@ -22357,9 +22422,6 @@
       <c r="H69" t="s">
         <v>252</v>
       </c>
-      <c r="J69" t="s">
-        <v>349</v>
-      </c>
       <c r="K69" t="s">
         <v>75</v>
       </c>
@@ -22384,6 +22446,10 @@
       <c r="X69" t="s">
         <v>251</v>
       </c>
+      <c r="AB69" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC69"/>
       <c r="AD69" t="s">
         <v>323</v>
       </c>
@@ -22404,9 +22470,6 @@
       <c r="E70">
         <v>108</v>
       </c>
-      <c r="J70" t="s">
-        <v>349</v>
-      </c>
       <c r="K70" t="s">
         <v>75</v>
       </c>
@@ -22431,6 +22494,10 @@
       <c r="X70" t="s">
         <v>251</v>
       </c>
+      <c r="AB70" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC70"/>
     </row>
     <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
@@ -22445,9 +22512,6 @@
       <c r="E71">
         <v>110</v>
       </c>
-      <c r="J71" t="s">
-        <v>349</v>
-      </c>
       <c r="K71" t="s">
         <v>75</v>
       </c>
@@ -22472,6 +22536,10 @@
       <c r="X71" t="s">
         <v>251</v>
       </c>
+      <c r="AB71" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC71"/>
     </row>
     <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
@@ -22495,9 +22563,6 @@
       <c r="H72" t="s">
         <v>251</v>
       </c>
-      <c r="J72" t="s">
-        <v>349</v>
-      </c>
       <c r="K72" t="s">
         <v>75</v>
       </c>
@@ -22522,6 +22587,10 @@
       <c r="X72" t="s">
         <v>251</v>
       </c>
+      <c r="AB72" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC72"/>
       <c r="AD72" t="s">
         <v>323</v>
       </c>
@@ -22542,9 +22611,6 @@
       <c r="E73">
         <v>113</v>
       </c>
-      <c r="J73" t="s">
-        <v>349</v>
-      </c>
       <c r="K73" t="s">
         <v>75</v>
       </c>
@@ -22569,6 +22635,10 @@
       <c r="X73" t="s">
         <v>251</v>
       </c>
+      <c r="AB73" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC73"/>
     </row>
     <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
@@ -22583,9 +22653,6 @@
       <c r="E74">
         <v>113</v>
       </c>
-      <c r="J74" t="s">
-        <v>349</v>
-      </c>
       <c r="K74" t="s">
         <v>75</v>
       </c>
@@ -22610,6 +22677,10 @@
       <c r="X74" t="s">
         <v>251</v>
       </c>
+      <c r="AB74" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC74"/>
     </row>
     <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
@@ -22624,9 +22695,6 @@
       <c r="E75">
         <v>117</v>
       </c>
-      <c r="J75" t="s">
-        <v>349</v>
-      </c>
       <c r="K75" t="s">
         <v>75</v>
       </c>
@@ -22651,6 +22719,10 @@
       <c r="X75" t="s">
         <v>251</v>
       </c>
+      <c r="AB75" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC75"/>
     </row>
     <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
@@ -22674,9 +22746,6 @@
       <c r="H76" t="s">
         <v>251</v>
       </c>
-      <c r="J76" t="s">
-        <v>349</v>
-      </c>
       <c r="K76" t="s">
         <v>75</v>
       </c>
@@ -22701,6 +22770,10 @@
       <c r="X76" t="s">
         <v>251</v>
       </c>
+      <c r="AB76" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC76"/>
       <c r="AD76" t="s">
         <v>323</v>
       </c>
@@ -22730,9 +22803,6 @@
       <c r="H77" t="s">
         <v>252</v>
       </c>
-      <c r="J77" t="s">
-        <v>349</v>
-      </c>
       <c r="K77" t="s">
         <v>75</v>
       </c>
@@ -22757,6 +22827,10 @@
       <c r="X77" t="s">
         <v>251</v>
       </c>
+      <c r="AB77" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC77"/>
       <c r="AD77" t="s">
         <v>323</v>
       </c>
@@ -22786,9 +22860,6 @@
       <c r="H78" t="s">
         <v>252</v>
       </c>
-      <c r="J78" t="s">
-        <v>349</v>
-      </c>
       <c r="K78" t="s">
         <v>75</v>
       </c>
@@ -22813,6 +22884,10 @@
       <c r="X78" t="s">
         <v>251</v>
       </c>
+      <c r="AB78" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC78"/>
       <c r="AD78" t="s">
         <v>323</v>
       </c>
@@ -22842,9 +22917,6 @@
       <c r="H79" t="s">
         <v>251</v>
       </c>
-      <c r="J79" t="s">
-        <v>349</v>
-      </c>
       <c r="K79" t="s">
         <v>75</v>
       </c>
@@ -22869,6 +22941,10 @@
       <c r="X79" t="s">
         <v>251</v>
       </c>
+      <c r="AB79" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC79"/>
       <c r="AD79" t="s">
         <v>323</v>
       </c>
@@ -22898,9 +22974,6 @@
       <c r="H80" t="s">
         <v>251</v>
       </c>
-      <c r="J80" t="s">
-        <v>349</v>
-      </c>
       <c r="K80" t="s">
         <v>75</v>
       </c>
@@ -22925,6 +22998,10 @@
       <c r="X80" t="s">
         <v>251</v>
       </c>
+      <c r="AB80" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC80"/>
       <c r="AD80" t="s">
         <v>323</v>
       </c>
@@ -22945,9 +23022,6 @@
       <c r="E81">
         <v>127</v>
       </c>
-      <c r="J81" t="s">
-        <v>349</v>
-      </c>
       <c r="K81" t="s">
         <v>75</v>
       </c>
@@ -22972,6 +23046,10 @@
       <c r="X81" t="s">
         <v>251</v>
       </c>
+      <c r="AB81" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC81"/>
     </row>
     <row r="82" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
@@ -22995,9 +23073,6 @@
       <c r="H82" t="s">
         <v>252</v>
       </c>
-      <c r="J82" t="s">
-        <v>349</v>
-      </c>
       <c r="K82" t="s">
         <v>75</v>
       </c>
@@ -23022,6 +23097,10 @@
       <c r="X82" t="s">
         <v>251</v>
       </c>
+      <c r="AB82" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC82"/>
       <c r="AD82" t="s">
         <v>323</v>
       </c>
@@ -23051,9 +23130,6 @@
       <c r="H83" t="s">
         <v>252</v>
       </c>
-      <c r="J83" t="s">
-        <v>349</v>
-      </c>
       <c r="K83" t="s">
         <v>75</v>
       </c>
@@ -23078,6 +23154,10 @@
       <c r="X83" t="s">
         <v>251</v>
       </c>
+      <c r="AB83" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC83"/>
       <c r="AD83" t="s">
         <v>323</v>
       </c>
@@ -23107,9 +23187,6 @@
       <c r="H84" t="s">
         <v>252</v>
       </c>
-      <c r="J84" t="s">
-        <v>349</v>
-      </c>
       <c r="K84" t="s">
         <v>74</v>
       </c>
@@ -23134,6 +23211,10 @@
       <c r="X84" t="s">
         <v>251</v>
       </c>
+      <c r="AB84" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC84"/>
       <c r="AD84" t="s">
         <v>323</v>
       </c>
@@ -23163,9 +23244,6 @@
       <c r="H85" t="s">
         <v>251</v>
       </c>
-      <c r="J85" t="s">
-        <v>349</v>
-      </c>
       <c r="K85" t="s">
         <v>426</v>
       </c>
@@ -23190,6 +23268,10 @@
       <c r="X85" t="s">
         <v>251</v>
       </c>
+      <c r="AB85" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC85"/>
       <c r="AD85" t="s">
         <v>323</v>
       </c>
@@ -23219,9 +23301,6 @@
       <c r="H86" t="s">
         <v>251</v>
       </c>
-      <c r="J86" t="s">
-        <v>349</v>
-      </c>
       <c r="K86" t="s">
         <v>427</v>
       </c>
@@ -23246,6 +23325,10 @@
       <c r="X86" t="s">
         <v>251</v>
       </c>
+      <c r="AB86" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC86"/>
       <c r="AD86" t="s">
         <v>323</v>
       </c>
@@ -23275,9 +23358,6 @@
       <c r="H87" t="s">
         <v>251</v>
       </c>
-      <c r="J87" t="s">
-        <v>349</v>
-      </c>
       <c r="K87" t="s">
         <v>324</v>
       </c>
@@ -23302,6 +23382,10 @@
       <c r="X87" t="s">
         <v>251</v>
       </c>
+      <c r="AB87" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC87"/>
       <c r="AD87" t="s">
         <v>324</v>
       </c>
@@ -23334,9 +23418,6 @@
       <c r="H88" t="s">
         <v>251</v>
       </c>
-      <c r="J88" t="s">
-        <v>349</v>
-      </c>
       <c r="K88" t="s">
         <v>324</v>
       </c>
@@ -23361,6 +23442,10 @@
       <c r="X88" t="s">
         <v>251</v>
       </c>
+      <c r="AB88" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC88"/>
       <c r="AD88" t="s">
         <v>324</v>
       </c>
@@ -23390,9 +23475,6 @@
       <c r="H89" t="s">
         <v>252</v>
       </c>
-      <c r="J89" t="s">
-        <v>349</v>
-      </c>
       <c r="K89" t="s">
         <v>324</v>
       </c>
@@ -23417,6 +23499,10 @@
       <c r="X89" t="s">
         <v>251</v>
       </c>
+      <c r="AB89" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC89"/>
       <c r="AD89" t="s">
         <v>324</v>
       </c>
@@ -23449,9 +23535,6 @@
       <c r="H90" t="s">
         <v>251</v>
       </c>
-      <c r="J90" t="s">
-        <v>349</v>
-      </c>
       <c r="K90" t="s">
         <v>324</v>
       </c>
@@ -23476,6 +23559,10 @@
       <c r="X90" t="s">
         <v>251</v>
       </c>
+      <c r="AB90" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC90"/>
       <c r="AD90" t="s">
         <v>324</v>
       </c>
@@ -23508,9 +23595,6 @@
       <c r="H91" t="s">
         <v>251</v>
       </c>
-      <c r="J91" t="s">
-        <v>349</v>
-      </c>
       <c r="K91" t="s">
         <v>324</v>
       </c>
@@ -23535,6 +23619,10 @@
       <c r="X91" t="s">
         <v>251</v>
       </c>
+      <c r="AB91" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC91"/>
       <c r="AD91" t="s">
         <v>324</v>
       </c>
@@ -23564,9 +23652,6 @@
       <c r="H92" t="s">
         <v>252</v>
       </c>
-      <c r="J92" t="s">
-        <v>349</v>
-      </c>
       <c r="K92" t="s">
         <v>438</v>
       </c>
@@ -23591,6 +23676,10 @@
       <c r="X92" t="s">
         <v>251</v>
       </c>
+      <c r="AB92" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC92"/>
       <c r="AD92" t="s">
         <v>325</v>
       </c>
@@ -23620,9 +23709,6 @@
       <c r="H93" t="s">
         <v>252</v>
       </c>
-      <c r="J93" t="s">
-        <v>349</v>
-      </c>
       <c r="K93" t="s">
         <v>438</v>
       </c>
@@ -23647,6 +23733,10 @@
       <c r="X93" t="s">
         <v>251</v>
       </c>
+      <c r="AB93" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC93"/>
       <c r="AD93" t="s">
         <v>324</v>
       </c>
@@ -23676,9 +23766,6 @@
       <c r="H94" t="s">
         <v>251</v>
       </c>
-      <c r="J94" t="s">
-        <v>349</v>
-      </c>
       <c r="K94" t="s">
         <v>438</v>
       </c>
@@ -23703,6 +23790,10 @@
       <c r="X94" t="s">
         <v>251</v>
       </c>
+      <c r="AB94" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC94"/>
       <c r="AD94" t="s">
         <v>324</v>
       </c>
@@ -23732,9 +23823,6 @@
       <c r="H95" t="s">
         <v>251</v>
       </c>
-      <c r="J95" t="s">
-        <v>349</v>
-      </c>
       <c r="K95" t="s">
         <v>438</v>
       </c>
@@ -23759,6 +23847,10 @@
       <c r="X95" t="s">
         <v>251</v>
       </c>
+      <c r="AB95" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC95"/>
       <c r="AD95" t="s">
         <v>324</v>
       </c>
@@ -23788,9 +23880,6 @@
       <c r="H96" t="s">
         <v>251</v>
       </c>
-      <c r="J96" t="s">
-        <v>349</v>
-      </c>
       <c r="K96" t="s">
         <v>438</v>
       </c>
@@ -23815,6 +23904,10 @@
       <c r="X96" t="s">
         <v>251</v>
       </c>
+      <c r="AB96" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC96"/>
       <c r="AD96" t="s">
         <v>324</v>
       </c>
@@ -23847,9 +23940,6 @@
       <c r="H97" t="s">
         <v>251</v>
       </c>
-      <c r="J97" t="s">
-        <v>349</v>
-      </c>
       <c r="K97" t="s">
         <v>88</v>
       </c>
@@ -23874,6 +23964,10 @@
       <c r="X97" t="s">
         <v>251</v>
       </c>
+      <c r="AB97" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC97"/>
       <c r="AD97" t="s">
         <v>324</v>
       </c>
@@ -23897,9 +23991,6 @@
       <c r="E98">
         <v>166</v>
       </c>
-      <c r="J98" t="s">
-        <v>349</v>
-      </c>
       <c r="K98" t="s">
         <v>88</v>
       </c>
@@ -23924,6 +24015,10 @@
       <c r="X98" t="s">
         <v>251</v>
       </c>
+      <c r="AB98" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC98"/>
     </row>
     <row r="99" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
@@ -23938,9 +24033,6 @@
       <c r="E99">
         <v>167</v>
       </c>
-      <c r="J99" t="s">
-        <v>349</v>
-      </c>
       <c r="K99" t="s">
         <v>88</v>
       </c>
@@ -23965,6 +24057,10 @@
       <c r="X99" t="s">
         <v>251</v>
       </c>
+      <c r="AB99" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC99"/>
     </row>
     <row r="100" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
@@ -23979,9 +24075,6 @@
       <c r="E100">
         <v>169</v>
       </c>
-      <c r="J100" t="s">
-        <v>349</v>
-      </c>
       <c r="K100" t="s">
         <v>88</v>
       </c>
@@ -24006,6 +24099,10 @@
       <c r="X100" t="s">
         <v>251</v>
       </c>
+      <c r="AB100" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC100"/>
     </row>
     <row r="101" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
@@ -24020,9 +24117,6 @@
       <c r="E101">
         <v>169</v>
       </c>
-      <c r="J101" t="s">
-        <v>349</v>
-      </c>
       <c r="K101" t="s">
         <v>88</v>
       </c>
@@ -24047,6 +24141,10 @@
       <c r="X101" t="s">
         <v>251</v>
       </c>
+      <c r="AB101" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC101"/>
     </row>
     <row r="102" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
@@ -24070,9 +24168,6 @@
       <c r="H102" t="s">
         <v>251</v>
       </c>
-      <c r="J102" t="s">
-        <v>349</v>
-      </c>
       <c r="K102" t="s">
         <v>88</v>
       </c>
@@ -24097,6 +24192,10 @@
       <c r="X102" t="s">
         <v>251</v>
       </c>
+      <c r="AB102" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC102"/>
       <c r="AD102" t="s">
         <v>324</v>
       </c>
@@ -24126,9 +24225,6 @@
       <c r="H103" t="s">
         <v>251</v>
       </c>
-      <c r="J103" t="s">
-        <v>349</v>
-      </c>
       <c r="K103" t="s">
         <v>88</v>
       </c>
@@ -24153,6 +24249,10 @@
       <c r="X103" t="s">
         <v>251</v>
       </c>
+      <c r="AB103" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC103"/>
       <c r="AD103" t="s">
         <v>324</v>
       </c>
@@ -24182,9 +24282,6 @@
       <c r="H104" t="s">
         <v>251</v>
       </c>
-      <c r="J104" t="s">
-        <v>349</v>
-      </c>
       <c r="K104" t="s">
         <v>450</v>
       </c>
@@ -24209,6 +24306,10 @@
       <c r="X104" t="s">
         <v>251</v>
       </c>
+      <c r="AB104" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC104"/>
       <c r="AD104" t="s">
         <v>324</v>
       </c>
@@ -24232,9 +24333,6 @@
       <c r="E105">
         <v>173</v>
       </c>
-      <c r="J105" t="s">
-        <v>349</v>
-      </c>
       <c r="K105" t="s">
         <v>450</v>
       </c>
@@ -24259,6 +24357,10 @@
       <c r="X105" t="s">
         <v>251</v>
       </c>
+      <c r="AB105" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC105"/>
     </row>
     <row r="106" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
@@ -24273,9 +24375,6 @@
       <c r="E106">
         <v>174</v>
       </c>
-      <c r="J106" t="s">
-        <v>349</v>
-      </c>
       <c r="K106" t="s">
         <v>450</v>
       </c>
@@ -24300,6 +24399,10 @@
       <c r="X106" t="s">
         <v>251</v>
       </c>
+      <c r="AB106" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC106"/>
     </row>
     <row r="107" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
@@ -24314,9 +24417,6 @@
       <c r="E107">
         <v>174</v>
       </c>
-      <c r="J107" t="s">
-        <v>349</v>
-      </c>
       <c r="K107" t="s">
         <v>450</v>
       </c>
@@ -24341,6 +24441,10 @@
       <c r="X107" t="s">
         <v>251</v>
       </c>
+      <c r="AB107" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC107"/>
     </row>
     <row r="108" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
@@ -24355,9 +24459,6 @@
       <c r="E108">
         <v>174</v>
       </c>
-      <c r="J108" t="s">
-        <v>349</v>
-      </c>
       <c r="K108" t="s">
         <v>450</v>
       </c>
@@ -24382,6 +24483,10 @@
       <c r="X108" t="s">
         <v>251</v>
       </c>
+      <c r="AB108" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC108"/>
     </row>
     <row r="109" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
@@ -24396,9 +24501,6 @@
       <c r="E109">
         <v>175</v>
       </c>
-      <c r="J109" t="s">
-        <v>349</v>
-      </c>
       <c r="K109" t="s">
         <v>450</v>
       </c>
@@ -24423,6 +24525,10 @@
       <c r="X109" t="s">
         <v>251</v>
       </c>
+      <c r="AB109" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC109"/>
     </row>
     <row r="110" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
@@ -24437,9 +24543,6 @@
       <c r="E110">
         <v>175</v>
       </c>
-      <c r="J110" t="s">
-        <v>349</v>
-      </c>
       <c r="K110" t="s">
         <v>450</v>
       </c>
@@ -24464,6 +24567,10 @@
       <c r="X110" t="s">
         <v>251</v>
       </c>
+      <c r="AB110" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC110"/>
     </row>
     <row r="111" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
@@ -24478,9 +24585,6 @@
       <c r="E111">
         <v>175</v>
       </c>
-      <c r="J111" t="s">
-        <v>349</v>
-      </c>
       <c r="K111" t="s">
         <v>450</v>
       </c>
@@ -24505,6 +24609,10 @@
       <c r="X111" t="s">
         <v>251</v>
       </c>
+      <c r="AB111" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC111"/>
     </row>
     <row r="112" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
@@ -24528,9 +24636,6 @@
       <c r="H112" t="s">
         <v>251</v>
       </c>
-      <c r="J112" t="s">
-        <v>349</v>
-      </c>
       <c r="K112" t="s">
         <v>452</v>
       </c>
@@ -24555,6 +24660,10 @@
       <c r="X112" t="s">
         <v>251</v>
       </c>
+      <c r="AB112" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC112"/>
       <c r="AD112" t="s">
         <v>325</v>
       </c>
@@ -24584,9 +24693,6 @@
       <c r="H113" t="s">
         <v>251</v>
       </c>
-      <c r="J113" t="s">
-        <v>349</v>
-      </c>
       <c r="K113" t="s">
         <v>452</v>
       </c>
@@ -24611,6 +24717,10 @@
       <c r="X113" t="s">
         <v>251</v>
       </c>
+      <c r="AB113" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC113"/>
       <c r="AD113" t="s">
         <v>324</v>
       </c>
@@ -24640,9 +24750,6 @@
       <c r="H114" t="s">
         <v>251</v>
       </c>
-      <c r="J114" t="s">
-        <v>349</v>
-      </c>
       <c r="K114" t="s">
         <v>452</v>
       </c>
@@ -24667,6 +24774,10 @@
       <c r="X114" t="s">
         <v>251</v>
       </c>
+      <c r="AB114" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC114"/>
       <c r="AD114" t="s">
         <v>325</v>
       </c>
@@ -24687,9 +24798,6 @@
       <c r="E115">
         <v>180</v>
       </c>
-      <c r="J115" t="s">
-        <v>349</v>
-      </c>
       <c r="K115" t="s">
         <v>452</v>
       </c>
@@ -24714,6 +24822,10 @@
       <c r="X115" t="s">
         <v>251</v>
       </c>
+      <c r="AB115" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC115"/>
     </row>
     <row r="116" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
@@ -24737,9 +24849,6 @@
       <c r="H116" t="s">
         <v>251</v>
       </c>
-      <c r="J116" t="s">
-        <v>349</v>
-      </c>
       <c r="K116" t="s">
         <v>452</v>
       </c>
@@ -24764,6 +24873,10 @@
       <c r="X116" t="s">
         <v>251</v>
       </c>
+      <c r="AB116" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC116"/>
       <c r="AD116" t="s">
         <v>324</v>
       </c>
@@ -24793,9 +24906,6 @@
       <c r="H117" t="s">
         <v>251</v>
       </c>
-      <c r="J117" t="s">
-        <v>349</v>
-      </c>
       <c r="K117" t="s">
         <v>324</v>
       </c>
@@ -24820,6 +24930,10 @@
       <c r="X117" t="s">
         <v>251</v>
       </c>
+      <c r="AB117" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC117"/>
       <c r="AD117" t="s">
         <v>324</v>
       </c>
@@ -24849,9 +24963,6 @@
       <c r="H118" t="s">
         <v>251</v>
       </c>
-      <c r="J118" t="s">
-        <v>349</v>
-      </c>
       <c r="K118" t="s">
         <v>461</v>
       </c>
@@ -24876,6 +24987,10 @@
       <c r="X118" t="s">
         <v>251</v>
       </c>
+      <c r="AB118" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC118"/>
       <c r="AD118" t="s">
         <v>326</v>
       </c>
@@ -24905,9 +25020,6 @@
       <c r="H119" t="s">
         <v>251</v>
       </c>
-      <c r="J119" t="s">
-        <v>349</v>
-      </c>
       <c r="K119" s="7" t="s">
         <v>465</v>
       </c>
@@ -24932,6 +25044,10 @@
       <c r="X119" t="s">
         <v>251</v>
       </c>
+      <c r="AB119" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC119"/>
       <c r="AD119" t="s">
         <v>324</v>
       </c>
@@ -24961,9 +25077,6 @@
       <c r="H120" t="s">
         <v>251</v>
       </c>
-      <c r="J120" t="s">
-        <v>349</v>
-      </c>
       <c r="K120" t="s">
         <v>461</v>
       </c>
@@ -24988,6 +25101,10 @@
       <c r="X120" t="s">
         <v>251</v>
       </c>
+      <c r="AB120" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC120"/>
       <c r="AD120" t="s">
         <v>326</v>
       </c>
@@ -25008,9 +25125,6 @@
       <c r="E121">
         <v>86</v>
       </c>
-      <c r="J121" t="s">
-        <v>349</v>
-      </c>
       <c r="K121" t="s">
         <v>461</v>
       </c>
@@ -25035,6 +25149,10 @@
       <c r="X121" t="s">
         <v>251</v>
       </c>
+      <c r="AB121" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC121"/>
     </row>
     <row r="122" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
@@ -25058,9 +25176,6 @@
       <c r="H122" t="s">
         <v>251</v>
       </c>
-      <c r="J122" t="s">
-        <v>349</v>
-      </c>
       <c r="K122" t="s">
         <v>461</v>
       </c>
@@ -25085,6 +25200,10 @@
       <c r="X122" t="s">
         <v>251</v>
       </c>
+      <c r="AB122" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC122"/>
       <c r="AD122" t="s">
         <v>327</v>
       </c>
@@ -25114,9 +25233,6 @@
       <c r="H123" t="s">
         <v>251</v>
       </c>
-      <c r="J123" t="s">
-        <v>349</v>
-      </c>
       <c r="K123" t="s">
         <v>461</v>
       </c>
@@ -25141,6 +25257,10 @@
       <c r="X123" t="s">
         <v>251</v>
       </c>
+      <c r="AB123" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC123"/>
       <c r="AD123" t="s">
         <v>324</v>
       </c>
@@ -25164,9 +25284,6 @@
       <c r="E124">
         <v>196</v>
       </c>
-      <c r="J124" t="s">
-        <v>349</v>
-      </c>
       <c r="K124" t="s">
         <v>89</v>
       </c>
@@ -25191,6 +25308,10 @@
       <c r="X124" t="s">
         <v>251</v>
       </c>
+      <c r="AB124" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC124"/>
     </row>
     <row r="125" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
@@ -25214,9 +25335,6 @@
       <c r="H125" t="s">
         <v>252</v>
       </c>
-      <c r="J125" t="s">
-        <v>349</v>
-      </c>
       <c r="K125" t="s">
         <v>89</v>
       </c>
@@ -25241,6 +25359,10 @@
       <c r="X125" t="s">
         <v>251</v>
       </c>
+      <c r="AB125" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC125"/>
       <c r="AD125" t="s">
         <v>323</v>
       </c>
@@ -25273,9 +25395,6 @@
       <c r="H126" t="s">
         <v>252</v>
       </c>
-      <c r="J126" t="s">
-        <v>349</v>
-      </c>
       <c r="K126" t="s">
         <v>473</v>
       </c>
@@ -25300,7 +25419,10 @@
       <c r="X126" t="s">
         <v>251</v>
       </c>
-      <c r="AA126" t="s">
+      <c r="AB126" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC126" t="s">
         <v>474</v>
       </c>
       <c r="AD126" t="s">
@@ -25323,9 +25445,6 @@
       <c r="E127">
         <v>201</v>
       </c>
-      <c r="J127" t="s">
-        <v>349</v>
-      </c>
       <c r="K127" t="s">
         <v>473</v>
       </c>
@@ -25350,6 +25469,10 @@
       <c r="X127" t="s">
         <v>251</v>
       </c>
+      <c r="AB127" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC127"/>
     </row>
     <row r="128" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
@@ -25373,9 +25496,6 @@
       <c r="H128" t="s">
         <v>251</v>
       </c>
-      <c r="J128" t="s">
-        <v>349</v>
-      </c>
       <c r="K128" t="s">
         <v>479</v>
       </c>
@@ -25400,6 +25520,10 @@
       <c r="X128" t="s">
         <v>251</v>
       </c>
+      <c r="AB128" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC128"/>
       <c r="AD128" t="s">
         <v>323</v>
       </c>
@@ -25423,9 +25547,6 @@
       <c r="E129">
         <v>201</v>
       </c>
-      <c r="J129" t="s">
-        <v>349</v>
-      </c>
       <c r="K129" t="s">
         <v>479</v>
       </c>
@@ -25450,6 +25571,10 @@
       <c r="X129" t="s">
         <v>251</v>
       </c>
+      <c r="AB129" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC129"/>
     </row>
     <row r="130" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
@@ -25464,9 +25589,6 @@
       <c r="E130">
         <v>203</v>
       </c>
-      <c r="J130" t="s">
-        <v>349</v>
-      </c>
       <c r="K130" t="s">
         <v>479</v>
       </c>
@@ -25491,6 +25613,10 @@
       <c r="X130" t="s">
         <v>251</v>
       </c>
+      <c r="AB130" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC130"/>
     </row>
     <row r="131" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
@@ -25514,9 +25640,6 @@
       <c r="H131" t="s">
         <v>251</v>
       </c>
-      <c r="J131" t="s">
-        <v>349</v>
-      </c>
       <c r="K131" t="s">
         <v>479</v>
       </c>
@@ -25541,6 +25664,10 @@
       <c r="X131" t="s">
         <v>251</v>
       </c>
+      <c r="AB131" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC131"/>
       <c r="AD131" t="s">
         <v>323</v>
       </c>
@@ -25570,9 +25697,6 @@
       <c r="H132" t="s">
         <v>252</v>
       </c>
-      <c r="J132" t="s">
-        <v>349</v>
-      </c>
       <c r="K132" t="s">
         <v>479</v>
       </c>
@@ -25597,6 +25721,10 @@
       <c r="X132" t="s">
         <v>251</v>
       </c>
+      <c r="AB132" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC132"/>
       <c r="AD132" t="s">
         <v>323</v>
       </c>
@@ -25629,9 +25757,6 @@
       <c r="H133" t="s">
         <v>251</v>
       </c>
-      <c r="J133" t="s">
-        <v>349</v>
-      </c>
       <c r="K133" t="s">
         <v>479</v>
       </c>
@@ -25656,6 +25781,10 @@
       <c r="X133" t="s">
         <v>251</v>
       </c>
+      <c r="AB133" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC133"/>
       <c r="AD133" t="s">
         <v>323</v>
       </c>
@@ -25685,9 +25814,6 @@
       <c r="H134" t="s">
         <v>252</v>
       </c>
-      <c r="J134" t="s">
-        <v>349</v>
-      </c>
       <c r="K134" t="s">
         <v>479</v>
       </c>
@@ -25712,6 +25838,10 @@
       <c r="X134" t="s">
         <v>251</v>
       </c>
+      <c r="AB134" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC134"/>
       <c r="AD134" t="s">
         <v>323</v>
       </c>
@@ -25735,9 +25865,6 @@
       <c r="E135">
         <v>235</v>
       </c>
-      <c r="J135" t="s">
-        <v>349</v>
-      </c>
       <c r="K135" t="s">
         <v>488</v>
       </c>
@@ -25768,6 +25895,10 @@
       <c r="X135" t="s">
         <v>251</v>
       </c>
+      <c r="AB135" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC135"/>
     </row>
     <row r="136" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
@@ -25791,9 +25922,6 @@
       <c r="H136" t="s">
         <v>251</v>
       </c>
-      <c r="J136" t="s">
-        <v>349</v>
-      </c>
       <c r="K136" t="s">
         <v>488</v>
       </c>
@@ -25824,6 +25952,10 @@
       <c r="X136" t="s">
         <v>251</v>
       </c>
+      <c r="AB136" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC136"/>
       <c r="AD136" t="s">
         <v>323</v>
       </c>
@@ -25853,9 +25985,6 @@
       <c r="H137" t="s">
         <v>251</v>
       </c>
-      <c r="J137" t="s">
-        <v>349</v>
-      </c>
       <c r="K137" t="s">
         <v>488</v>
       </c>
@@ -25886,6 +26015,10 @@
       <c r="X137" t="s">
         <v>251</v>
       </c>
+      <c r="AB137" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC137"/>
       <c r="AD137" t="s">
         <v>323</v>
       </c>
@@ -25915,9 +26048,6 @@
       <c r="H138" t="s">
         <v>251</v>
       </c>
-      <c r="J138" t="s">
-        <v>349</v>
-      </c>
       <c r="K138" t="s">
         <v>488</v>
       </c>
@@ -25948,6 +26078,10 @@
       <c r="X138" t="s">
         <v>251</v>
       </c>
+      <c r="AB138" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC138"/>
       <c r="AD138" t="s">
         <v>323</v>
       </c>
@@ -25968,9 +26102,6 @@
       <c r="E139">
         <v>237</v>
       </c>
-      <c r="J139" t="s">
-        <v>349</v>
-      </c>
       <c r="K139" t="s">
         <v>87</v>
       </c>
@@ -25995,6 +26126,10 @@
       <c r="X139" t="s">
         <v>251</v>
       </c>
+      <c r="AB139" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC139"/>
     </row>
     <row r="140" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
@@ -26018,9 +26153,6 @@
       <c r="H140" t="s">
         <v>251</v>
       </c>
-      <c r="J140" t="s">
-        <v>349</v>
-      </c>
       <c r="K140" t="s">
         <v>87</v>
       </c>
@@ -26045,6 +26177,10 @@
       <c r="X140" t="s">
         <v>251</v>
       </c>
+      <c r="AB140" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC140"/>
       <c r="AD140" t="s">
         <v>323</v>
       </c>
@@ -26065,9 +26201,6 @@
       <c r="E141">
         <v>238</v>
       </c>
-      <c r="J141" t="s">
-        <v>349</v>
-      </c>
       <c r="K141" t="s">
         <v>85</v>
       </c>
@@ -26092,6 +26225,10 @@
       <c r="X141" t="s">
         <v>251</v>
       </c>
+      <c r="AB141" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC141"/>
     </row>
     <row r="142" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
@@ -26115,9 +26252,6 @@
       <c r="H142" t="s">
         <v>251</v>
       </c>
-      <c r="J142" t="s">
-        <v>349</v>
-      </c>
       <c r="K142" t="s">
         <v>85</v>
       </c>
@@ -26142,6 +26276,10 @@
       <c r="X142" t="s">
         <v>251</v>
       </c>
+      <c r="AB142" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC142"/>
       <c r="AD142" t="s">
         <v>323</v>
       </c>
@@ -26171,22 +26309,19 @@
       <c r="H143" t="s">
         <v>252</v>
       </c>
-      <c r="J143" t="s">
-        <v>349</v>
-      </c>
       <c r="K143" t="s">
         <v>83</v>
       </c>
-      <c r="L143" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="M143" s="12" t="s">
+      <c r="L143" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="M143" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="N143" s="13" t="s">
+      <c r="N143" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="O143" s="13" t="s">
+      <c r="O143" s="12" t="s">
         <v>506</v>
       </c>
       <c r="V143" t="s">
@@ -26198,6 +26333,10 @@
       <c r="X143" t="s">
         <v>251</v>
       </c>
+      <c r="AB143" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC143"/>
       <c r="AD143" t="s">
         <v>323</v>
       </c>
@@ -26218,22 +26357,19 @@
       <c r="E144">
         <v>248</v>
       </c>
-      <c r="J144" t="s">
-        <v>349</v>
-      </c>
       <c r="K144" t="s">
         <v>83</v>
       </c>
-      <c r="L144" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="M144" s="12" t="s">
+      <c r="L144" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="M144" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="N144" s="13" t="s">
+      <c r="N144" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="O144" s="13" t="s">
+      <c r="O144" s="12" t="s">
         <v>506</v>
       </c>
       <c r="V144" t="s">
@@ -26245,6 +26381,10 @@
       <c r="X144" t="s">
         <v>251</v>
       </c>
+      <c r="AB144" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC144"/>
     </row>
     <row r="145" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
@@ -26268,22 +26408,19 @@
       <c r="H145" t="s">
         <v>251</v>
       </c>
-      <c r="J145" t="s">
-        <v>349</v>
-      </c>
       <c r="K145" t="s">
         <v>83</v>
       </c>
-      <c r="L145" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="M145" s="12" t="s">
+      <c r="L145" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="M145" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="N145" s="13" t="s">
+      <c r="N145" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="O145" s="13" t="s">
+      <c r="O145" s="12" t="s">
         <v>506</v>
       </c>
       <c r="V145" t="s">
@@ -26295,6 +26432,10 @@
       <c r="X145" t="s">
         <v>251</v>
       </c>
+      <c r="AB145" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC145"/>
       <c r="AD145" t="s">
         <v>323</v>
       </c>
@@ -26318,22 +26459,19 @@
       <c r="E146">
         <v>254</v>
       </c>
-      <c r="J146" t="s">
-        <v>349</v>
-      </c>
       <c r="K146" t="s">
         <v>118</v>
       </c>
-      <c r="L146" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="M146" s="12" t="s">
+      <c r="L146" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="M146" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="N146" s="13" t="s">
+      <c r="N146" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="O146" s="13" t="s">
+      <c r="O146" s="12" t="s">
         <v>508</v>
       </c>
       <c r="V146" t="s">
@@ -26345,6 +26483,10 @@
       <c r="X146" t="s">
         <v>251</v>
       </c>
+      <c r="AB146" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC146"/>
     </row>
     <row r="147" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
@@ -26368,22 +26510,19 @@
       <c r="H147" t="s">
         <v>252</v>
       </c>
-      <c r="J147" t="s">
-        <v>349</v>
-      </c>
       <c r="K147" t="s">
         <v>118</v>
       </c>
-      <c r="L147" s="12" t="s">
+      <c r="L147" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M147" t="s">
         <v>337</v>
       </c>
-      <c r="N147" s="13" t="s">
+      <c r="N147" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="O147" s="13" t="s">
+      <c r="O147" s="12" t="s">
         <v>508</v>
       </c>
       <c r="V147" t="s">
@@ -26395,6 +26534,10 @@
       <c r="X147" t="s">
         <v>251</v>
       </c>
+      <c r="AB147" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC147"/>
       <c r="AD147" t="s">
         <v>323</v>
       </c>
@@ -26415,22 +26558,19 @@
       <c r="E148">
         <v>256</v>
       </c>
-      <c r="J148" t="s">
-        <v>349</v>
-      </c>
       <c r="K148" t="s">
         <v>116</v>
       </c>
-      <c r="L148" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="M148" s="12" t="s">
+      <c r="L148" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="M148" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="N148" s="13" t="s">
+      <c r="N148" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="O148" s="13" t="s">
+      <c r="O148" s="12" t="s">
         <v>513</v>
       </c>
       <c r="V148" t="s">
@@ -26442,6 +26582,10 @@
       <c r="X148" t="s">
         <v>251</v>
       </c>
+      <c r="AB148" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC148"/>
     </row>
     <row r="149" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
@@ -26465,22 +26609,19 @@
       <c r="H149" t="s">
         <v>251</v>
       </c>
-      <c r="J149" t="s">
-        <v>349</v>
-      </c>
       <c r="K149" t="s">
         <v>116</v>
       </c>
-      <c r="L149" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="M149" s="12" t="s">
+      <c r="L149" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="M149" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="N149" s="13" t="s">
+      <c r="N149" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="O149" s="13" t="s">
+      <c r="O149" s="12" t="s">
         <v>513</v>
       </c>
       <c r="V149" t="s">
@@ -26492,6 +26633,10 @@
       <c r="X149" t="s">
         <v>251</v>
       </c>
+      <c r="AB149" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC149"/>
       <c r="AD149" t="s">
         <v>323</v>
       </c>
@@ -26512,13 +26657,10 @@
       <c r="E150">
         <v>272</v>
       </c>
-      <c r="J150" t="s">
-        <v>349</v>
-      </c>
       <c r="K150" t="s">
         <v>77</v>
       </c>
-      <c r="L150" s="12" t="s">
+      <c r="L150" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M150" t="s">
@@ -26539,6 +26681,10 @@
       <c r="X150" t="s">
         <v>251</v>
       </c>
+      <c r="AB150" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC150"/>
     </row>
     <row r="151" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
@@ -26562,13 +26708,10 @@
       <c r="H151" t="s">
         <v>251</v>
       </c>
-      <c r="J151" t="s">
-        <v>349</v>
-      </c>
       <c r="K151" t="s">
         <v>77</v>
       </c>
-      <c r="L151" s="12" t="s">
+      <c r="L151" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M151" t="s">
@@ -26589,6 +26732,10 @@
       <c r="X151" t="s">
         <v>251</v>
       </c>
+      <c r="AB151" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC151"/>
       <c r="AD151" t="s">
         <v>323</v>
       </c>
@@ -26618,22 +26765,19 @@
       <c r="H152" t="s">
         <v>251</v>
       </c>
-      <c r="J152" t="s">
-        <v>349</v>
-      </c>
       <c r="K152" t="s">
         <v>73</v>
       </c>
-      <c r="L152" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="M152" s="12" t="s">
+      <c r="L152" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="M152" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="N152" s="13" t="s">
+      <c r="N152" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="O152" s="13" t="s">
+      <c r="O152" s="12" t="s">
         <v>520</v>
       </c>
       <c r="V152" t="s">
@@ -26645,6 +26789,10 @@
       <c r="X152" t="s">
         <v>251</v>
       </c>
+      <c r="AB152" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC152"/>
       <c r="AD152" t="s">
         <v>323</v>
       </c>
@@ -26674,13 +26822,10 @@
       <c r="H153" t="s">
         <v>252</v>
       </c>
-      <c r="J153" t="s">
-        <v>349</v>
-      </c>
       <c r="K153" t="s">
         <v>70</v>
       </c>
-      <c r="L153" s="12" t="s">
+      <c r="L153" s="11" t="s">
         <v>252</v>
       </c>
       <c r="M153" t="s">
@@ -26701,6 +26846,10 @@
       <c r="X153" t="s">
         <v>251</v>
       </c>
+      <c r="AB153" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC153"/>
       <c r="AD153" t="s">
         <v>323</v>
       </c>
@@ -26733,13 +26882,10 @@
       <c r="H154" t="s">
         <v>251</v>
       </c>
-      <c r="J154" t="s">
-        <v>349</v>
-      </c>
       <c r="K154" t="s">
         <v>77</v>
       </c>
-      <c r="L154" s="12" t="s">
+      <c r="L154" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M154" t="s">
@@ -26760,6 +26906,10 @@
       <c r="X154" t="s">
         <v>251</v>
       </c>
+      <c r="AB154" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC154"/>
       <c r="AD154" t="s">
         <v>323</v>
       </c>
@@ -26792,13 +26942,10 @@
       <c r="H155" t="s">
         <v>252</v>
       </c>
-      <c r="J155" t="s">
-        <v>349</v>
-      </c>
       <c r="K155" t="s">
         <v>67</v>
       </c>
-      <c r="L155" s="12" t="s">
+      <c r="L155" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M155" t="s">
@@ -26819,6 +26966,10 @@
       <c r="X155" t="s">
         <v>251</v>
       </c>
+      <c r="AB155" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC155"/>
       <c r="AD155" t="s">
         <v>323</v>
       </c>
@@ -26848,13 +26999,10 @@
       <c r="H156" t="s">
         <v>252</v>
       </c>
-      <c r="J156" t="s">
-        <v>349</v>
-      </c>
       <c r="K156" t="s">
         <v>67</v>
       </c>
-      <c r="L156" s="12" t="s">
+      <c r="L156" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M156" t="s">
@@ -26875,6 +27023,10 @@
       <c r="X156" t="s">
         <v>251</v>
       </c>
+      <c r="AB156" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC156"/>
       <c r="AD156" t="s">
         <v>323</v>
       </c>
@@ -26907,13 +27059,10 @@
       <c r="H157" t="s">
         <v>252</v>
       </c>
-      <c r="J157" t="s">
-        <v>349</v>
-      </c>
       <c r="K157" t="s">
         <v>67</v>
       </c>
-      <c r="L157" s="12" t="s">
+      <c r="L157" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M157" t="s">
@@ -26934,6 +27083,10 @@
       <c r="X157" t="s">
         <v>251</v>
       </c>
+      <c r="AB157" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC157"/>
       <c r="AD157" t="s">
         <v>323</v>
       </c>
@@ -26966,13 +27119,10 @@
       <c r="H158" t="s">
         <v>252</v>
       </c>
-      <c r="J158" t="s">
-        <v>349</v>
-      </c>
       <c r="K158" t="s">
         <v>67</v>
       </c>
-      <c r="L158" s="12" t="s">
+      <c r="L158" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M158" t="s">
@@ -26993,6 +27143,10 @@
       <c r="X158" t="s">
         <v>251</v>
       </c>
+      <c r="AB158" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC158"/>
       <c r="AD158" t="s">
         <v>323</v>
       </c>
@@ -27025,13 +27179,10 @@
       <c r="H159" t="s">
         <v>252</v>
       </c>
-      <c r="J159" t="s">
-        <v>349</v>
-      </c>
       <c r="K159" t="s">
         <v>67</v>
       </c>
-      <c r="L159" s="12" t="s">
+      <c r="L159" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M159" t="s">
@@ -27052,6 +27203,10 @@
       <c r="X159" t="s">
         <v>251</v>
       </c>
+      <c r="AB159" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC159"/>
       <c r="AD159" t="s">
         <v>323</v>
       </c>
@@ -27084,13 +27239,10 @@
       <c r="H160" t="s">
         <v>251</v>
       </c>
-      <c r="J160" t="s">
-        <v>349</v>
-      </c>
       <c r="K160" t="s">
         <v>67</v>
       </c>
-      <c r="L160" s="12" t="s">
+      <c r="L160" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M160" t="s">
@@ -27111,6 +27263,10 @@
       <c r="X160" t="s">
         <v>251</v>
       </c>
+      <c r="AB160" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC160"/>
       <c r="AD160" t="s">
         <v>323</v>
       </c>
@@ -27140,13 +27296,10 @@
       <c r="H161" t="s">
         <v>252</v>
       </c>
-      <c r="J161" t="s">
-        <v>349</v>
-      </c>
       <c r="K161" t="s">
         <v>531</v>
       </c>
-      <c r="L161" s="12" t="s">
+      <c r="L161" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M161" t="s">
@@ -27164,10 +27317,10 @@
       <c r="Q161" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="R161" s="11" t="s">
+      <c r="R161" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="S161" s="11" t="s">
+      <c r="S161" s="10" t="s">
         <v>537</v>
       </c>
       <c r="V161" t="s">
@@ -27179,6 +27332,10 @@
       <c r="X161" t="s">
         <v>251</v>
       </c>
+      <c r="AB161" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC161"/>
       <c r="AD161" t="s">
         <v>323</v>
       </c>
@@ -27199,13 +27356,10 @@
       <c r="E162">
         <v>298</v>
       </c>
-      <c r="J162" t="s">
-        <v>349</v>
-      </c>
       <c r="K162" t="s">
         <v>66</v>
       </c>
-      <c r="L162" s="12" t="s">
+      <c r="L162" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M162" t="s">
@@ -27226,6 +27380,10 @@
       <c r="X162" t="s">
         <v>251</v>
       </c>
+      <c r="AB162" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC162"/>
     </row>
     <row r="163" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
@@ -27249,13 +27407,10 @@
       <c r="H163" t="s">
         <v>252</v>
       </c>
-      <c r="J163" t="s">
-        <v>349</v>
-      </c>
       <c r="K163" t="s">
         <v>66</v>
       </c>
-      <c r="L163" s="12" t="s">
+      <c r="L163" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M163" t="s">
@@ -27276,6 +27431,10 @@
       <c r="X163" t="s">
         <v>251</v>
       </c>
+      <c r="AB163" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC163"/>
       <c r="AD163" t="s">
         <v>323</v>
       </c>
@@ -27299,13 +27458,10 @@
       <c r="E164">
         <v>299</v>
       </c>
-      <c r="J164" t="s">
-        <v>349</v>
-      </c>
       <c r="K164" t="s">
         <v>69</v>
       </c>
-      <c r="L164" s="12" t="s">
+      <c r="L164" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M164" t="s">
@@ -27326,6 +27482,10 @@
       <c r="X164" t="s">
         <v>251</v>
       </c>
+      <c r="AB164" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC164"/>
     </row>
     <row r="165" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
@@ -27349,13 +27509,10 @@
       <c r="H165" t="s">
         <v>252</v>
       </c>
-      <c r="J165" t="s">
-        <v>349</v>
-      </c>
       <c r="K165" t="s">
         <v>69</v>
       </c>
-      <c r="L165" s="12" t="s">
+      <c r="L165" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M165" t="s">
@@ -27376,6 +27533,10 @@
       <c r="X165" t="s">
         <v>251</v>
       </c>
+      <c r="AB165" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC165"/>
       <c r="AD165" t="s">
         <v>323</v>
       </c>
@@ -27399,13 +27560,10 @@
       <c r="E166">
         <v>304</v>
       </c>
-      <c r="J166" t="s">
-        <v>349</v>
-      </c>
       <c r="K166" t="s">
         <v>540</v>
       </c>
-      <c r="L166" s="12" t="s">
+      <c r="L166" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M166" t="s">
@@ -27426,6 +27584,10 @@
       <c r="X166" t="s">
         <v>251</v>
       </c>
+      <c r="AB166" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC166"/>
     </row>
     <row r="167" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
@@ -27449,13 +27611,10 @@
       <c r="H167" t="s">
         <v>251</v>
       </c>
-      <c r="J167" t="s">
-        <v>349</v>
-      </c>
       <c r="K167" t="s">
         <v>540</v>
       </c>
-      <c r="L167" s="12" t="s">
+      <c r="L167" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M167" t="s">
@@ -27476,6 +27635,10 @@
       <c r="X167" t="s">
         <v>251</v>
       </c>
+      <c r="AB167" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC167"/>
       <c r="AD167" t="s">
         <v>323</v>
       </c>
@@ -27508,13 +27671,10 @@
       <c r="H168" t="s">
         <v>251</v>
       </c>
-      <c r="J168" t="s">
-        <v>349</v>
-      </c>
       <c r="K168" t="s">
         <v>540</v>
       </c>
-      <c r="L168" s="12" t="s">
+      <c r="L168" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M168" t="s">
@@ -27535,6 +27695,10 @@
       <c r="X168" t="s">
         <v>251</v>
       </c>
+      <c r="AB168" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC168"/>
       <c r="AD168" t="s">
         <v>323</v>
       </c>
@@ -27564,13 +27728,10 @@
       <c r="H169" t="s">
         <v>252</v>
       </c>
-      <c r="J169" t="s">
-        <v>349</v>
-      </c>
       <c r="K169" t="s">
         <v>76</v>
       </c>
-      <c r="L169" s="12" t="s">
+      <c r="L169" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M169" t="s">
@@ -27591,6 +27752,10 @@
       <c r="X169" t="s">
         <v>251</v>
       </c>
+      <c r="AB169" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC169"/>
       <c r="AD169" t="s">
         <v>323</v>
       </c>
@@ -27620,13 +27785,10 @@
       <c r="H170" t="s">
         <v>251</v>
       </c>
-      <c r="J170" t="s">
-        <v>349</v>
-      </c>
       <c r="K170" t="s">
         <v>71</v>
       </c>
-      <c r="L170" s="12" t="s">
+      <c r="L170" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M170" t="s">
@@ -27647,6 +27809,10 @@
       <c r="X170" t="s">
         <v>251</v>
       </c>
+      <c r="AB170" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC170"/>
       <c r="AD170" t="s">
         <v>323</v>
       </c>
@@ -27676,13 +27842,10 @@
       <c r="H171" t="s">
         <v>251</v>
       </c>
-      <c r="J171" t="s">
-        <v>349</v>
-      </c>
       <c r="K171" t="s">
         <v>557</v>
       </c>
-      <c r="L171" s="12" t="s">
+      <c r="L171" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M171" t="s">
@@ -27703,6 +27866,10 @@
       <c r="X171" t="s">
         <v>251</v>
       </c>
+      <c r="AB171" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC171"/>
       <c r="AD171" t="s">
         <v>323</v>
       </c>
@@ -27723,13 +27890,10 @@
       <c r="E172">
         <v>311</v>
       </c>
-      <c r="J172" t="s">
-        <v>349</v>
-      </c>
       <c r="K172" t="s">
         <v>558</v>
       </c>
-      <c r="L172" s="12" t="s">
+      <c r="L172" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M172" t="s">
@@ -27750,6 +27914,10 @@
       <c r="X172" t="s">
         <v>251</v>
       </c>
+      <c r="AB172" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC172"/>
     </row>
     <row r="173" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
@@ -27773,13 +27941,10 @@
       <c r="H173" t="s">
         <v>252</v>
       </c>
-      <c r="J173" t="s">
-        <v>349</v>
-      </c>
       <c r="K173" t="s">
         <v>72</v>
       </c>
-      <c r="L173" s="12" t="s">
+      <c r="L173" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M173" t="s">
@@ -27800,6 +27965,10 @@
       <c r="X173" t="s">
         <v>251</v>
       </c>
+      <c r="AB173" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC173"/>
       <c r="AD173" t="s">
         <v>323</v>
       </c>
@@ -27832,13 +28001,10 @@
       <c r="H174" t="s">
         <v>251</v>
       </c>
-      <c r="J174" t="s">
-        <v>349</v>
-      </c>
       <c r="K174" t="s">
         <v>72</v>
       </c>
-      <c r="L174" s="12" t="s">
+      <c r="L174" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M174" t="s">
@@ -27859,6 +28025,10 @@
       <c r="X174" t="s">
         <v>251</v>
       </c>
+      <c r="AB174" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC174"/>
       <c r="AD174" t="s">
         <v>323</v>
       </c>
@@ -27891,13 +28061,10 @@
       <c r="H175" t="s">
         <v>251</v>
       </c>
-      <c r="J175" t="s">
-        <v>349</v>
-      </c>
       <c r="K175" t="s">
         <v>72</v>
       </c>
-      <c r="L175" s="12" t="s">
+      <c r="L175" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M175" t="s">
@@ -27918,6 +28085,10 @@
       <c r="X175" t="s">
         <v>251</v>
       </c>
+      <c r="AB175" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC175"/>
       <c r="AD175" t="s">
         <v>323</v>
       </c>
@@ -27941,13 +28112,10 @@
       <c r="E176">
         <v>323</v>
       </c>
-      <c r="J176" t="s">
-        <v>349</v>
-      </c>
       <c r="K176" t="s">
         <v>72</v>
       </c>
-      <c r="L176" s="12" t="s">
+      <c r="L176" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M176" t="s">
@@ -27968,6 +28136,10 @@
       <c r="X176" t="s">
         <v>251</v>
       </c>
+      <c r="AB176" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC176"/>
     </row>
     <row r="177" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
@@ -27991,13 +28163,10 @@
       <c r="H177" t="s">
         <v>251</v>
       </c>
-      <c r="J177" t="s">
-        <v>349</v>
-      </c>
       <c r="K177" t="s">
         <v>72</v>
       </c>
-      <c r="L177" s="12" t="s">
+      <c r="L177" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M177" t="s">
@@ -28018,6 +28187,10 @@
       <c r="X177" t="s">
         <v>251</v>
       </c>
+      <c r="AB177" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC177"/>
       <c r="AD177" t="s">
         <v>323</v>
       </c>
@@ -28047,13 +28220,10 @@
       <c r="H178" t="s">
         <v>251</v>
       </c>
-      <c r="J178" t="s">
-        <v>349</v>
-      </c>
       <c r="K178" t="s">
         <v>570</v>
       </c>
-      <c r="L178" s="12" t="s">
+      <c r="L178" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M178" t="s">
@@ -28074,6 +28244,10 @@
       <c r="X178" t="s">
         <v>251</v>
       </c>
+      <c r="AB178" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC178"/>
       <c r="AD178" t="s">
         <v>323</v>
       </c>
@@ -28094,13 +28268,10 @@
       <c r="E179">
         <v>327</v>
       </c>
-      <c r="J179" t="s">
-        <v>349</v>
-      </c>
       <c r="K179" t="s">
         <v>569</v>
       </c>
-      <c r="L179" s="12" t="s">
+      <c r="L179" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M179" t="s">
@@ -28121,6 +28292,10 @@
       <c r="X179" t="s">
         <v>251</v>
       </c>
+      <c r="AB179" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC179"/>
     </row>
     <row r="180" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
@@ -28135,13 +28310,10 @@
       <c r="E180">
         <v>328</v>
       </c>
-      <c r="J180" t="s">
-        <v>349</v>
-      </c>
       <c r="K180" t="s">
         <v>570</v>
       </c>
-      <c r="L180" s="12" t="s">
+      <c r="L180" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M180" t="s">
@@ -28162,6 +28334,10 @@
       <c r="X180" t="s">
         <v>251</v>
       </c>
+      <c r="AB180" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC180"/>
     </row>
     <row r="181" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
@@ -28185,13 +28361,10 @@
       <c r="H181" t="s">
         <v>252</v>
       </c>
-      <c r="J181" t="s">
-        <v>349</v>
-      </c>
       <c r="K181" t="s">
         <v>121</v>
       </c>
-      <c r="L181" s="12" t="s">
+      <c r="L181" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M181" t="s">
@@ -28212,6 +28385,10 @@
       <c r="X181" t="s">
         <v>251</v>
       </c>
+      <c r="AB181" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC181"/>
       <c r="AD181" t="s">
         <v>323</v>
       </c>
@@ -28241,13 +28418,10 @@
       <c r="H182" t="s">
         <v>252</v>
       </c>
-      <c r="J182" t="s">
-        <v>349</v>
-      </c>
       <c r="K182" t="s">
         <v>120</v>
       </c>
-      <c r="L182" s="12" t="s">
+      <c r="L182" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M182" t="s">
@@ -28268,6 +28442,10 @@
       <c r="X182" t="s">
         <v>251</v>
       </c>
+      <c r="AB182" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC182"/>
       <c r="AD182" t="s">
         <v>323</v>
       </c>
@@ -28297,13 +28475,10 @@
       <c r="H183" t="s">
         <v>252</v>
       </c>
-      <c r="J183" t="s">
-        <v>349</v>
-      </c>
       <c r="K183" t="s">
         <v>111</v>
       </c>
-      <c r="L183" s="12" t="s">
+      <c r="L183" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M183" t="s">
@@ -28324,6 +28499,10 @@
       <c r="X183" t="s">
         <v>251</v>
       </c>
+      <c r="AB183" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC183"/>
       <c r="AD183" t="s">
         <v>323</v>
       </c>
@@ -28353,13 +28532,10 @@
       <c r="H184" t="s">
         <v>251</v>
       </c>
-      <c r="J184" t="s">
-        <v>349</v>
-      </c>
       <c r="K184" t="s">
         <v>111</v>
       </c>
-      <c r="L184" s="12" t="s">
+      <c r="L184" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M184" t="s">
@@ -28380,6 +28556,10 @@
       <c r="X184" t="s">
         <v>251</v>
       </c>
+      <c r="AB184" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC184"/>
       <c r="AD184" t="s">
         <v>323</v>
       </c>
@@ -28409,13 +28589,10 @@
       <c r="H185" t="s">
         <v>251</v>
       </c>
-      <c r="J185" t="s">
-        <v>349</v>
-      </c>
       <c r="K185" t="s">
         <v>111</v>
       </c>
-      <c r="L185" s="12" t="s">
+      <c r="L185" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M185" t="s">
@@ -28436,6 +28613,10 @@
       <c r="X185" t="s">
         <v>251</v>
       </c>
+      <c r="AB185" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC185"/>
       <c r="AD185" t="s">
         <v>323</v>
       </c>
@@ -28465,13 +28646,10 @@
       <c r="H186" t="s">
         <v>251</v>
       </c>
-      <c r="J186" t="s">
-        <v>349</v>
-      </c>
       <c r="K186" t="s">
         <v>108</v>
       </c>
-      <c r="L186" s="12" t="s">
+      <c r="L186" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M186" t="s">
@@ -28492,6 +28670,10 @@
       <c r="X186" t="s">
         <v>251</v>
       </c>
+      <c r="AB186" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC186"/>
       <c r="AD186" t="s">
         <v>323</v>
       </c>
@@ -28521,13 +28703,10 @@
       <c r="H187" t="s">
         <v>251</v>
       </c>
-      <c r="J187" t="s">
-        <v>349</v>
-      </c>
       <c r="K187" t="s">
         <v>113</v>
       </c>
-      <c r="L187" s="12" t="s">
+      <c r="L187" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M187" t="s">
@@ -28548,6 +28727,10 @@
       <c r="X187" t="s">
         <v>251</v>
       </c>
+      <c r="AB187" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC187"/>
       <c r="AD187" t="s">
         <v>323</v>
       </c>
@@ -28577,13 +28760,10 @@
       <c r="H188" t="s">
         <v>252</v>
       </c>
-      <c r="J188" t="s">
-        <v>349</v>
-      </c>
       <c r="K188" t="s">
         <v>115</v>
       </c>
-      <c r="L188" s="12" t="s">
+      <c r="L188" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M188" t="s">
@@ -28604,7 +28784,10 @@
       <c r="X188" t="s">
         <v>251</v>
       </c>
-      <c r="AA188" t="s">
+      <c r="AB188" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC188" t="s">
         <v>593</v>
       </c>
       <c r="AD188" t="s">
@@ -28627,13 +28810,10 @@
       <c r="E189">
         <v>350</v>
       </c>
-      <c r="J189" t="s">
-        <v>349</v>
-      </c>
       <c r="K189" t="s">
         <v>115</v>
       </c>
-      <c r="L189" s="12" t="s">
+      <c r="L189" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M189" t="s">
@@ -28654,6 +28834,10 @@
       <c r="X189" t="s">
         <v>251</v>
       </c>
+      <c r="AB189" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC189"/>
     </row>
     <row r="190" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
@@ -28668,13 +28852,10 @@
       <c r="E190">
         <v>360</v>
       </c>
-      <c r="J190" t="s">
-        <v>349</v>
-      </c>
       <c r="K190" t="s">
         <v>115</v>
       </c>
-      <c r="L190" s="12" t="s">
+      <c r="L190" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M190" t="s">
@@ -28695,6 +28876,10 @@
       <c r="X190" t="s">
         <v>251</v>
       </c>
+      <c r="AB190" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC190"/>
     </row>
     <row r="191" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
@@ -28718,13 +28903,10 @@
       <c r="H191" t="s">
         <v>252</v>
       </c>
-      <c r="J191" t="s">
-        <v>349</v>
-      </c>
       <c r="K191" t="s">
         <v>115</v>
       </c>
-      <c r="L191" s="12" t="s">
+      <c r="L191" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M191" t="s">
@@ -28745,6 +28927,10 @@
       <c r="X191" t="s">
         <v>251</v>
       </c>
+      <c r="AB191" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC191"/>
       <c r="AD191" t="s">
         <v>323</v>
       </c>
@@ -28777,13 +28963,10 @@
       <c r="H192" t="s">
         <v>251</v>
       </c>
-      <c r="J192" t="s">
-        <v>349</v>
-      </c>
       <c r="K192" t="s">
         <v>115</v>
       </c>
-      <c r="L192" s="12" t="s">
+      <c r="L192" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M192" t="s">
@@ -28804,6 +28987,10 @@
       <c r="X192" t="s">
         <v>251</v>
       </c>
+      <c r="AB192" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC192"/>
       <c r="AD192" t="s">
         <v>323</v>
       </c>
@@ -28833,13 +29020,10 @@
       <c r="H193" t="s">
         <v>251</v>
       </c>
-      <c r="J193" t="s">
-        <v>349</v>
-      </c>
       <c r="K193" t="s">
         <v>598</v>
       </c>
-      <c r="L193" s="12" t="s">
+      <c r="L193" s="11" t="s">
         <v>251</v>
       </c>
       <c r="M193" t="s">
@@ -28860,7 +29044,10 @@
       <c r="X193" t="s">
         <v>251</v>
       </c>
-      <c r="AA193" t="s">
+      <c r="AB193" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC193" t="s">
         <v>601</v>
       </c>
       <c r="AD193" t="s">
@@ -28910,7 +29097,6 @@
         <v>129</v>
       </c>
       <c r="X194"/>
-      <c r="AC194" s="10"/>
       <c r="AD194" s="8" t="s">
         <v>323</v>
       </c>
@@ -28955,6 +29141,7 @@
       <c r="V195" t="s">
         <v>168</v>
       </c>
+      <c r="AC195"/>
       <c r="AD195" t="s">
         <v>323</v>
       </c>
@@ -28999,6 +29186,7 @@
       <c r="V196" t="s">
         <v>169</v>
       </c>
+      <c r="AC196"/>
       <c r="AD196" t="s">
         <v>323</v>
       </c>
@@ -29043,6 +29231,7 @@
       <c r="V197" t="s">
         <v>170</v>
       </c>
+      <c r="AC197"/>
       <c r="AD197" t="s">
         <v>323</v>
       </c>
@@ -29087,6 +29276,7 @@
       <c r="V198" t="s">
         <v>171</v>
       </c>
+      <c r="AC198"/>
       <c r="AD198" t="s">
         <v>323</v>
       </c>
@@ -29134,6 +29324,7 @@
       <c r="V199" t="s">
         <v>172</v>
       </c>
+      <c r="AC199"/>
       <c r="AD199" t="s">
         <v>323</v>
       </c>
@@ -29178,6 +29369,7 @@
       <c r="V200" t="s">
         <v>173</v>
       </c>
+      <c r="AC200"/>
       <c r="AD200" t="s">
         <v>323</v>
       </c>
@@ -29222,6 +29414,7 @@
       <c r="V201" t="s">
         <v>174</v>
       </c>
+      <c r="AC201"/>
       <c r="AD201" t="s">
         <v>323</v>
       </c>
@@ -29266,6 +29459,7 @@
       <c r="V202" t="s">
         <v>175</v>
       </c>
+      <c r="AC202"/>
       <c r="AD202" t="s">
         <v>323</v>
       </c>
@@ -29310,6 +29504,7 @@
       <c r="V203" t="s">
         <v>176</v>
       </c>
+      <c r="AC203"/>
       <c r="AD203" t="s">
         <v>323</v>
       </c>
@@ -29354,6 +29549,7 @@
       <c r="V204" t="s">
         <v>177</v>
       </c>
+      <c r="AC204"/>
       <c r="AD204" t="s">
         <v>323</v>
       </c>
@@ -29398,6 +29594,7 @@
       <c r="V205" t="s">
         <v>178</v>
       </c>
+      <c r="AC205"/>
       <c r="AD205" t="s">
         <v>323</v>
       </c>
@@ -29442,6 +29639,7 @@
       <c r="V206" t="s">
         <v>179</v>
       </c>
+      <c r="AC206"/>
       <c r="AD206" t="s">
         <v>323</v>
       </c>
@@ -29489,6 +29687,7 @@
       <c r="V207" t="s">
         <v>229</v>
       </c>
+      <c r="AC207"/>
       <c r="AD207" t="s">
         <v>323</v>
       </c>
@@ -29533,6 +29732,7 @@
       <c r="V208" t="s">
         <v>180</v>
       </c>
+      <c r="AC208"/>
       <c r="AD208" t="s">
         <v>323</v>
       </c>
@@ -29580,6 +29780,7 @@
       <c r="V209" t="s">
         <v>143</v>
       </c>
+      <c r="AC209"/>
       <c r="AD209" t="s">
         <v>323</v>
       </c>
@@ -29624,6 +29825,7 @@
       <c r="V210" t="s">
         <v>202</v>
       </c>
+      <c r="AC210"/>
       <c r="AD210" t="s">
         <v>329</v>
       </c>
@@ -29668,6 +29870,7 @@
       <c r="V211" t="s">
         <v>203</v>
       </c>
+      <c r="AC211"/>
       <c r="AD211" t="s">
         <v>329</v>
       </c>
@@ -29712,6 +29915,7 @@
       <c r="V212" t="s">
         <v>104</v>
       </c>
+      <c r="AC212"/>
       <c r="AD212" t="s">
         <v>329</v>
       </c>
@@ -29756,6 +29960,7 @@
       <c r="V213" t="s">
         <v>204</v>
       </c>
+      <c r="AC213"/>
       <c r="AD213" t="s">
         <v>329</v>
       </c>
@@ -29800,6 +30005,7 @@
       <c r="V214" t="s">
         <v>250</v>
       </c>
+      <c r="AC214"/>
       <c r="AD214" t="s">
         <v>329</v>
       </c>
@@ -29844,6 +30050,7 @@
       <c r="V215" t="s">
         <v>205</v>
       </c>
+      <c r="AC215"/>
       <c r="AD215" t="s">
         <v>329</v>
       </c>
@@ -29888,6 +30095,7 @@
       <c r="V216" t="s">
         <v>216</v>
       </c>
+      <c r="AC216"/>
       <c r="AD216" t="s">
         <v>329</v>
       </c>
@@ -29932,6 +30140,7 @@
       <c r="V217" t="s">
         <v>209</v>
       </c>
+      <c r="AC217"/>
       <c r="AD217" t="s">
         <v>329</v>
       </c>
@@ -29976,6 +30185,7 @@
       <c r="V218" t="s">
         <v>206</v>
       </c>
+      <c r="AC218"/>
       <c r="AD218" t="s">
         <v>329</v>
       </c>
@@ -30020,6 +30230,7 @@
       <c r="V219" t="s">
         <v>207</v>
       </c>
+      <c r="AC219"/>
       <c r="AD219" t="s">
         <v>329</v>
       </c>
@@ -30064,6 +30275,7 @@
       <c r="V220" t="s">
         <v>208</v>
       </c>
+      <c r="AC220"/>
       <c r="AD220" t="s">
         <v>329</v>
       </c>
@@ -30096,6 +30308,7 @@
       <c r="V221" t="s">
         <v>129</v>
       </c>
+      <c r="AC221"/>
       <c r="AD221" t="s">
         <v>323</v>
       </c>
@@ -30140,6 +30353,7 @@
       <c r="V222" t="s">
         <v>210</v>
       </c>
+      <c r="AC222"/>
       <c r="AD222" t="s">
         <v>323</v>
       </c>
@@ -30187,6 +30401,7 @@
       <c r="V223" t="s">
         <v>211</v>
       </c>
+      <c r="AC223"/>
       <c r="AD223" t="s">
         <v>323</v>
       </c>
@@ -30234,6 +30449,7 @@
       <c r="V224" t="s">
         <v>212</v>
       </c>
+      <c r="AC224"/>
       <c r="AD224" t="s">
         <v>323</v>
       </c>
@@ -30278,6 +30494,7 @@
       <c r="V225" t="s">
         <v>213</v>
       </c>
+      <c r="AC225"/>
       <c r="AD225" t="s">
         <v>323</v>
       </c>
@@ -30322,6 +30539,7 @@
       <c r="V226" t="s">
         <v>214</v>
       </c>
+      <c r="AC226"/>
       <c r="AD226" t="s">
         <v>323</v>
       </c>
@@ -30369,6 +30587,7 @@
       <c r="V227" t="s">
         <v>215</v>
       </c>
+      <c r="AC227"/>
       <c r="AD227" t="s">
         <v>323</v>
       </c>
@@ -30416,6 +30635,7 @@
       <c r="V228" t="s">
         <v>147</v>
       </c>
+      <c r="AC228"/>
       <c r="AD228" t="s">
         <v>323</v>
       </c>
@@ -30460,6 +30680,7 @@
       <c r="V229" t="s">
         <v>148</v>
       </c>
+      <c r="AC229"/>
       <c r="AD229" t="s">
         <v>323</v>
       </c>
@@ -30504,6 +30725,7 @@
       <c r="V230" t="s">
         <v>149</v>
       </c>
+      <c r="AC230"/>
       <c r="AD230" t="s">
         <v>323</v>
       </c>
@@ -30548,6 +30770,7 @@
       <c r="V231" t="s">
         <v>150</v>
       </c>
+      <c r="AC231"/>
       <c r="AD231" t="s">
         <v>323</v>
       </c>
@@ -30592,6 +30815,7 @@
       <c r="V232" t="s">
         <v>151</v>
       </c>
+      <c r="AC232"/>
       <c r="AD232" t="s">
         <v>323</v>
       </c>
@@ -30636,6 +30860,7 @@
       <c r="V233" t="s">
         <v>152</v>
       </c>
+      <c r="AC233"/>
       <c r="AD233" t="s">
         <v>323</v>
       </c>
@@ -30680,6 +30905,7 @@
       <c r="V234" t="s">
         <v>153</v>
       </c>
+      <c r="AC234"/>
       <c r="AD234" t="s">
         <v>323</v>
       </c>
@@ -30727,6 +30953,7 @@
       <c r="V235" t="s">
         <v>129</v>
       </c>
+      <c r="AC235"/>
       <c r="AD235" t="s">
         <v>323</v>
       </c>
@@ -30771,6 +30998,7 @@
       <c r="V236" t="s">
         <v>129</v>
       </c>
+      <c r="AC236"/>
       <c r="AD236" t="s">
         <v>323</v>
       </c>
@@ -30815,6 +31043,7 @@
       <c r="V237" t="s">
         <v>181</v>
       </c>
+      <c r="AC237"/>
       <c r="AD237" t="s">
         <v>323</v>
       </c>
@@ -30859,6 +31088,7 @@
       <c r="V238" t="s">
         <v>182</v>
       </c>
+      <c r="AC238"/>
       <c r="AD238" t="s">
         <v>323</v>
       </c>
@@ -30903,6 +31133,7 @@
       <c r="V239" t="s">
         <v>129</v>
       </c>
+      <c r="AC239"/>
       <c r="AD239" t="s">
         <v>323</v>
       </c>
@@ -30947,6 +31178,7 @@
       <c r="V240" t="s">
         <v>156</v>
       </c>
+      <c r="AC240"/>
       <c r="AD240" t="s">
         <v>323</v>
       </c>
@@ -30991,6 +31223,7 @@
       <c r="V241" t="s">
         <v>157</v>
       </c>
+      <c r="AC241"/>
       <c r="AD241" t="s">
         <v>323</v>
       </c>
@@ -31035,6 +31268,7 @@
       <c r="V242" t="s">
         <v>158</v>
       </c>
+      <c r="AC242"/>
       <c r="AD242" t="s">
         <v>323</v>
       </c>
@@ -31079,6 +31313,7 @@
       <c r="V243" t="s">
         <v>159</v>
       </c>
+      <c r="AC243"/>
       <c r="AD243" t="s">
         <v>323</v>
       </c>
@@ -31123,6 +31358,7 @@
       <c r="V244" t="s">
         <v>160</v>
       </c>
+      <c r="AC244"/>
       <c r="AD244" t="s">
         <v>323</v>
       </c>
@@ -31167,6 +31403,7 @@
       <c r="V245" t="s">
         <v>161</v>
       </c>
+      <c r="AC245"/>
       <c r="AD245" t="s">
         <v>323</v>
       </c>
@@ -31211,6 +31448,7 @@
       <c r="V246" t="s">
         <v>162</v>
       </c>
+      <c r="AC246"/>
       <c r="AD246" t="s">
         <v>323</v>
       </c>
@@ -31255,6 +31493,7 @@
       <c r="V247" t="s">
         <v>163</v>
       </c>
+      <c r="AC247"/>
       <c r="AD247" t="s">
         <v>323</v>
       </c>
@@ -31299,6 +31538,7 @@
       <c r="V248" t="s">
         <v>164</v>
       </c>
+      <c r="AC248"/>
       <c r="AD248" t="s">
         <v>323</v>
       </c>
@@ -31343,6 +31583,7 @@
       <c r="V249" t="s">
         <v>165</v>
       </c>
+      <c r="AC249"/>
       <c r="AD249" t="s">
         <v>323</v>
       </c>
@@ -31387,6 +31628,7 @@
       <c r="V250" t="s">
         <v>129</v>
       </c>
+      <c r="AC250"/>
       <c r="AD250" t="s">
         <v>323</v>
       </c>
@@ -31431,6 +31673,7 @@
       <c r="V251" t="s">
         <v>183</v>
       </c>
+      <c r="AC251"/>
       <c r="AD251" t="s">
         <v>323</v>
       </c>
@@ -31475,6 +31718,7 @@
       <c r="V252" t="s">
         <v>184</v>
       </c>
+      <c r="AC252"/>
       <c r="AD252" t="s">
         <v>323</v>
       </c>
@@ -31519,6 +31763,7 @@
       <c r="V253" t="s">
         <v>185</v>
       </c>
+      <c r="AC253"/>
       <c r="AD253" t="s">
         <v>323</v>
       </c>
@@ -31563,6 +31808,7 @@
       <c r="V254" t="s">
         <v>186</v>
       </c>
+      <c r="AC254"/>
       <c r="AD254" t="s">
         <v>323</v>
       </c>
@@ -31607,6 +31853,7 @@
       <c r="V255" t="s">
         <v>245</v>
       </c>
+      <c r="AC255"/>
       <c r="AD255" t="s">
         <v>323</v>
       </c>
@@ -31651,6 +31898,7 @@
       <c r="V256" t="s">
         <v>187</v>
       </c>
+      <c r="AC256"/>
       <c r="AD256" t="s">
         <v>323</v>
       </c>
@@ -31695,6 +31943,7 @@
       <c r="V257" t="s">
         <v>188</v>
       </c>
+      <c r="AC257"/>
       <c r="AD257" t="s">
         <v>323</v>
       </c>
@@ -31739,6 +31988,7 @@
       <c r="V258" t="s">
         <v>189</v>
       </c>
+      <c r="AC258"/>
       <c r="AD258" t="s">
         <v>323</v>
       </c>
@@ -31783,6 +32033,7 @@
       <c r="V259" t="s">
         <v>190</v>
       </c>
+      <c r="AC259"/>
       <c r="AD259" t="s">
         <v>323</v>
       </c>
@@ -31827,6 +32078,7 @@
       <c r="V260" t="s">
         <v>246</v>
       </c>
+      <c r="AC260"/>
       <c r="AD260" t="s">
         <v>323</v>
       </c>
@@ -31871,6 +32123,7 @@
       <c r="V261" t="s">
         <v>191</v>
       </c>
+      <c r="AC261"/>
       <c r="AD261" t="s">
         <v>323</v>
       </c>
@@ -31915,6 +32168,7 @@
       <c r="V262" t="s">
         <v>192</v>
       </c>
+      <c r="AC262"/>
       <c r="AD262" t="s">
         <v>323</v>
       </c>
@@ -31959,6 +32213,7 @@
       <c r="V263" t="s">
         <v>193</v>
       </c>
+      <c r="AC263"/>
       <c r="AD263" t="s">
         <v>323</v>
       </c>
@@ -32003,6 +32258,7 @@
       <c r="V264" t="s">
         <v>194</v>
       </c>
+      <c r="AC264"/>
       <c r="AD264" t="s">
         <v>323</v>
       </c>
@@ -32047,6 +32303,7 @@
       <c r="V265" t="s">
         <v>195</v>
       </c>
+      <c r="AC265"/>
       <c r="AD265" t="s">
         <v>323</v>
       </c>
@@ -32091,6 +32348,7 @@
       <c r="V266" t="s">
         <v>196</v>
       </c>
+      <c r="AC266"/>
       <c r="AD266" t="s">
         <v>323</v>
       </c>
@@ -32135,6 +32393,7 @@
       <c r="V267" t="s">
         <v>129</v>
       </c>
+      <c r="AC267"/>
       <c r="AD267" t="s">
         <v>323</v>
       </c>
@@ -32179,6 +32438,7 @@
       <c r="V268" t="s">
         <v>166</v>
       </c>
+      <c r="AC268"/>
       <c r="AD268" t="s">
         <v>323</v>
       </c>
@@ -32223,6 +32483,7 @@
       <c r="V269" t="s">
         <v>167</v>
       </c>
+      <c r="AC269"/>
       <c r="AD269" t="s">
         <v>323</v>
       </c>
@@ -32267,6 +32528,7 @@
       <c r="V270" t="s">
         <v>197</v>
       </c>
+      <c r="AC270"/>
       <c r="AD270" t="s">
         <v>323</v>
       </c>
@@ -32311,6 +32573,7 @@
       <c r="V271" t="s">
         <v>129</v>
       </c>
+      <c r="AC271"/>
       <c r="AD271" t="s">
         <v>323</v>
       </c>
@@ -32355,6 +32618,7 @@
       <c r="V272" t="s">
         <v>247</v>
       </c>
+      <c r="AC272"/>
       <c r="AD272" t="s">
         <v>323</v>
       </c>
@@ -32399,6 +32663,7 @@
       <c r="V273" t="s">
         <v>198</v>
       </c>
+      <c r="AC273"/>
       <c r="AD273" t="s">
         <v>323</v>
       </c>
@@ -32446,6 +32711,7 @@
       <c r="V274" t="s">
         <v>199</v>
       </c>
+      <c r="AC274"/>
       <c r="AD274" t="s">
         <v>323</v>
       </c>
@@ -32490,6 +32756,7 @@
       <c r="V275" t="s">
         <v>200</v>
       </c>
+      <c r="AC275"/>
       <c r="AD275" t="s">
         <v>323</v>
       </c>
@@ -32537,6 +32804,7 @@
       <c r="V276" t="s">
         <v>248</v>
       </c>
+      <c r="AC276"/>
       <c r="AD276" t="s">
         <v>323</v>
       </c>
@@ -32584,6 +32852,7 @@
       <c r="V277" t="s">
         <v>249</v>
       </c>
+      <c r="AC277"/>
       <c r="AD277" t="s">
         <v>323</v>
       </c>
@@ -32631,6 +32900,7 @@
       <c r="V278" t="s">
         <v>201</v>
       </c>
+      <c r="AC278"/>
       <c r="AD278" t="s">
         <v>323</v>
       </c>
@@ -32678,6 +32948,7 @@
       <c r="V279" t="s">
         <v>129</v>
       </c>
+      <c r="AC279"/>
       <c r="AD279" t="s">
         <v>323</v>
       </c>
@@ -32722,6 +32993,7 @@
       <c r="V280" t="s">
         <v>217</v>
       </c>
+      <c r="AC280"/>
       <c r="AD280" t="s">
         <v>323</v>
       </c>
@@ -32766,6 +33038,7 @@
       <c r="V281" t="s">
         <v>218</v>
       </c>
+      <c r="AC281"/>
       <c r="AD281" t="s">
         <v>323</v>
       </c>
@@ -32810,6 +33083,7 @@
       <c r="V282" t="s">
         <v>219</v>
       </c>
+      <c r="AC282"/>
       <c r="AD282" t="s">
         <v>323</v>
       </c>
@@ -32857,6 +33131,7 @@
       <c r="V283" t="s">
         <v>220</v>
       </c>
+      <c r="AC283"/>
       <c r="AD283" t="s">
         <v>323</v>
       </c>
@@ -32901,6 +33176,7 @@
       <c r="V284" t="s">
         <v>221</v>
       </c>
+      <c r="AC284"/>
       <c r="AD284" t="s">
         <v>323</v>
       </c>
@@ -32945,6 +33221,7 @@
       <c r="V285" t="s">
         <v>222</v>
       </c>
+      <c r="AC285"/>
       <c r="AD285" t="s">
         <v>323</v>
       </c>
@@ -32989,6 +33266,7 @@
       <c r="V286" t="s">
         <v>227</v>
       </c>
+      <c r="AC286"/>
       <c r="AD286" t="s">
         <v>323</v>
       </c>
@@ -33036,6 +33314,7 @@
       <c r="V287" t="s">
         <v>228</v>
       </c>
+      <c r="AC287"/>
       <c r="AD287" t="s">
         <v>323</v>
       </c>
@@ -33083,6 +33362,7 @@
       <c r="V288" t="s">
         <v>129</v>
       </c>
+      <c r="AC288"/>
       <c r="AD288" t="s">
         <v>323</v>
       </c>
@@ -33127,6 +33407,7 @@
       <c r="V289" t="s">
         <v>133</v>
       </c>
+      <c r="AC289"/>
       <c r="AD289" t="s">
         <v>323</v>
       </c>
@@ -33174,6 +33455,7 @@
       <c r="V290" t="s">
         <v>244</v>
       </c>
+      <c r="AC290"/>
       <c r="AD290" t="s">
         <v>323</v>
       </c>
@@ -33218,6 +33500,7 @@
       <c r="V291" t="s">
         <v>134</v>
       </c>
+      <c r="AC291"/>
       <c r="AD291" t="s">
         <v>323</v>
       </c>
@@ -33265,6 +33548,7 @@
       <c r="V292" t="s">
         <v>135</v>
       </c>
+      <c r="AC292"/>
       <c r="AD292" t="s">
         <v>323</v>
       </c>
@@ -33309,6 +33593,7 @@
       <c r="V293" t="s">
         <v>241</v>
       </c>
+      <c r="AC293"/>
       <c r="AD293" t="s">
         <v>323</v>
       </c>
@@ -33353,6 +33638,7 @@
       <c r="V294" t="s">
         <v>129</v>
       </c>
+      <c r="AC294"/>
       <c r="AD294" t="s">
         <v>323</v>
       </c>
@@ -33397,6 +33683,7 @@
       <c r="V295" t="s">
         <v>223</v>
       </c>
+      <c r="AC295"/>
       <c r="AD295" t="s">
         <v>323</v>
       </c>
@@ -33444,6 +33731,7 @@
       <c r="V296" t="s">
         <v>129</v>
       </c>
+      <c r="AC296"/>
       <c r="AD296" t="s">
         <v>323</v>
       </c>
@@ -33488,6 +33776,7 @@
       <c r="V297" t="s">
         <v>231</v>
       </c>
+      <c r="AC297"/>
       <c r="AD297" t="s">
         <v>323</v>
       </c>
@@ -33532,6 +33821,7 @@
       <c r="V298" t="s">
         <v>232</v>
       </c>
+      <c r="AC298"/>
       <c r="AD298" t="s">
         <v>323</v>
       </c>
@@ -33579,6 +33869,7 @@
       <c r="V299" t="s">
         <v>233</v>
       </c>
+      <c r="AC299"/>
       <c r="AD299" t="s">
         <v>323</v>
       </c>
@@ -33623,6 +33914,7 @@
       <c r="V300" t="s">
         <v>129</v>
       </c>
+      <c r="AC300"/>
       <c r="AD300" t="s">
         <v>323</v>
       </c>
@@ -33667,6 +33959,7 @@
       <c r="V301" t="s">
         <v>129</v>
       </c>
+      <c r="AC301"/>
       <c r="AD301" t="s">
         <v>328</v>
       </c>
@@ -33708,6 +34001,7 @@
       <c r="V302" t="s">
         <v>154</v>
       </c>
+      <c r="AC302"/>
       <c r="AD302" t="s">
         <v>328</v>
       </c>
@@ -33752,6 +34046,7 @@
       <c r="V303" t="s">
         <v>155</v>
       </c>
+      <c r="AC303"/>
       <c r="AD303" t="s">
         <v>328</v>
       </c>
@@ -33796,6 +34091,7 @@
       <c r="V304" t="s">
         <v>129</v>
       </c>
+      <c r="AC304"/>
       <c r="AD304" t="s">
         <v>323</v>
       </c>
@@ -33840,6 +34136,7 @@
       <c r="V305" t="s">
         <v>230</v>
       </c>
+      <c r="AC305"/>
       <c r="AD305" t="s">
         <v>323</v>
       </c>
@@ -33884,6 +34181,7 @@
       <c r="V306" t="s">
         <v>129</v>
       </c>
+      <c r="AC306"/>
       <c r="AD306" t="s">
         <v>323</v>
       </c>
@@ -33928,6 +34226,7 @@
       <c r="V307" t="s">
         <v>234</v>
       </c>
+      <c r="AC307"/>
       <c r="AD307" t="s">
         <v>323</v>
       </c>
@@ -33972,6 +34271,7 @@
       <c r="V308" t="s">
         <v>235</v>
       </c>
+      <c r="AC308"/>
       <c r="AD308" t="s">
         <v>323</v>
       </c>
@@ -34016,6 +34316,7 @@
       <c r="V309" t="s">
         <v>142</v>
       </c>
+      <c r="AC309"/>
       <c r="AD309" t="s">
         <v>323</v>
       </c>
@@ -34066,7 +34367,6 @@
         <v>236</v>
       </c>
       <c r="X310"/>
-      <c r="AC310" s="10"/>
       <c r="AD310" s="8" t="s">
         <v>323</v>
       </c>
@@ -34087,9 +34387,6 @@
       <c r="E311">
         <v>331</v>
       </c>
-      <c r="J311" t="s">
-        <v>349</v>
-      </c>
       <c r="K311" t="s">
         <v>634</v>
       </c>
@@ -34114,6 +34411,10 @@
       <c r="X311" t="s">
         <v>251</v>
       </c>
+      <c r="AB311" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC311"/>
     </row>
     <row r="312" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
@@ -34137,9 +34438,6 @@
       <c r="H312" t="s">
         <v>251</v>
       </c>
-      <c r="J312" t="s">
-        <v>349</v>
-      </c>
       <c r="K312" t="s">
         <v>634</v>
       </c>
@@ -34164,6 +34462,10 @@
       <c r="X312" t="s">
         <v>251</v>
       </c>
+      <c r="AB312" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC312"/>
       <c r="AD312" t="s">
         <v>323</v>
       </c>
@@ -34184,9 +34486,6 @@
       <c r="E313">
         <v>334</v>
       </c>
-      <c r="J313" t="s">
-        <v>349</v>
-      </c>
       <c r="K313" t="s">
         <v>639</v>
       </c>
@@ -34211,6 +34510,10 @@
       <c r="X313" t="s">
         <v>251</v>
       </c>
+      <c r="AB313" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC313"/>
     </row>
     <row r="314" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
@@ -34234,9 +34537,6 @@
       <c r="H314" t="s">
         <v>251</v>
       </c>
-      <c r="J314" t="s">
-        <v>349</v>
-      </c>
       <c r="K314" t="s">
         <v>639</v>
       </c>
@@ -34261,6 +34561,10 @@
       <c r="X314" t="s">
         <v>251</v>
       </c>
+      <c r="AB314" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC314"/>
       <c r="AD314" t="s">
         <v>323</v>
       </c>
@@ -34293,9 +34597,6 @@
       <c r="H315" t="s">
         <v>252</v>
       </c>
-      <c r="J315" t="s">
-        <v>349</v>
-      </c>
       <c r="K315" t="s">
         <v>647</v>
       </c>
@@ -34320,6 +34621,10 @@
       <c r="X315" t="s">
         <v>251</v>
       </c>
+      <c r="AB315" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC315"/>
       <c r="AD315" t="s">
         <v>323</v>
       </c>
@@ -34349,9 +34654,6 @@
       <c r="H316" t="s">
         <v>252</v>
       </c>
-      <c r="J316" t="s">
-        <v>349</v>
-      </c>
       <c r="K316" t="s">
         <v>647</v>
       </c>
@@ -34376,6 +34678,10 @@
       <c r="X316" t="s">
         <v>251</v>
       </c>
+      <c r="AB316" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC316"/>
       <c r="AD316" t="s">
         <v>323</v>
       </c>
@@ -34399,9 +34705,6 @@
       <c r="E317">
         <v>342</v>
       </c>
-      <c r="J317" t="s">
-        <v>349</v>
-      </c>
       <c r="K317" t="s">
         <v>647</v>
       </c>
@@ -34426,6 +34729,10 @@
       <c r="X317" t="s">
         <v>251</v>
       </c>
+      <c r="AB317" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC317"/>
     </row>
     <row r="318" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
@@ -34440,9 +34747,6 @@
       <c r="E318">
         <v>346</v>
       </c>
-      <c r="J318" t="s">
-        <v>349</v>
-      </c>
       <c r="K318" t="s">
         <v>652</v>
       </c>
@@ -34467,6 +34771,10 @@
       <c r="X318" t="s">
         <v>251</v>
       </c>
+      <c r="AB318" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC318"/>
     </row>
     <row r="319" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
@@ -34481,9 +34789,6 @@
       <c r="E319">
         <v>345</v>
       </c>
-      <c r="J319" t="s">
-        <v>349</v>
-      </c>
       <c r="K319" t="s">
         <v>652</v>
       </c>
@@ -34508,6 +34813,10 @@
       <c r="X319" t="s">
         <v>251</v>
       </c>
+      <c r="AB319" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC319"/>
     </row>
     <row r="320" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
@@ -34522,9 +34831,6 @@
       <c r="E320">
         <v>346</v>
       </c>
-      <c r="J320" t="s">
-        <v>349</v>
-      </c>
       <c r="K320" t="s">
         <v>656</v>
       </c>
@@ -34549,6 +34855,10 @@
       <c r="X320" t="s">
         <v>251</v>
       </c>
+      <c r="AB320" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC320"/>
     </row>
     <row r="321" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
@@ -34563,9 +34873,6 @@
       <c r="E321">
         <v>346</v>
       </c>
-      <c r="J321" t="s">
-        <v>349</v>
-      </c>
       <c r="K321" t="s">
         <v>659</v>
       </c>
@@ -34590,7 +34897,10 @@
       <c r="X321" t="s">
         <v>251</v>
       </c>
-      <c r="AA321" t="s">
+      <c r="AB321" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC321" t="s">
         <v>665</v>
       </c>
     </row>
@@ -34607,9 +34917,6 @@
       <c r="E322">
         <v>346</v>
       </c>
-      <c r="J322" t="s">
-        <v>349</v>
-      </c>
       <c r="K322" t="s">
         <v>660</v>
       </c>
@@ -34634,7 +34941,10 @@
       <c r="X322" t="s">
         <v>251</v>
       </c>
-      <c r="AA322" t="s">
+      <c r="AB322" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC322" t="s">
         <v>665</v>
       </c>
     </row>
@@ -34651,9 +34961,6 @@
       <c r="E323">
         <v>349</v>
       </c>
-      <c r="J323" t="s">
-        <v>349</v>
-      </c>
       <c r="K323" t="s">
         <v>667</v>
       </c>
@@ -34678,6 +34985,10 @@
       <c r="X323" t="s">
         <v>251</v>
       </c>
+      <c r="AB323" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC323"/>
     </row>
     <row r="324" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
@@ -34701,9 +35012,6 @@
       <c r="H324" t="s">
         <v>251</v>
       </c>
-      <c r="J324" t="s">
-        <v>349</v>
-      </c>
       <c r="K324" t="s">
         <v>667</v>
       </c>
@@ -34728,6 +35036,10 @@
       <c r="X324" t="s">
         <v>251</v>
       </c>
+      <c r="AB324" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC324"/>
       <c r="AD324" t="s">
         <v>323</v>
       </c>
@@ -34760,9 +35072,6 @@
       <c r="H325" t="s">
         <v>251</v>
       </c>
-      <c r="J325" t="s">
-        <v>349</v>
-      </c>
       <c r="K325" t="s">
         <v>86</v>
       </c>
@@ -34787,6 +35096,10 @@
       <c r="X325" t="s">
         <v>251</v>
       </c>
+      <c r="AB325" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC325"/>
       <c r="AD325" t="s">
         <v>323</v>
       </c>
@@ -34816,9 +35129,6 @@
       <c r="H326" t="s">
         <v>251</v>
       </c>
-      <c r="J326" t="s">
-        <v>349</v>
-      </c>
       <c r="K326" t="s">
         <v>84</v>
       </c>
@@ -34843,6 +35153,10 @@
       <c r="X326" t="s">
         <v>251</v>
       </c>
+      <c r="AB326" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC326"/>
       <c r="AD326" t="s">
         <v>323</v>
       </c>
@@ -34872,9 +35186,6 @@
       <c r="H327" t="s">
         <v>251</v>
       </c>
-      <c r="J327" t="s">
-        <v>349</v>
-      </c>
       <c r="K327" t="s">
         <v>676</v>
       </c>
@@ -34905,6 +35216,10 @@
       <c r="X327" t="s">
         <v>251</v>
       </c>
+      <c r="AB327" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC327"/>
       <c r="AD327" t="s">
         <v>323</v>
       </c>
@@ -34934,9 +35249,6 @@
       <c r="H328" t="s">
         <v>251</v>
       </c>
-      <c r="J328" t="s">
-        <v>349</v>
-      </c>
       <c r="K328" t="s">
         <v>676</v>
       </c>
@@ -34967,6 +35279,10 @@
       <c r="X328" t="s">
         <v>251</v>
       </c>
+      <c r="AB328" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC328"/>
       <c r="AD328" t="s">
         <v>323</v>
       </c>
@@ -34987,9 +35303,6 @@
       <c r="E329">
         <v>356</v>
       </c>
-      <c r="J329" t="s">
-        <v>349</v>
-      </c>
       <c r="K329" t="s">
         <v>683</v>
       </c>
@@ -35014,6 +35327,10 @@
       <c r="X329" t="s">
         <v>251</v>
       </c>
+      <c r="AB329" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC329"/>
     </row>
     <row r="330" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
@@ -35037,9 +35354,6 @@
       <c r="H330" t="s">
         <v>251</v>
       </c>
-      <c r="J330" t="s">
-        <v>349</v>
-      </c>
       <c r="K330" t="s">
         <v>683</v>
       </c>
@@ -35064,6 +35378,10 @@
       <c r="X330" t="s">
         <v>251</v>
       </c>
+      <c r="AB330" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC330"/>
       <c r="AD330" t="s">
         <v>323</v>
       </c>
@@ -35084,9 +35402,6 @@
       <c r="E331">
         <v>359</v>
       </c>
-      <c r="J331" t="s">
-        <v>349</v>
-      </c>
       <c r="K331" t="s">
         <v>685</v>
       </c>
@@ -35111,6 +35426,10 @@
       <c r="X331" t="s">
         <v>251</v>
       </c>
+      <c r="AB331" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC331"/>
     </row>
     <row r="332" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B332" t="s">
@@ -35134,9 +35453,6 @@
       <c r="H332" t="s">
         <v>251</v>
       </c>
-      <c r="J332" t="s">
-        <v>349</v>
-      </c>
       <c r="K332" t="s">
         <v>686</v>
       </c>
@@ -35161,6 +35477,10 @@
       <c r="X332" t="s">
         <v>251</v>
       </c>
+      <c r="AB332" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC332"/>
       <c r="AD332" t="s">
         <v>323</v>
       </c>
@@ -35181,9 +35501,6 @@
       <c r="E333">
         <v>359</v>
       </c>
-      <c r="J333" t="s">
-        <v>349</v>
-      </c>
       <c r="K333" t="s">
         <v>690</v>
       </c>
@@ -35196,7 +35513,7 @@
       <c r="N333" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="O333" s="14" t="s">
+      <c r="O333" s="13" t="s">
         <v>692</v>
       </c>
       <c r="V333" t="s">
@@ -35208,6 +35525,10 @@
       <c r="X333" t="s">
         <v>251</v>
       </c>
+      <c r="AB333" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC333"/>
     </row>
     <row r="334" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B334" t="s">
@@ -35231,9 +35552,6 @@
       <c r="H334" t="s">
         <v>251</v>
       </c>
-      <c r="J334" t="s">
-        <v>349</v>
-      </c>
       <c r="K334" t="s">
         <v>690</v>
       </c>
@@ -35246,7 +35564,7 @@
       <c r="N334" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="O334" s="14" t="s">
+      <c r="O334" s="13" t="s">
         <v>692</v>
       </c>
       <c r="V334" t="s">
@@ -35258,6 +35576,10 @@
       <c r="X334" t="s">
         <v>251</v>
       </c>
+      <c r="AB334" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC334"/>
       <c r="AD334" t="s">
         <v>323</v>
       </c>
@@ -35278,9 +35600,6 @@
       <c r="E335">
         <v>361</v>
       </c>
-      <c r="J335" t="s">
-        <v>349</v>
-      </c>
       <c r="K335" t="s">
         <v>694</v>
       </c>
@@ -35293,7 +35612,7 @@
       <c r="N335" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="O335" s="14" t="s">
+      <c r="O335" s="13" t="s">
         <v>695</v>
       </c>
       <c r="V335" t="s">
@@ -35305,6 +35624,10 @@
       <c r="X335" t="s">
         <v>251</v>
       </c>
+      <c r="AB335" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC335"/>
     </row>
     <row r="336" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B336" t="s">
@@ -35328,9 +35651,6 @@
       <c r="H336" t="s">
         <v>252</v>
       </c>
-      <c r="J336" t="s">
-        <v>349</v>
-      </c>
       <c r="K336" t="s">
         <v>65</v>
       </c>
@@ -35355,6 +35675,10 @@
       <c r="X336" t="s">
         <v>251</v>
       </c>
+      <c r="AB336" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC336"/>
       <c r="AD336" t="s">
         <v>321</v>
       </c>
@@ -35378,9 +35702,6 @@
       <c r="E337">
         <v>367</v>
       </c>
-      <c r="J337" t="s">
-        <v>349</v>
-      </c>
       <c r="K337">
         <v>999</v>
       </c>
@@ -35405,6 +35726,10 @@
       <c r="X337" t="s">
         <v>251</v>
       </c>
+      <c r="AB337" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC337"/>
     </row>
     <row r="338" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
@@ -35428,9 +35753,6 @@
       <c r="H338" t="s">
         <v>251</v>
       </c>
-      <c r="J338" t="s">
-        <v>349</v>
-      </c>
       <c r="K338">
         <v>999</v>
       </c>
@@ -35455,6 +35777,10 @@
       <c r="X338" t="s">
         <v>251</v>
       </c>
+      <c r="AB338" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC338"/>
       <c r="AF338" t="s">
         <v>251</v>
       </c>
@@ -35481,9 +35807,6 @@
       <c r="H339" t="s">
         <v>252</v>
       </c>
-      <c r="J339" t="s">
-        <v>349</v>
-      </c>
       <c r="K339" t="s">
         <v>90</v>
       </c>
@@ -35508,7 +35831,10 @@
       <c r="X339" t="s">
         <v>251</v>
       </c>
-      <c r="AA339" t="s">
+      <c r="AB339" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC339" t="s">
         <v>665</v>
       </c>
       <c r="AE339">
@@ -35531,9 +35857,6 @@
       <c r="E340" t="s">
         <v>125</v>
       </c>
-      <c r="J340" t="s">
-        <v>349</v>
-      </c>
       <c r="K340">
         <v>999</v>
       </c>
@@ -35558,6 +35881,10 @@
       <c r="X340" t="s">
         <v>251</v>
       </c>
+      <c r="AB340" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC340"/>
     </row>
     <row r="341" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B341" t="s">
@@ -35581,9 +35908,6 @@
       <c r="H341" t="s">
         <v>251</v>
       </c>
-      <c r="J341" t="s">
-        <v>349</v>
-      </c>
       <c r="K341">
         <v>999</v>
       </c>
@@ -35608,6 +35932,10 @@
       <c r="X341" t="s">
         <v>251</v>
       </c>
+      <c r="AB341" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC341"/>
       <c r="AF341" t="s">
         <v>251</v>
       </c>
@@ -35625,9 +35953,6 @@
       <c r="E342">
         <v>371</v>
       </c>
-      <c r="J342" t="s">
-        <v>349</v>
-      </c>
       <c r="K342">
         <v>999</v>
       </c>
@@ -35652,6 +35977,10 @@
       <c r="X342" t="s">
         <v>251</v>
       </c>
+      <c r="AB342" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC342"/>
     </row>
     <row r="343" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B343" t="s">
@@ -35675,9 +36004,6 @@
       <c r="H343" t="s">
         <v>251</v>
       </c>
-      <c r="J343" t="s">
-        <v>349</v>
-      </c>
       <c r="K343" t="s">
         <v>705</v>
       </c>
@@ -35702,6 +36028,10 @@
       <c r="X343" t="s">
         <v>251</v>
       </c>
+      <c r="AB343" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC343"/>
       <c r="AF343" t="s">
         <v>251</v>
       </c>
